--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,70 +493,70 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Md. Al-helal Uddin</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B2" t="str">
-        <v>Shamim</v>
+        <v>da</v>
       </c>
       <c r="C2" t="str">
-        <v>Archeology</v>
+        <v>Biochemistry &amp; Molicular Biology</v>
       </c>
       <c r="D2" t="str">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F2" t="str">
-        <v>+8801756477707</v>
+        <v>+6323</v>
       </c>
       <c r="H2" t="str">
-        <v>shamim1978@gmail.com</v>
+        <v>munnash</v>
       </c>
       <c r="I2" t="str">
-        <v>A. B. M. Asadullah</v>
+        <v>saa</v>
       </c>
       <c r="J2" t="str">
-        <v>Mrs. Akhtara Begum</v>
+        <v>sa</v>
       </c>
       <c r="K2" t="str">
-        <v>17/7</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L2" t="str">
-        <v>Azimpur</v>
+        <v>as</v>
       </c>
       <c r="M2" t="str">
-        <v>Lalbagh</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N2" t="str">
-        <v>1213</v>
+        <v>5189</v>
       </c>
       <c r="O2" t="str">
-        <v>Dhaka</v>
+        <v>as</v>
       </c>
       <c r="P2" t="str">
-        <v>Bangladesh</v>
+        <v>Philippines</v>
       </c>
       <c r="Q2" t="str">
-        <v>01814232539</v>
+        <v/>
       </c>
       <c r="R2" t="str">
-        <v>shamimalhelal</v>
+        <v/>
       </c>
       <c r="S2" t="str">
-        <v>1978-11-02</v>
+        <v>2022-06-08</v>
       </c>
       <c r="T2" t="str">
-        <v>Bangladeshi</v>
+        <v>ass</v>
       </c>
       <c r="U2" t="str">
-        <v>A+</v>
+        <v>A-</v>
       </c>
       <c r="V2" t="str">
-        <v>Islam</v>
+        <v>a</v>
       </c>
       <c r="W2" t="str">
-        <v>Service</v>
+        <v>asa</v>
       </c>
       <c r="X2" t="str">
         <v/>
@@ -568,60 +568,60 @@
         <v>MARRIED</v>
       </c>
       <c r="AA2" t="str">
-        <v>146, 222, 246</v>
+        <v/>
       </c>
       <c r="AB2" t="str">
-        <v xml:space="preserve">Wish all the best </v>
+        <v>s</v>
       </c>
       <c r="AC2" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656076355/jtpmzcvjuxeuhghbhlvi.jpg</v>
+        <v>http://res.cloudinary.com/drihikk07/image/upload/v1656475834/gnchmy1nrklrr4x91cqt.jpg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Gggg</v>
+        <v>sda</v>
       </c>
       <c r="B3" t="str">
-        <v>Ggggg</v>
+        <v>asd</v>
       </c>
       <c r="C3" t="str">
-        <v>Finance &amp; Banking</v>
+        <v>History</v>
       </c>
       <c r="D3" t="str">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" t="str">
-        <v>Faculty of Business Studies</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F3" t="str">
-        <v>+88017110825666</v>
+        <v>+8804324</v>
       </c>
       <c r="H3" t="str">
-        <v>stezamerran@gmail.com</v>
+        <v>reef</v>
       </c>
       <c r="I3" t="str">
-        <v>Ytyyyyy</v>
+        <v>ewqe</v>
       </c>
       <c r="J3" t="str">
-        <v>Yyyyuu</v>
+        <v>weq</v>
       </c>
       <c r="K3" t="str">
-        <v>Gggg</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L3" t="str">
-        <v>Ghgg</v>
+        <v>eqe</v>
       </c>
       <c r="M3" t="str">
-        <v>Ggg</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N3" t="str">
-        <v>Ghhgh</v>
+        <v>5189</v>
       </c>
       <c r="O3" t="str">
-        <v>Ggg</v>
+        <v>e</v>
       </c>
       <c r="P3" t="str">
-        <v>Gggg</v>
+        <v>Philippines</v>
       </c>
       <c r="Q3" t="str">
         <v/>
@@ -630,19 +630,19 @@
         <v/>
       </c>
       <c r="S3" t="str">
-        <v/>
+        <v>2022-06-08</v>
       </c>
       <c r="T3" t="str">
-        <v/>
+        <v>eq</v>
       </c>
       <c r="U3" t="str">
-        <v>B+</v>
+        <v>O+</v>
       </c>
       <c r="V3" t="str">
-        <v/>
+        <v>eq</v>
       </c>
       <c r="W3" t="str">
-        <v>Ggggh</v>
+        <v>eq</v>
       </c>
       <c r="X3" t="str">
         <v/>
@@ -651,155 +651,155 @@
         <v/>
       </c>
       <c r="Z3" t="str">
-        <v>UNMARRIED</v>
+        <v>MARRIED</v>
       </c>
       <c r="AA3" t="str">
         <v/>
       </c>
       <c r="AB3" t="str">
-        <v>Hhhhh</v>
+        <v>edq</v>
       </c>
       <c r="AC3" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656071483/wo3l0qazumnuid4ftuxa.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656437127/txkbzbndmr0lpow31ljx.jpg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve">Mohammed Shofiqul Islam </v>
+        <v>amsjsn</v>
       </c>
       <c r="B4" t="str">
-        <v>Parves</v>
+        <v>shshsn</v>
       </c>
       <c r="C4" t="str">
-        <v>Statistics</v>
+        <v>Philosophy</v>
       </c>
       <c r="D4" t="str">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F4" t="str">
-        <v>+8801712269400</v>
+        <v>+8804977</v>
       </c>
       <c r="H4" t="str">
-        <v>islamshofiq311@gmail.com</v>
+        <v>sgzbzb</v>
       </c>
       <c r="I4" t="str">
-        <v xml:space="preserve">Mohammed Nurul Islam </v>
+        <v>shzbzb</v>
       </c>
       <c r="J4" t="str">
-        <v xml:space="preserve">Shamsunnahar </v>
+        <v>wnsbsb</v>
       </c>
       <c r="K4" t="str">
-        <v>405, Monir Chemical Road, DUET</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>vvv</v>
       </c>
       <c r="M4" t="str">
-        <v xml:space="preserve">Gazipur Sadar </v>
+        <v>Himamaylan</v>
       </c>
       <c r="N4" t="str">
-        <v>1700</v>
+        <v>5189</v>
       </c>
       <c r="O4" t="str">
-        <v xml:space="preserve">Gazipur </v>
+        <v>bb</v>
       </c>
       <c r="P4" t="str">
-        <v xml:space="preserve">Bangladesh </v>
+        <v>Philippines</v>
       </c>
       <c r="Q4" t="str">
-        <v>01714084640 (Brother)</v>
+        <v>sbsb</v>
       </c>
       <c r="R4" t="str">
-        <v xml:space="preserve">Shofiqul Islam Parves </v>
+        <v>sbabs</v>
       </c>
       <c r="S4" t="str">
-        <v>1981-06-26</v>
+        <v>2022-06-16</v>
       </c>
       <c r="T4" t="str">
-        <v xml:space="preserve">Bangladeshi </v>
+        <v>s</v>
       </c>
       <c r="U4" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="V4" t="str">
-        <v>Islam</v>
+        <v>zb</v>
       </c>
       <c r="W4" t="str">
-        <v xml:space="preserve">Banker </v>
+        <v>sbzb</v>
       </c>
       <c r="X4" t="str">
-        <v xml:space="preserve">Principal Officer </v>
+        <v/>
       </c>
       <c r="Y4" t="str">
-        <v xml:space="preserve">Mercantile Bank Limited </v>
+        <v/>
       </c>
       <c r="Z4" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA4" t="str">
-        <v>135</v>
+        <v/>
       </c>
       <c r="AB4" t="str">
-        <v>Long live Moulana Bhasani Hall</v>
+        <v>zbzbz</v>
       </c>
       <c r="AC4" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656045918/xtilidykfztgzvxg2dxn.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656416080/yivs2xjp3o8ejzpcxqdb.jpg</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lksdljfl</v>
+        <v>Zaman Sarker</v>
       </c>
       <c r="B5" t="str">
-        <v>alsdjfalskjkl</v>
+        <v>Milon</v>
       </c>
       <c r="C5" t="str">
-        <v>Microbilogy</v>
+        <v>Geography and Environment</v>
       </c>
       <c r="D5" t="str">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E5" t="str">
-        <v>Faculty of Biology</v>
+        <v>Faculty of Social Sciences</v>
       </c>
       <c r="F5" t="str">
-        <v>+88048484848484848</v>
+        <v>+8803393939393939</v>
       </c>
       <c r="H5" t="str">
-        <v>st11ezaman@gmail.com</v>
+        <v>stezaman033@gmail.com</v>
       </c>
       <c r="I5" t="str">
-        <v>fa</v>
+        <v>My Fathers Name</v>
       </c>
       <c r="J5" t="str">
-        <v>ad</v>
+        <v>My MOthes Name</v>
       </c>
       <c r="K5" t="str">
-        <v>adslfdklkj</v>
+        <v>Street 01</v>
       </c>
       <c r="L5" t="str">
-        <v>asdljlasjf</v>
+        <v>Street 02</v>
       </c>
       <c r="M5" t="str">
-        <v>lsdjfsdklj</v>
+        <v>Upaziall</v>
       </c>
       <c r="N5" t="str">
-        <v>ssljdsk</v>
+        <v>1202</v>
       </c>
       <c r="O5" t="str">
-        <v>sdlkalfjl</v>
+        <v>State</v>
       </c>
       <c r="P5" t="str">
-        <v>sdljadkl</v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q5" t="str">
-        <v>fads</v>
+        <v/>
       </c>
       <c r="R5" t="str">
-        <v>zaman.sarker</v>
+        <v/>
       </c>
       <c r="S5" t="str">
         <v/>
@@ -808,13 +808,13 @@
         <v/>
       </c>
       <c r="U5" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="V5" t="str">
         <v/>
       </c>
       <c r="W5" t="str">
-        <v>fdsfasd</v>
+        <v xml:space="preserve">Service </v>
       </c>
       <c r="X5" t="str">
         <v/>
@@ -829,45 +829,45 @@
         <v/>
       </c>
       <c r="AB5" t="str">
-        <v>fasdfsdafsd</v>
+        <v xml:space="preserve">Wish Box </v>
       </c>
       <c r="AC5" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655882891/tqvp46skriyiniz352wt.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656415399/u0sp0nj23wd0ibonr7vn.jpg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Carol Parker</v>
+        <v>saa</v>
       </c>
       <c r="B6" t="str">
-        <v>1</v>
+        <v>sa</v>
       </c>
       <c r="C6" t="str">
-        <v>Zoology</v>
+        <v>English</v>
       </c>
       <c r="D6" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="str">
-        <v>Faculty of Biology</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F6" t="str">
-        <v>+6312</v>
+        <v>+88023313</v>
       </c>
       <c r="H6" t="str">
-        <v>12</v>
+        <v>fesfada</v>
       </c>
       <c r="I6" t="str">
-        <v>12</v>
+        <v>edad</v>
       </c>
       <c r="J6" t="str">
-        <v>2</v>
+        <v>ad</v>
       </c>
       <c r="K6" t="str">
-        <v>12</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L6" t="str">
-        <v>1</v>
+        <v>s</v>
       </c>
       <c r="M6" t="str">
         <v>Himamaylan</v>
@@ -876,31 +876,31 @@
         <v>5189</v>
       </c>
       <c r="O6" t="str">
-        <v>1</v>
+        <v>s</v>
       </c>
       <c r="P6" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q6" t="str">
-        <v>12</v>
+        <v>a</v>
       </c>
       <c r="R6" t="str">
         <v/>
       </c>
       <c r="S6" t="str">
-        <v>2022-06-15</v>
+        <v>2022-06-13</v>
       </c>
       <c r="T6" t="str">
-        <v>Nationality</v>
+        <v>edfa</v>
       </c>
       <c r="U6" t="str">
-        <v>A+</v>
+        <v>O+</v>
       </c>
       <c r="V6" t="str">
-        <v>Religion</v>
+        <v>fs</v>
       </c>
       <c r="W6" t="str">
-        <v>Student</v>
+        <v>qw</v>
       </c>
       <c r="X6" t="str">
         <v/>
@@ -912,48 +912,48 @@
         <v>MARRIED</v>
       </c>
       <c r="AA6" t="str">
-        <v/>
+        <v>q</v>
       </c>
       <c r="AB6" t="str">
-        <v>qw</v>
+        <v>qwe</v>
       </c>
       <c r="AC6" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655874150/t8mddyh8cglaev4janp0.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656413349/x52cymsi5majqm46gdkz.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Carol Parker</v>
+        <v>Munna Khondoker</v>
       </c>
       <c r="B7" t="str">
-        <v>q</v>
+        <v>Munna</v>
       </c>
       <c r="C7" t="str">
-        <v>Microbilogy</v>
+        <v>Public Health &amp; Informatics</v>
       </c>
       <c r="D7" t="str">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E7" t="str">
         <v>Faculty of Biology</v>
       </c>
       <c r="F7" t="str">
-        <v>+63253</v>
+        <v>+88017948075</v>
       </c>
       <c r="H7" t="str">
-        <v>2</v>
+        <v>munnashisaewd@gmail.com</v>
       </c>
       <c r="I7" t="str">
-        <v>a</v>
+        <v>Fahter Name</v>
       </c>
       <c r="J7" t="str">
-        <v>Atreen</v>
+        <v>Mother Name</v>
       </c>
       <c r="K7" t="str">
         <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L7" t="str">
-        <v>lk</v>
+        <v>2w</v>
       </c>
       <c r="M7" t="str">
         <v>Himamaylan</v>
@@ -962,31 +962,31 @@
         <v>5189</v>
       </c>
       <c r="O7" t="str">
-        <v>l</v>
+        <v>q</v>
       </c>
       <c r="P7" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q7" t="str">
-        <v>Himamaylan</v>
+        <v>Emergency Contact</v>
       </c>
       <c r="R7" t="str">
-        <v/>
+        <v>no</v>
       </c>
       <c r="S7" t="str">
-        <v>2022-06-15</v>
+        <v>2022-06-23</v>
       </c>
       <c r="T7" t="str">
-        <v>Philippines</v>
+        <v>Nationality</v>
       </c>
       <c r="U7" t="str">
-        <v>A+</v>
+        <v>O-</v>
       </c>
       <c r="V7" t="str">
+        <v>Religion</v>
+      </c>
+      <c r="W7" t="str">
         <v>Student</v>
-      </c>
-      <c r="W7" t="str">
-        <v>;</v>
       </c>
       <c r="X7" t="str">
         <v/>
@@ -998,13 +998,13 @@
         <v>MARRIED</v>
       </c>
       <c r="AA7" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="AB7" t="str">
-        <v>k</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655873147/ravwg22qwgd7y4tf0rp4.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656412089/zho62mxtp5ewnrl9vvrj.jpg</v>
       </c>
     </row>
     <row r="8">
@@ -1012,34 +1012,34 @@
         <v>Carol Parker</v>
       </c>
       <c r="B8" t="str">
-        <v>1</v>
+        <v>wsa</v>
       </c>
       <c r="C8" t="str">
         <v>English</v>
       </c>
       <c r="D8" t="str">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F8" t="str">
-        <v>+632</v>
+        <v>+63232141</v>
       </c>
       <c r="H8" t="str">
-        <v>munnashisad@gmail.com</v>
+        <v>mudfdas</v>
       </c>
       <c r="I8" t="str">
-        <v>Fahter Name</v>
+        <v>AA</v>
       </c>
       <c r="J8" t="str">
-        <v>Mother Name</v>
+        <v>a</v>
       </c>
       <c r="K8" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>a</v>
       </c>
       <c r="L8" t="str">
-        <v>wq</v>
+        <v>a</v>
       </c>
       <c r="M8" t="str">
         <v>Himamaylan</v>
@@ -1048,31 +1048,31 @@
         <v>5189</v>
       </c>
       <c r="O8" t="str">
-        <v>BD</v>
+        <v>a</v>
       </c>
       <c r="P8" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q8" t="str">
-        <v>Emergency Contact</v>
+        <v/>
       </c>
       <c r="R8" t="str">
-        <v/>
+        <v>e</v>
       </c>
       <c r="S8" t="str">
-        <v>2022-06-17</v>
+        <v>2022-06-25</v>
       </c>
       <c r="T8" t="str">
-        <v>q</v>
+        <v>a</v>
       </c>
       <c r="U8" t="str">
-        <v>O+</v>
+        <v>B+</v>
       </c>
       <c r="V8" t="str">
-        <v>Religion</v>
+        <v>a</v>
       </c>
       <c r="W8" t="str">
-        <v>Student</v>
+        <v>a</v>
       </c>
       <c r="X8" t="str">
         <v/>
@@ -1087,78 +1087,78 @@
         <v/>
       </c>
       <c r="AB8" t="str">
-        <v>q</v>
+        <v>a</v>
       </c>
       <c r="AC8" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871289/ztnbjn6o5nyojilo1r24.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656134864/tkdgbchvha9fjwfvunb3.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Carol Parker</v>
+        <v>Md. Al-helal Uddin</v>
       </c>
       <c r="B9" t="str">
-        <v>edw</v>
+        <v>Shamim</v>
       </c>
       <c r="C9" t="str">
-        <v>English</v>
+        <v>Archeology</v>
       </c>
       <c r="D9" t="str">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F9" t="str">
-        <v>+63312</v>
+        <v>+8801756477707</v>
       </c>
       <c r="H9" t="str">
-        <v>121</v>
+        <v>shamim1978@gmail.com</v>
       </c>
       <c r="I9" t="str">
-        <v>1</v>
+        <v>A. B. M. Asadullah</v>
       </c>
       <c r="J9" t="str">
-        <v>1</v>
+        <v>Mrs. Akhtara Begum</v>
       </c>
       <c r="K9" t="str">
-        <v>1</v>
+        <v>17/7</v>
       </c>
       <c r="L9" t="str">
-        <v>1</v>
+        <v>Azimpur</v>
       </c>
       <c r="M9" t="str">
-        <v>1</v>
+        <v>Lalbagh</v>
       </c>
       <c r="N9" t="str">
-        <v>5189</v>
+        <v>1213</v>
       </c>
       <c r="O9" t="str">
-        <v>BD</v>
+        <v>Dhaka</v>
       </c>
       <c r="P9" t="str">
-        <v>Philippines</v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q9" t="str">
-        <v>1</v>
+        <v>01814232539</v>
       </c>
       <c r="R9" t="str">
-        <v/>
+        <v>shamimalhelal</v>
       </c>
       <c r="S9" t="str">
-        <v>2022-05-31</v>
+        <v>1978-11-02</v>
       </c>
       <c r="T9" t="str">
-        <v>1</v>
+        <v>Bangladeshi</v>
       </c>
       <c r="U9" t="str">
         <v>A+</v>
       </c>
       <c r="V9" t="str">
-        <v>1</v>
+        <v>Islam</v>
       </c>
       <c r="W9" t="str">
-        <v>q</v>
+        <v>Service</v>
       </c>
       <c r="X9" t="str">
         <v/>
@@ -1170,66 +1170,66 @@
         <v>MARRIED</v>
       </c>
       <c r="AA9" t="str">
-        <v/>
+        <v>146, 222, 246</v>
       </c>
       <c r="AB9" t="str">
-        <v>q</v>
+        <v xml:space="preserve">Wish all the best </v>
       </c>
       <c r="AC9" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871089/tee6vjehwjlektqlihnv.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656076355/jtpmzcvjuxeuhghbhlvi.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>alsdjlafj</v>
+        <v>Gggg</v>
       </c>
       <c r="B10" t="str">
-        <v>sdlfjasdlj</v>
+        <v>Ggggg</v>
       </c>
       <c r="C10" t="str">
-        <v>Drama &amp; Daramatics</v>
+        <v>Finance &amp; Banking</v>
       </c>
       <c r="D10" t="str">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Business Studies</v>
       </c>
       <c r="F10" t="str">
-        <v>+88017110825322222</v>
+        <v>+88017110825666</v>
       </c>
       <c r="H10" t="str">
-        <v>ehamio@gmail.com</v>
+        <v>stezamerran@gmail.com</v>
       </c>
       <c r="I10" t="str">
-        <v>FANa</v>
+        <v>Ytyyyyy</v>
       </c>
       <c r="J10" t="str">
-        <v>MONa</v>
+        <v>Yyyyuu</v>
       </c>
       <c r="K10" t="str">
-        <v>Address</v>
+        <v>Gggg</v>
       </c>
       <c r="L10" t="str">
-        <v>Address</v>
+        <v>Ghgg</v>
       </c>
       <c r="M10" t="str">
-        <v>Address</v>
+        <v>Ggg</v>
       </c>
       <c r="N10" t="str">
-        <v>Address</v>
+        <v>Ghhgh</v>
       </c>
       <c r="O10" t="str">
-        <v>Address</v>
+        <v>Ggg</v>
       </c>
       <c r="P10" t="str">
-        <v>Address</v>
+        <v>Gggg</v>
       </c>
       <c r="Q10" t="str">
         <v/>
       </c>
       <c r="R10" t="str">
-        <v>zaman.sarker</v>
+        <v/>
       </c>
       <c r="S10" t="str">
         <v/>
@@ -1238,13 +1238,13 @@
         <v/>
       </c>
       <c r="U10" t="str">
-        <v>B-</v>
+        <v>B+</v>
       </c>
       <c r="V10" t="str">
         <v/>
       </c>
       <c r="W10" t="str">
-        <v>IT</v>
+        <v>Ggggh</v>
       </c>
       <c r="X10" t="str">
         <v/>
@@ -1253,75 +1253,75 @@
         <v/>
       </c>
       <c r="Z10" t="str">
-        <v>MARRIED</v>
+        <v>UNMARRIED</v>
       </c>
       <c r="AA10" t="str">
         <v/>
       </c>
       <c r="AB10" t="str">
-        <v>alksflasjdl</v>
+        <v>Hhhhh</v>
       </c>
       <c r="AC10" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855805/saeb0mezfc6673g7piv0.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656071483/wo3l0qazumnuid4ftuxa.jpg</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
+    <row r="11">
       <c r="A11" t="str">
-        <v>Full Name</v>
+        <v xml:space="preserve">Mohammed Shofiqul Islam </v>
       </c>
       <c r="B11" t="str">
-        <v>Nick Name</v>
+        <v>Parves</v>
       </c>
       <c r="C11" t="str">
-        <v>History</v>
+        <v>Statistics</v>
       </c>
       <c r="D11" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F11" t="str">
-        <v>+8801789237474747</v>
+        <v>+8801712269400</v>
       </c>
       <c r="H11" t="str">
-        <v>aeaill@mail.com</v>
+        <v>islamshofiq311@gmail.com</v>
       </c>
       <c r="I11" t="str">
-        <v>Father's Name</v>
+        <v xml:space="preserve">Mohammed Nurul Islam </v>
       </c>
       <c r="J11" t="str">
-        <v>Mother's Name</v>
+        <v xml:space="preserve">Shamsunnahar </v>
       </c>
       <c r="K11" t="str">
-        <v>Street Address</v>
+        <v>405, Monir Chemical Road, DUET</v>
       </c>
       <c r="L11" t="str">
-        <v>Street Address 02</v>
+        <v/>
       </c>
       <c r="M11" t="str">
-        <v>Uploza</v>
+        <v xml:space="preserve">Gazipur Sadar </v>
       </c>
       <c r="N11" t="str">
-        <v>1230</v>
+        <v>1700</v>
       </c>
       <c r="O11" t="str">
-        <v>State</v>
+        <v xml:space="preserve">Gazipur </v>
       </c>
       <c r="P11" t="str">
-        <v>Bangladesh</v>
+        <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q11" t="str">
-        <v>Emergency Contract</v>
+        <v>01714084640 (Brother)</v>
       </c>
       <c r="R11" t="str">
-        <v>zaman.sarker</v>
+        <v xml:space="preserve">Shofiqul Islam Parves </v>
       </c>
       <c r="S11" t="str">
-        <v>1990-07-24</v>
+        <v>1981-06-26</v>
       </c>
       <c r="T11" t="str">
-        <v>Bangladeshi</v>
+        <v xml:space="preserve">Bangladeshi </v>
       </c>
       <c r="U11" t="str">
         <v>A+</v>
@@ -1330,181 +1330,179 @@
         <v>Islam</v>
       </c>
       <c r="W11" t="str">
-        <v xml:space="preserve">IT </v>
+        <v xml:space="preserve">Banker </v>
       </c>
       <c r="X11" t="str">
-        <v/>
+        <v xml:space="preserve">Principal Officer </v>
       </c>
       <c r="Y11" t="str">
-        <v/>
+        <v xml:space="preserve">Mercantile Bank Limited </v>
       </c>
       <c r="Z11" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA11" t="str">
-        <v/>
-      </c>
-      <c r="AB11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Wish Box _x000d_
-I wish I can Join_x000d_
-Let's Play a Game</v>
+        <v>135</v>
+      </c>
+      <c r="AB11" t="str">
+        <v>Long live Moulana Bhasani Hall</v>
       </c>
       <c r="AC11" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855385/qrz2ldgqf8flhvmsygtv.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656045918/xtilidykfztgzvxg2dxn.png</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve">Sheakh Mohammad Nooruzzaman </v>
+        <v>lksdljfl</v>
       </c>
       <c r="B12" t="str">
-        <v xml:space="preserve">Zaman </v>
+        <v>alsdjfalskjkl</v>
       </c>
       <c r="C12" t="str">
-        <v>Chemistry</v>
+        <v>Microbilogy</v>
       </c>
       <c r="D12" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F12" t="str">
-        <v>+8801712724015</v>
+        <v>+88048484848484848</v>
       </c>
       <c r="H12" t="str">
-        <v>mdzaman.ju@ gmail.com</v>
+        <v>st11ezaman@gmail.com</v>
       </c>
       <c r="I12" t="str">
-        <v>Md. Moksed sk.</v>
+        <v>fa</v>
       </c>
       <c r="J12" t="str">
-        <v>Misa. Sahera Begum</v>
+        <v>ad</v>
       </c>
       <c r="K12" t="str">
-        <v>Vill- Halda,Post - Naldi,Upazila - Lohagara,</v>
+        <v>adslfdklkj</v>
       </c>
       <c r="L12" t="str">
-        <v>Uttara Dhaka</v>
+        <v>asdljlasjf</v>
       </c>
       <c r="M12" t="str">
-        <v>Dhaka</v>
+        <v>lsdjfsdklj</v>
       </c>
       <c r="N12" t="str">
-        <v>7513</v>
+        <v>ssljdsk</v>
       </c>
       <c r="O12" t="str">
-        <v>Narail</v>
+        <v>sdlkalfjl</v>
       </c>
       <c r="P12" t="str">
-        <v xml:space="preserve">Bangladesh </v>
+        <v>sdljadkl</v>
       </c>
       <c r="Q12" t="str">
-        <v>01731314225</v>
+        <v>fads</v>
       </c>
       <c r="R12" t="str">
-        <v xml:space="preserve">md Zaman </v>
+        <v>zaman.sarker</v>
       </c>
       <c r="S12" t="str">
         <v/>
       </c>
       <c r="T12" t="str">
-        <v xml:space="preserve">Bangladeshi </v>
+        <v/>
       </c>
       <c r="U12" t="str">
-        <v>B-</v>
+        <v>A+</v>
       </c>
       <c r="V12" t="str">
-        <v>Islam</v>
+        <v/>
       </c>
       <c r="W12" t="str">
-        <v xml:space="preserve">Business </v>
+        <v>fdsfasd</v>
       </c>
       <c r="X12" t="str">
-        <v xml:space="preserve">Proprietor </v>
+        <v/>
       </c>
       <c r="Y12" t="str">
-        <v>Agro Vangla Meat</v>
+        <v/>
       </c>
       <c r="Z12" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA12" t="str">
-        <v>419</v>
+        <v/>
       </c>
       <c r="AB12" t="str">
-        <v xml:space="preserve">Research and Study for well-being </v>
+        <v>fasdfsdafsd</v>
       </c>
       <c r="AC12" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655836036/facz7rpgqrerxsf6tml3.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655882891/tqvp46skriyiniz352wt.png</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cccccc</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B13" t="str">
-        <v>Ddddf</v>
+        <v>1</v>
       </c>
       <c r="C13" t="str">
-        <v>Philosophy</v>
+        <v>Zoology</v>
       </c>
       <c r="D13" t="str">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F13" t="str">
-        <v>+880744455522222</v>
+        <v>+6312</v>
       </c>
       <c r="H13" t="str">
-        <v>Endddddd@gmail.com</v>
+        <v>12</v>
       </c>
       <c r="I13" t="str">
-        <v>Father's Love pooo</v>
+        <v>12</v>
       </c>
       <c r="J13" t="str">
-        <v xml:space="preserve">Mother's birthday </v>
+        <v>2</v>
       </c>
       <c r="K13" t="str">
-        <v>Street ass</v>
+        <v>12</v>
       </c>
       <c r="L13" t="str">
-        <v>Ddddff</v>
+        <v>1</v>
       </c>
       <c r="M13" t="str">
-        <v>Ggggggg</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N13" t="str">
-        <v>4566</v>
+        <v>5189</v>
       </c>
       <c r="O13" t="str">
-        <v>Ggggg</v>
+        <v>1</v>
       </c>
       <c r="P13" t="str">
-        <v xml:space="preserve">Bangladesh </v>
+        <v>Philippines</v>
       </c>
       <c r="Q13" t="str">
-        <v>088766555445</v>
+        <v>12</v>
       </c>
       <c r="R13" t="str">
-        <v>Zaman</v>
+        <v/>
       </c>
       <c r="S13" t="str">
-        <v>1965-06-10</v>
+        <v>2022-06-15</v>
       </c>
       <c r="T13" t="str">
-        <v>Bangladesh nnn</v>
+        <v>Nationality</v>
       </c>
       <c r="U13" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="V13" t="str">
-        <v>Islamkkkkk</v>
+        <v>Religion</v>
       </c>
       <c r="W13" t="str">
-        <v>Tyyyy</v>
+        <v>Student</v>
       </c>
       <c r="X13" t="str">
         <v/>
@@ -1519,78 +1517,78 @@
         <v/>
       </c>
       <c r="AB13" t="str">
-        <v>Ghjjjjj</v>
+        <v>qw</v>
       </c>
       <c r="AC13" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655832553/vlp78nlkmfcxp3h8n21r.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655874150/t8mddyh8cglaev4janp0.jpg</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Moni</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B14" t="str">
-        <v>Moni</v>
+        <v>q</v>
       </c>
       <c r="C14" t="str">
-        <v>Physics</v>
+        <v>Microbilogy</v>
       </c>
       <c r="D14" t="str">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F14" t="str">
-        <v>+8801711092634</v>
+        <v>+63253</v>
       </c>
       <c r="H14" t="str">
-        <v>moni@gmail.com</v>
+        <v>2</v>
       </c>
       <c r="I14" t="str">
-        <v>father</v>
+        <v>a</v>
       </c>
       <c r="J14" t="str">
-        <v>mother</v>
+        <v>Atreen</v>
       </c>
       <c r="K14" t="str">
-        <v>street address 01</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L14" t="str">
-        <v>street address 02</v>
+        <v>lk</v>
       </c>
       <c r="M14" t="str">
-        <v>City/Upazilla</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N14" t="str">
-        <v>Zip Code</v>
+        <v>5189</v>
       </c>
       <c r="O14" t="str">
-        <v>Stat/Province</v>
+        <v>l</v>
       </c>
       <c r="P14" t="str">
-        <v>Country</v>
+        <v>Philippines</v>
       </c>
       <c r="Q14" t="str">
-        <v>0330303030</v>
+        <v>Himamaylan</v>
       </c>
       <c r="R14" t="str">
-        <v>moni.zaman</v>
+        <v/>
       </c>
       <c r="S14" t="str">
-        <v>2222-11-22</v>
+        <v>2022-06-15</v>
       </c>
       <c r="T14" t="str">
-        <v>Bangladeshi</v>
+        <v>Philippines</v>
       </c>
       <c r="U14" t="str">
-        <v>A-</v>
+        <v>A+</v>
       </c>
       <c r="V14" t="str">
-        <v>Islam</v>
+        <v>Student</v>
       </c>
       <c r="W14" t="str">
-        <v>Student</v>
+        <v>;</v>
       </c>
       <c r="X14" t="str">
         <v/>
@@ -1605,10 +1603,10 @@
         <v/>
       </c>
       <c r="AB14" t="str">
-        <v>Wish Box</v>
+        <v>k</v>
       </c>
       <c r="AC14" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655747057/fbzmspo5my5a2kxz8d1p.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655873147/ravwg22qwgd7y4tf0rp4.jpg</v>
       </c>
     </row>
     <row r="15">
@@ -1616,34 +1614,34 @@
         <v>Carol Parker</v>
       </c>
       <c r="B15" t="str">
-        <v>a</v>
+        <v>1</v>
       </c>
       <c r="C15" t="str">
-        <v>Chemistry</v>
+        <v>English</v>
       </c>
       <c r="D15" t="str">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E15" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F15" t="str">
-        <v>+6331</v>
+        <v>+632</v>
       </c>
       <c r="H15" t="str">
-        <v>13</v>
+        <v>munnashisad@gmail.com</v>
       </c>
       <c r="I15" t="str">
-        <v>11</v>
+        <v>Fahter Name</v>
       </c>
       <c r="J15" t="str">
-        <v>1</v>
+        <v>Mother Name</v>
       </c>
       <c r="K15" t="str">
         <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L15" t="str">
-        <v>1</v>
+        <v>wq</v>
       </c>
       <c r="M15" t="str">
         <v>Himamaylan</v>
@@ -1652,31 +1650,31 @@
         <v>5189</v>
       </c>
       <c r="O15" t="str">
-        <v>1</v>
+        <v>BD</v>
       </c>
       <c r="P15" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q15" t="str">
-        <v>1</v>
+        <v>Emergency Contact</v>
       </c>
       <c r="R15" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S15" t="str">
-        <v>2022-06-09</v>
+        <v>2022-06-17</v>
       </c>
       <c r="T15" t="str">
-        <v>Nationality</v>
+        <v>q</v>
       </c>
       <c r="U15" t="str">
-        <v>B+</v>
+        <v>O+</v>
       </c>
       <c r="V15" t="str">
         <v>Religion</v>
       </c>
       <c r="W15" t="str">
-        <v>1</v>
+        <v>Student</v>
       </c>
       <c r="X15" t="str">
         <v/>
@@ -1691,75 +1689,78 @@
         <v/>
       </c>
       <c r="AB15" t="str">
+        <v>q</v>
+      </c>
+      <c r="AC15" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871289/ztnbjn6o5nyojilo1r24.jpg</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Carol Parker</v>
+      </c>
+      <c r="B16" t="str">
+        <v>edw</v>
+      </c>
+      <c r="C16" t="str">
+        <v>English</v>
+      </c>
+      <c r="D16" t="str">
+        <v>32</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F16" t="str">
+        <v>+63312</v>
+      </c>
+      <c r="H16" t="str">
+        <v>121</v>
+      </c>
+      <c r="I16" t="str">
         <v>1</v>
       </c>
-      <c r="AC15" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655745223/o3q3g3avqc14r91uokhs.jpg</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str">
-        <v>zaman</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Sarker</v>
-      </c>
-      <c r="D16" t="str">
-        <v>24</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
-      </c>
-      <c r="F16" t="str">
-        <v>+8801711082532</v>
-      </c>
-      <c r="H16" t="str">
-        <v>stezaman@gmail.com</v>
-      </c>
-      <c r="I16" t="str">
-        <v>Zaman</v>
-      </c>
       <c r="J16" t="str">
-        <v>sarker</v>
+        <v>1</v>
       </c>
       <c r="K16" t="str">
-        <v>Street Address Line 01</v>
+        <v>1</v>
       </c>
       <c r="L16" t="str">
-        <v>Street Address Line 02</v>
+        <v>1</v>
       </c>
       <c r="M16" t="str">
-        <v>Rangpur Sadar</v>
+        <v>1</v>
       </c>
       <c r="N16" t="str">
-        <v>1203</v>
+        <v>5189</v>
       </c>
       <c r="O16" t="str">
-        <v>Rangpur</v>
+        <v>BD</v>
       </c>
       <c r="P16" t="str">
-        <v>Bngladesh</v>
+        <v>Philippines</v>
       </c>
       <c r="Q16" t="str">
-        <v>01711082532</v>
+        <v>1</v>
       </c>
       <c r="R16" t="str">
-        <v>zaman.sarker</v>
+        <v/>
       </c>
       <c r="S16" t="str">
-        <v>1975-11-20</v>
+        <v>2022-05-31</v>
       </c>
       <c r="T16" t="str">
-        <v>Banlgadesh</v>
+        <v>1</v>
       </c>
       <c r="U16" t="str">
-        <v>A-</v>
+        <v>A+</v>
       </c>
       <c r="V16" t="str">
-        <v>Islam</v>
+        <v>1</v>
       </c>
       <c r="W16" t="str">
-        <v>IT Bangla</v>
+        <v>q</v>
       </c>
       <c r="X16" t="str">
         <v/>
@@ -1771,750 +1772,1351 @@
         <v>MARRIED</v>
       </c>
       <c r="AA16" t="str">
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <v>q</v>
+      </c>
+      <c r="AC16" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871089/tee6vjehwjlektqlihnv.jpg</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>alsdjlafj</v>
+      </c>
+      <c r="B17" t="str">
+        <v>sdlfjasdlj</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Drama &amp; Daramatics</v>
+      </c>
+      <c r="D17" t="str">
+        <v>26</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F17" t="str">
+        <v>+88017110825322222</v>
+      </c>
+      <c r="H17" t="str">
+        <v>ehamio@gmail.com</v>
+      </c>
+      <c r="I17" t="str">
+        <v>FANa</v>
+      </c>
+      <c r="J17" t="str">
+        <v>MONa</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Address</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Address</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Address</v>
+      </c>
+      <c r="N17" t="str">
+        <v>Address</v>
+      </c>
+      <c r="O17" t="str">
+        <v>Address</v>
+      </c>
+      <c r="P17" t="str">
+        <v>Address</v>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v>zaman.sarker</v>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v>B-</v>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v>IT</v>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA17" t="str">
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <v>alksflasjdl</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855805/saeb0mezfc6673g7piv0.jpg</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Full Name</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Nick Name</v>
+      </c>
+      <c r="C18" t="str">
+        <v>History</v>
+      </c>
+      <c r="D18" t="str">
+        <v>27</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F18" t="str">
+        <v>+8801789237474747</v>
+      </c>
+      <c r="H18" t="str">
+        <v>aeaill@mail.com</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Father's Name</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Mother's Name</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Street Address</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Street Address 02</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Uploza</v>
+      </c>
+      <c r="N18" t="str">
+        <v>1230</v>
+      </c>
+      <c r="O18" t="str">
+        <v>State</v>
+      </c>
+      <c r="P18" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>Emergency Contract</v>
+      </c>
+      <c r="R18" t="str">
+        <v>zaman.sarker</v>
+      </c>
+      <c r="S18" t="str">
+        <v>1990-07-24</v>
+      </c>
+      <c r="T18" t="str">
+        <v>Bangladeshi</v>
+      </c>
+      <c r="U18" t="str">
+        <v>A+</v>
+      </c>
+      <c r="V18" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W18" t="str">
+        <v xml:space="preserve">IT </v>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Wish Box _x000d_
+I wish I can Join_x000d_
+Let's Play a Game</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855385/qrz2ldgqf8flhvmsygtv.jpg</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve">Sheakh Mohammad Nooruzzaman </v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve">Zaman </v>
+      </c>
+      <c r="C19" t="str">
+        <v>Chemistry</v>
+      </c>
+      <c r="D19" t="str">
+        <v>20</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F19" t="str">
+        <v>+8801712724015</v>
+      </c>
+      <c r="H19" t="str">
+        <v>mdzaman.ju@ gmail.com</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Md. Moksed sk.</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Misa. Sahera Begum</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Vill- Halda,Post - Naldi,Upazila - Lohagara,</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Uttara Dhaka</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Dhaka</v>
+      </c>
+      <c r="N19" t="str">
+        <v>7513</v>
+      </c>
+      <c r="O19" t="str">
+        <v>Narail</v>
+      </c>
+      <c r="P19" t="str">
+        <v xml:space="preserve">Bangladesh </v>
+      </c>
+      <c r="Q19" t="str">
+        <v>01731314225</v>
+      </c>
+      <c r="R19" t="str">
+        <v xml:space="preserve">md Zaman </v>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v xml:space="preserve">Bangladeshi </v>
+      </c>
+      <c r="U19" t="str">
+        <v>B-</v>
+      </c>
+      <c r="V19" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W19" t="str">
+        <v xml:space="preserve">Business </v>
+      </c>
+      <c r="X19" t="str">
+        <v xml:space="preserve">Proprietor </v>
+      </c>
+      <c r="Y19" t="str">
+        <v>Agro Vangla Meat</v>
+      </c>
+      <c r="Z19" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA19" t="str">
+        <v>419</v>
+      </c>
+      <c r="AB19" t="str">
+        <v xml:space="preserve">Research and Study for well-being </v>
+      </c>
+      <c r="AC19" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655836036/facz7rpgqrerxsf6tml3.jpg</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Cccccc</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Ddddf</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Philosophy</v>
+      </c>
+      <c r="D20" t="str">
+        <v>27</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F20" t="str">
+        <v>+880744455522222</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Endddddd@gmail.com</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Father's Love pooo</v>
+      </c>
+      <c r="J20" t="str">
+        <v xml:space="preserve">Mother's birthday </v>
+      </c>
+      <c r="K20" t="str">
+        <v>Street ass</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Ddddff</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Ggggggg</v>
+      </c>
+      <c r="N20" t="str">
+        <v>4566</v>
+      </c>
+      <c r="O20" t="str">
+        <v>Ggggg</v>
+      </c>
+      <c r="P20" t="str">
+        <v xml:space="preserve">Bangladesh </v>
+      </c>
+      <c r="Q20" t="str">
+        <v>088766555445</v>
+      </c>
+      <c r="R20" t="str">
+        <v>Zaman</v>
+      </c>
+      <c r="S20" t="str">
+        <v>1965-06-10</v>
+      </c>
+      <c r="T20" t="str">
+        <v>Bangladesh nnn</v>
+      </c>
+      <c r="U20" t="str">
+        <v>B+</v>
+      </c>
+      <c r="V20" t="str">
+        <v>Islamkkkkk</v>
+      </c>
+      <c r="W20" t="str">
+        <v>Tyyyy</v>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <v>Ghjjjjj</v>
+      </c>
+      <c r="AC20" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655832553/vlp78nlkmfcxp3h8n21r.jpg</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Moni</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Moni</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Physics</v>
+      </c>
+      <c r="D21" t="str">
+        <v>27</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F21" t="str">
+        <v>+8801711092634</v>
+      </c>
+      <c r="H21" t="str">
+        <v>moni@gmail.com</v>
+      </c>
+      <c r="I21" t="str">
+        <v>father</v>
+      </c>
+      <c r="J21" t="str">
+        <v>mother</v>
+      </c>
+      <c r="K21" t="str">
+        <v>street address 01</v>
+      </c>
+      <c r="L21" t="str">
+        <v>street address 02</v>
+      </c>
+      <c r="M21" t="str">
+        <v>City/Upazilla</v>
+      </c>
+      <c r="N21" t="str">
+        <v>Zip Code</v>
+      </c>
+      <c r="O21" t="str">
+        <v>Stat/Province</v>
+      </c>
+      <c r="P21" t="str">
+        <v>Country</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>0330303030</v>
+      </c>
+      <c r="R21" t="str">
+        <v>moni.zaman</v>
+      </c>
+      <c r="S21" t="str">
+        <v>2222-11-22</v>
+      </c>
+      <c r="T21" t="str">
+        <v>Bangladeshi</v>
+      </c>
+      <c r="U21" t="str">
+        <v>A-</v>
+      </c>
+      <c r="V21" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W21" t="str">
+        <v>Student</v>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA21" t="str">
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <v>Wish Box</v>
+      </c>
+      <c r="AC21" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655747057/fbzmspo5my5a2kxz8d1p.png</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Carol Parker</v>
+      </c>
+      <c r="B22" t="str">
+        <v>a</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Chemistry</v>
+      </c>
+      <c r="D22" t="str">
+        <v>27</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F22" t="str">
+        <v>+6331</v>
+      </c>
+      <c r="H22" t="str">
+        <v>13</v>
+      </c>
+      <c r="I22" t="str">
+        <v>11</v>
+      </c>
+      <c r="J22" t="str">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <v>21A Altenwerth Passage Suite 295</v>
+      </c>
+      <c r="L22" t="str">
+        <v>1</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Himamaylan</v>
+      </c>
+      <c r="N22" t="str">
+        <v>5189</v>
+      </c>
+      <c r="O22" t="str">
+        <v>1</v>
+      </c>
+      <c r="P22" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>1</v>
+      </c>
+      <c r="R22" t="str">
+        <v>1</v>
+      </c>
+      <c r="S22" t="str">
+        <v>2022-06-09</v>
+      </c>
+      <c r="T22" t="str">
+        <v>Nationality</v>
+      </c>
+      <c r="U22" t="str">
+        <v>B+</v>
+      </c>
+      <c r="V22" t="str">
+        <v>Religion</v>
+      </c>
+      <c r="W22" t="str">
+        <v>1</v>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA22" t="str">
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655745223/o3q3g3avqc14r91uokhs.jpg</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>zaman</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Sarker</v>
+      </c>
+      <c r="D23" t="str">
+        <v>24</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F23" t="str">
+        <v>+8801711082532</v>
+      </c>
+      <c r="H23" t="str">
+        <v>stezaman@gmail.com</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Zaman</v>
+      </c>
+      <c r="J23" t="str">
+        <v>sarker</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Street Address Line 01</v>
+      </c>
+      <c r="L23" t="str">
+        <v>Street Address Line 02</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Rangpur Sadar</v>
+      </c>
+      <c r="N23" t="str">
+        <v>1203</v>
+      </c>
+      <c r="O23" t="str">
+        <v>Rangpur</v>
+      </c>
+      <c r="P23" t="str">
+        <v>Bngladesh</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>01711082532</v>
+      </c>
+      <c r="R23" t="str">
+        <v>zaman.sarker</v>
+      </c>
+      <c r="S23" t="str">
+        <v>1975-11-20</v>
+      </c>
+      <c r="T23" t="str">
+        <v>Banlgadesh</v>
+      </c>
+      <c r="U23" t="str">
+        <v>A-</v>
+      </c>
+      <c r="V23" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W23" t="str">
+        <v>IT Bangla</v>
+      </c>
+      <c r="X23" t="str">
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA23" t="str">
         <v>233, 222</v>
       </c>
-      <c r="AB16" t="str" xml:space="preserve">
+      <c r="AB23" t="str" xml:space="preserve">
         <v xml:space="preserve">Wish Box _x000d_
 Wish Box 02_x000d_
 With Box 03_x000d_
 Wish Box 04</v>
       </c>
-      <c r="AC16" t="str">
+      <c r="AC23" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655520984/v3nw0ahxlmvvvgpo9z3n.jpg</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
+    <row r="24">
+      <c r="A24" t="str">
         <v>Md. Chaliqur Rahaman</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B24" t="str">
         <v>Chaliqur</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D24" t="str">
         <v>27</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E24" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F24" t="str">
         <v>+8801722234533</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H24" t="str">
         <v>chaliqur@gmail.com</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I24" t="str">
         <v>A</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J24" t="str">
         <v>B</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K24" t="str">
         <v>BG</v>
       </c>
-      <c r="L17" t="str">
-        <v/>
-      </c>
-      <c r="M17" t="str">
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
         <v>Ffg</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N24" t="str">
         <v>22e</v>
       </c>
-      <c r="O17" t="str">
+      <c r="O24" t="str">
         <v>Fgg</v>
       </c>
-      <c r="P17" t="str">
+      <c r="P24" t="str">
         <v>B</v>
       </c>
-      <c r="Q17" t="str">
-        <v/>
-      </c>
-      <c r="R17" t="str">
-        <v/>
-      </c>
-      <c r="S17" t="str">
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <v/>
-      </c>
-      <c r="U17" t="str">
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
         <v>O+</v>
       </c>
-      <c r="V17" t="str">
-        <v/>
-      </c>
-      <c r="W17" t="str">
+      <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
         <v>Ser</v>
       </c>
-      <c r="X17" t="str">
+      <c r="X24" t="str">
         <v>Fgg</v>
       </c>
-      <c r="Y17" t="str">
-        <v/>
-      </c>
-      <c r="Z17" t="str">
+      <c r="Y24" t="str">
+        <v/>
+      </c>
+      <c r="Z24" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA17" t="str">
-        <v/>
-      </c>
-      <c r="AB17" t="str">
+      <c r="AA24" t="str">
+        <v/>
+      </c>
+      <c r="AB24" t="str">
         <v>Gg</v>
       </c>
-      <c r="AC17" t="str">
+      <c r="AC24" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655439934/y50fwehdswf0e0symerd.jpg</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
+    <row r="25">
+      <c r="A25" t="str">
         <v>Aktaruzzaman shohel</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B25" t="str">
         <v>shohel</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D25" t="str">
         <v>42</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E25" t="str">
         <v>Faculty of Biology</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F25" t="str">
         <v>+8801723909939</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H25" t="str">
         <v>shohelzaman303@gmail.com</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I25" t="str">
         <v>Md.Abdul aziz</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J25" t="str">
         <v>mst.kohinur begom</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K25" t="str">
         <v>nageswari</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L25" t="str">
         <v>kurigram</v>
       </c>
-      <c r="M18" t="str">
+      <c r="M25" t="str">
         <v>nageswari</v>
       </c>
-      <c r="N18" t="str">
+      <c r="N25" t="str">
         <v>620</v>
       </c>
-      <c r="O18" t="str">
+      <c r="O25" t="str">
         <v>kurigram</v>
       </c>
-      <c r="P18" t="str">
+      <c r="P25" t="str">
         <v xml:space="preserve">Bangladesh </v>
       </c>
-      <c r="Q18" t="str">
+      <c r="Q25" t="str">
         <v>01750619592</v>
       </c>
-      <c r="R18" t="str">
+      <c r="R25" t="str">
         <v>aktaruzzaman shohel</v>
       </c>
-      <c r="S18" t="str">
+      <c r="S25" t="str">
         <v>1994-05-01</v>
       </c>
-      <c r="T18" t="str">
+      <c r="T25" t="str">
         <v xml:space="preserve">Bangladeshi </v>
       </c>
-      <c r="U18" t="str">
+      <c r="U25" t="str">
         <v>A+</v>
       </c>
-      <c r="V18" t="str">
+      <c r="V25" t="str">
         <v>islam</v>
       </c>
-      <c r="W18" t="str">
+      <c r="W25" t="str">
         <v>Student</v>
       </c>
-      <c r="X18" t="str">
+      <c r="X25" t="str">
         <v>president ju bsl</v>
       </c>
-      <c r="Y18" t="str">
-        <v/>
-      </c>
-      <c r="Z18" t="str">
+      <c r="Y25" t="str">
+        <v/>
+      </c>
+      <c r="Z25" t="str">
         <v>UNMARRIED</v>
       </c>
-      <c r="AA18" t="str">
+      <c r="AA25" t="str">
         <v>322</v>
       </c>
-      <c r="AB18" t="str">
+      <c r="AB25" t="str">
         <v xml:space="preserve">best wishes </v>
       </c>
-      <c r="AC18" t="str">
+      <c r="AC25" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655397113/drn5mqaxxqifsa47gbnc.jpg</v>
       </c>
     </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
         <v>zmana</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B26" t="str">
         <v>sar</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D26" t="str">
         <v>24</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E26" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F26" t="str">
         <v>+8801711082532</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H26" t="str">
         <v>stezaman@gmail.com</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I26" t="str">
         <v>Fathers Name</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J26" t="str">
         <v>MOthers Name</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K26" t="str">
         <v>Street Addres 01</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L26" t="str">
         <v>Street Address 02</v>
       </c>
-      <c r="M19" t="str">
+      <c r="M26" t="str">
         <v>Rangpur Sadar</v>
       </c>
-      <c r="N19" t="str">
+      <c r="N26" t="str">
         <v>1203</v>
       </c>
-      <c r="O19" t="str">
+      <c r="O26" t="str">
         <v>Rangpur</v>
       </c>
-      <c r="P19" t="str">
+      <c r="P26" t="str">
         <v>Bangladesh</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="Q26" t="str">
         <v>0330303030</v>
       </c>
-      <c r="R19" t="str">
+      <c r="R26" t="str">
         <v>https://www.facebook.com/shamsuzzaman.sarkar</v>
       </c>
-      <c r="S19" t="str">
+      <c r="S26" t="str">
         <v>1975-11-20</v>
       </c>
-      <c r="T19" t="str">
+      <c r="T26" t="str">
         <v>Bangladeshi</v>
       </c>
-      <c r="U19" t="str">
+      <c r="U26" t="str">
         <v>B+</v>
       </c>
-      <c r="V19" t="str">
+      <c r="V26" t="str">
         <v>Islam</v>
       </c>
-      <c r="W19" t="str">
+      <c r="W26" t="str">
         <v>IT Professional</v>
       </c>
-      <c r="X19" t="str">
+      <c r="X26" t="str">
         <v>daljkdalj</v>
       </c>
-      <c r="Y19" t="str">
+      <c r="Y26" t="str">
         <v>dsljsdfakljfkla</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="Z26" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA19" t="str">
+      <c r="AA26" t="str">
         <v>ljlajfsdljlkjafl</v>
       </c>
-      <c r="AB19" t="str" xml:space="preserve">
+      <c r="AB26" t="str" xml:space="preserve">
         <v xml:space="preserve">asklfjaslfjl_x000d_
 _x000d_
 111111111111_x000d_
 _x000d_
 arafaljflajsdfljasdlfj</v>
       </c>
-      <c r="AC19" t="str">
+      <c r="AC26" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655395188/tn1kiqak83vjv5form9h.jpg</v>
       </c>
     </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
         <v>Zaman</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B27" t="str">
         <v>Sarkr</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D27" t="str">
         <v>26</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E27" t="str">
         <v>Faculty of Humaninities</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F27" t="str">
         <v>+8801711082535</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H27" t="str">
         <v>stezaman@gmail.com</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I27" t="str">
         <v>Thgg</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J27" t="str">
         <v>Vvgg</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K27" t="str">
         <v>Ggggh</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L27" t="str">
         <v>Hbhhh</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M27" t="str">
         <v>Vvgg</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N27" t="str">
         <v>Eedr</v>
       </c>
-      <c r="O20" t="str">
+      <c r="O27" t="str">
         <v>Ffff</v>
       </c>
-      <c r="P20" t="str">
+      <c r="P27" t="str">
         <v>Bang</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="Q27" t="str">
         <v>0171108354_</v>
       </c>
-      <c r="R20" t="str">
+      <c r="R27" t="str">
         <v>ZamanSarker</v>
       </c>
-      <c r="S20" t="str">
+      <c r="S27" t="str">
         <v>2022-06-08</v>
       </c>
-      <c r="T20" t="str">
-        <v/>
-      </c>
-      <c r="U20" t="str">
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
         <v>A-</v>
       </c>
-      <c r="V20" t="str">
-        <v/>
-      </c>
-      <c r="W20" t="str">
+      <c r="V27" t="str">
+        <v/>
+      </c>
+      <c r="W27" t="str">
         <v>Yyyyy</v>
       </c>
-      <c r="X20" t="str">
-        <v/>
-      </c>
-      <c r="Y20" t="str">
-        <v/>
-      </c>
-      <c r="Z20" t="str">
+      <c r="X27" t="str">
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <v/>
+      </c>
+      <c r="Z27" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA20" t="str">
+      <c r="AA27" t="str">
         <v>123, 233</v>
       </c>
-      <c r="AB20" t="str" xml:space="preserve">
+      <c r="AB27" t="str" xml:space="preserve">
         <v xml:space="preserve">My wish_x000d_
 My work_x000d_
 My job</v>
       </c>
-      <c r="AC20" t="str">
+      <c r="AC27" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655364279/jnevxcc1knkgyghn3cux.jpg</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
+    <row r="28">
+      <c r="A28" t="str">
         <v>SHAMIM AL MAMUN</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B28" t="str">
         <v>SHAMIM</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D28" t="str">
         <v>27</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E28" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F28" t="str">
         <v>+8801783567890</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H28" t="str">
         <v>shamim@juniv.edu</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I28" t="str">
         <v>MOHAMMAD ABDUL BARI</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J28" t="str">
         <v>KAUD BANU</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K28" t="str">
         <v>250, FLAT#7B, ROAD#8, BLOCK#C</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L28" t="str">
         <v>KHILGOAN</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M28" t="str">
         <v>KHILGOAN</v>
       </c>
-      <c r="N21" t="str">
+      <c r="N28" t="str">
         <v>1219</v>
       </c>
-      <c r="O21" t="str">
+      <c r="O28" t="str">
         <v>DHAKA</v>
       </c>
-      <c r="P21" t="str">
+      <c r="P28" t="str">
         <v>BANGLADESH</v>
       </c>
-      <c r="Q21" t="str">
-        <v/>
-      </c>
-      <c r="R21" t="str">
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+      <c r="R28" t="str">
         <v>shamimalmamun.ju</v>
       </c>
-      <c r="S21" t="str">
+      <c r="S28" t="str">
         <v>1980-08-15</v>
       </c>
-      <c r="T21" t="str">
+      <c r="T28" t="str">
         <v>BANGLADESH</v>
       </c>
-      <c r="U21" t="str">
+      <c r="U28" t="str">
         <v>O+</v>
       </c>
-      <c r="V21" t="str">
+      <c r="V28" t="str">
         <v>ISLAM</v>
       </c>
-      <c r="W21" t="str">
+      <c r="W28" t="str">
         <v>UNIVERSITY TEACHING</v>
       </c>
-      <c r="X21" t="str">
+      <c r="X28" t="str">
         <v>ASSOCIATE PROFESSOR</v>
       </c>
-      <c r="Y21" t="str">
+      <c r="Y28" t="str">
         <v>IIT, JAHANGIRNAGAR UNIVERSITY</v>
       </c>
-      <c r="Z21" t="str">
+      <c r="Z28" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA21" t="str">
+      <c r="AA28" t="str">
         <v>426</v>
       </c>
-      <c r="AB21" t="str">
+      <c r="AB28" t="str">
         <v>Wishing a successful and smart event.</v>
       </c>
-      <c r="AC21" t="str">
+      <c r="AC28" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655362988/e2kdsvr4cfrtqy63xm7d.jpg</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
+    <row r="29">
+      <c r="A29" t="str">
         <v>a</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B29" t="str">
         <v>a</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D29" t="str">
         <v>26</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E29" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F29" t="str">
         <v>+8801794807755</v>
       </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
         <v>a</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J29" t="str">
         <v>a</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K29" t="str">
         <v>a</v>
       </c>
-      <c r="L22" t="str">
-        <v/>
-      </c>
-      <c r="M22" t="str">
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
         <v>a</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N29" t="str">
         <v>a</v>
       </c>
-      <c r="O22" t="str">
+      <c r="O29" t="str">
         <v>a</v>
       </c>
-      <c r="P22" t="str">
+      <c r="P29" t="str">
         <v>a</v>
       </c>
-      <c r="Q22" t="str">
-        <v/>
-      </c>
-      <c r="R22" t="str">
-        <v/>
-      </c>
-      <c r="S22" t="str">
-        <v/>
-      </c>
-      <c r="T22" t="str">
-        <v/>
-      </c>
-      <c r="U22" t="str">
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v/>
+      </c>
+      <c r="U29" t="str">
         <v>O-</v>
       </c>
-      <c r="V22" t="str">
-        <v/>
-      </c>
-      <c r="W22" t="str">
+      <c r="V29" t="str">
+        <v/>
+      </c>
+      <c r="W29" t="str">
         <v>a</v>
       </c>
-      <c r="X22" t="str">
-        <v/>
-      </c>
-      <c r="Y22" t="str">
-        <v/>
-      </c>
-      <c r="Z22" t="str">
+      <c r="X29" t="str">
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <v/>
+      </c>
+      <c r="Z29" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA22" t="str">
-        <v/>
-      </c>
-      <c r="AB22" t="str">
+      <c r="AA29" t="str">
+        <v/>
+      </c>
+      <c r="AB29" t="str">
         <v>a</v>
       </c>
-      <c r="AC22" t="str">
+      <c r="AC29" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655353376/v0le4vrpp2mjvoyhreym.jpg</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
+    <row r="30">
+      <c r="A30" t="str">
         <v>Md. Shamsuzzaman Sarker</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B30" t="str">
         <v>Milon</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D30" t="str">
         <v>24</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E30" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F30" t="str">
         <v>+88017110282737</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H30" t="str">
         <v>stezaman@gmail.com</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I30" t="str">
         <v>Zaman Sarker</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J30" t="str">
         <v>Nahar</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K30" t="str">
         <v>New Adarsha Para, College Road</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L30" t="str">
         <v>Alamnagar, College Road</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M30" t="str">
         <v>Rangpur City</v>
       </c>
-      <c r="N23" t="str">
+      <c r="N30" t="str">
         <v>1207</v>
       </c>
-      <c r="O23" t="str">
+      <c r="O30" t="str">
         <v>Rangpur</v>
       </c>
-      <c r="P23" t="str">
+      <c r="P30" t="str">
         <v>Bangladesh</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="Q30" t="str">
         <v>01811939393</v>
       </c>
-      <c r="R23" t="str">
+      <c r="R30" t="str">
         <v>zaman.sarker120</v>
       </c>
-      <c r="S23" t="str">
+      <c r="S30" t="str">
         <v>2015-11-20</v>
       </c>
-      <c r="T23" t="str">
+      <c r="T30" t="str">
         <v>Bangladeshi</v>
       </c>
-      <c r="U23" t="str">
+      <c r="U30" t="str">
         <v>A+</v>
       </c>
-      <c r="V23" t="str">
+      <c r="V30" t="str">
         <v>Islam</v>
       </c>
-      <c r="W23" t="str">
+      <c r="W30" t="str">
         <v xml:space="preserve">IT Professional </v>
       </c>
-      <c r="X23" t="str">
+      <c r="X30" t="str">
         <v>Consultant</v>
       </c>
-      <c r="Y23" t="str">
+      <c r="Y30" t="str">
         <v>TechSimple ICT</v>
       </c>
-      <c r="Z23" t="str">
+      <c r="Z30" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA23" t="str">
+      <c r="AA30" t="str">
         <v>212, 202</v>
       </c>
-      <c r="AB23" t="str">
+      <c r="AB30" t="str">
         <v>Happy Data Submission</v>
       </c>
-      <c r="AC23" t="str">
+      <c r="AC30" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655289556/uxxjsetiiqs9awaonluc.jpg</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
+    <row r="31">
+      <c r="A31" t="str">
         <v>Full Name</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B31" t="str">
         <v>NickName</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D31" t="str">
         <v>28</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E31" t="str">
         <v>Faculty of Humaninities</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F31" t="str">
         <v>+8801794807577</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H31" t="str">
         <v>email</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I31" t="str">
         <v>F Name</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J31" t="str">
         <v>M Name</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K31" t="str">
         <v>address</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L31" t="str">
         <v>adress 2</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M31" t="str">
         <v>city</v>
       </c>
-      <c r="N24" t="str">
+      <c r="N31" t="str">
         <v>zip</v>
       </c>
-      <c r="O24" t="str">
+      <c r="O31" t="str">
         <v>state</v>
       </c>
-      <c r="P24" t="str">
+      <c r="P31" t="str">
         <v>country</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="Q31" t="str">
         <v>econtact</v>
       </c>
-      <c r="R24" t="str">
+      <c r="R31" t="str">
         <v>my fb id</v>
       </c>
-      <c r="S24" t="str">
+      <c r="S31" t="str">
         <v>2022-06-16</v>
       </c>
-      <c r="T24" t="str">
+      <c r="T31" t="str">
         <v>natinality</v>
       </c>
-      <c r="U24" t="str">
+      <c r="U31" t="str">
         <v>O+</v>
       </c>
-      <c r="V24" t="str">
+      <c r="V31" t="str">
         <v>religion</v>
       </c>
-      <c r="W24" t="str">
+      <c r="W31" t="str">
         <v>occupation</v>
       </c>
-      <c r="X24" t="str">
+      <c r="X31" t="str">
         <v>des</v>
       </c>
-      <c r="Y24" t="str">
+      <c r="Y31" t="str">
         <v>c name</v>
       </c>
-      <c r="Z24" t="str">
+      <c r="Z31" t="str">
         <v>UNMARRIED</v>
       </c>
-      <c r="AA24" t="str">
+      <c r="AA31" t="str">
         <v>hall</v>
       </c>
-      <c r="AB24" t="str">
+      <c r="AB31" t="str">
         <v>wishbox</v>
       </c>
-      <c r="AC24" t="str">
+      <c r="AC31" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655288725/i7uhzqvn86jksoyjciju.png</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
+    <row r="32">
+      <c r="A32" t="str">
         <v>Zaman</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B32" t="str">
         <v>Sarker</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F32" t="str">
         <v>01711082532</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H32" t="str">
         <v>stezaman@gmail.com</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I32" t="str">
         <v>Fathername</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J32" t="str">
         <v>mothername</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="Q32" t="str">
         <v>0294949499</v>
       </c>
-      <c r="R25" t="str">
-        <v/>
-      </c>
-      <c r="S25" t="str">
+      <c r="R32" t="str">
+        <v/>
+      </c>
+      <c r="S32" t="str">
         <v>2022-06-08</v>
       </c>
-      <c r="T25" t="str">
+      <c r="T32" t="str">
         <v>bangladeshi</v>
       </c>
-      <c r="U25" t="str">
+      <c r="U32" t="str">
         <v>O-</v>
       </c>
-      <c r="V25" t="str">
+      <c r="V32" t="str">
         <v>s\\</v>
       </c>
-      <c r="W25" t="str">
+      <c r="W32" t="str">
         <v>flaskdjflj</v>
       </c>
-      <c r="X25" t="str">
+      <c r="X32" t="str">
         <v>sljasdljf</v>
       </c>
-      <c r="Y25" t="str">
+      <c r="Y32" t="str">
         <v>saljdklaj</v>
       </c>
-      <c r="Z25" t="str">
+      <c r="Z32" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA25" t="str">
+      <c r="AA32" t="str">
         <v>123, 344</v>
       </c>
-      <c r="AB25" t="str">
+      <c r="AB32" t="str">
         <v>afjslfjakl</v>
       </c>
-      <c r="AC25" t="str">
+      <c r="AC32" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655046787/swnbtvhnmv0lpwyr8vje.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,49 +493,49 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Carol Parker</v>
+        <v>Full Name</v>
       </c>
       <c r="B2" t="str">
-        <v>da</v>
+        <v>Nick Name</v>
       </c>
       <c r="C2" t="str">
-        <v>Biochemistry &amp; Molicular Biology</v>
+        <v>Institute of Business Admistration</v>
       </c>
       <c r="D2" t="str">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="str">
-        <v>Faculty of Biology</v>
+        <v>Institute of Business Admistration</v>
       </c>
       <c r="F2" t="str">
-        <v>+6323</v>
+        <v>+88018384848484848</v>
       </c>
       <c r="H2" t="str">
-        <v>munnash</v>
+        <v>saslkfalsdjf@gkmajkl.com</v>
       </c>
       <c r="I2" t="str">
-        <v>saa</v>
+        <v>Fathers Name</v>
       </c>
       <c r="J2" t="str">
-        <v>sa</v>
+        <v>Mothers Name</v>
       </c>
       <c r="K2" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>Street Addrsss</v>
       </c>
       <c r="L2" t="str">
-        <v>as</v>
+        <v/>
       </c>
       <c r="M2" t="str">
-        <v>Himamaylan</v>
+        <v>New Adarsho Para</v>
       </c>
       <c r="N2" t="str">
-        <v>5189</v>
+        <v>Zip Code</v>
       </c>
       <c r="O2" t="str">
-        <v>as</v>
+        <v>Rangpur</v>
       </c>
       <c r="P2" t="str">
-        <v>Philippines</v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q2" t="str">
         <v/>
@@ -544,19 +544,19 @@
         <v/>
       </c>
       <c r="S2" t="str">
-        <v>2022-06-08</v>
+        <v/>
       </c>
       <c r="T2" t="str">
-        <v>ass</v>
+        <v/>
       </c>
       <c r="U2" t="str">
-        <v>A-</v>
+        <v>A+</v>
       </c>
       <c r="V2" t="str">
-        <v>a</v>
+        <v/>
       </c>
       <c r="W2" t="str">
-        <v>asa</v>
+        <v>IT professsional</v>
       </c>
       <c r="X2" t="str">
         <v/>
@@ -571,131 +571,131 @@
         <v/>
       </c>
       <c r="AB2" t="str">
-        <v>s</v>
+        <v>All the best wishes</v>
       </c>
       <c r="AC2" t="str">
-        <v>http://res.cloudinary.com/drihikk07/image/upload/v1656475834/gnchmy1nrklrr4x91cqt.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656905488/iuzpwaab3bpcahehhldp.png</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>sda</v>
+        <v xml:space="preserve">Md. Rashedur Reza </v>
       </c>
       <c r="B3" t="str">
-        <v>asd</v>
+        <v>Rashed</v>
       </c>
       <c r="C3" t="str">
-        <v>History</v>
+        <v>Government and Politics</v>
       </c>
       <c r="D3" t="str">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E3" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Social Sciences</v>
       </c>
       <c r="F3" t="str">
-        <v>+8804324</v>
+        <v>+8801961055234</v>
       </c>
       <c r="H3" t="str">
-        <v>reef</v>
+        <v>rashedreza38ju@gmail.com</v>
       </c>
       <c r="I3" t="str">
-        <v>ewqe</v>
+        <v>Md.Abul Hossain</v>
       </c>
       <c r="J3" t="str">
-        <v>weq</v>
+        <v>Nazma Khanom</v>
       </c>
       <c r="K3" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>House-177, Ward-07,</v>
       </c>
       <c r="L3" t="str">
-        <v>eqe</v>
+        <v>Circuit house Road</v>
       </c>
       <c r="M3" t="str">
-        <v>Himamaylan</v>
+        <v xml:space="preserve">Shariatpur sadar </v>
       </c>
       <c r="N3" t="str">
-        <v>5189</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="str">
-        <v>e</v>
+        <v xml:space="preserve">Shariatpur </v>
       </c>
       <c r="P3" t="str">
-        <v>Philippines</v>
+        <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q3" t="str">
-        <v/>
+        <v>01961055234</v>
       </c>
       <c r="R3" t="str">
-        <v/>
+        <v xml:space="preserve">Rashedur Reza Rashed </v>
       </c>
       <c r="S3" t="str">
-        <v>2022-06-08</v>
+        <v>1989-09-05</v>
       </c>
       <c r="T3" t="str">
-        <v>eq</v>
+        <v xml:space="preserve">Bangladeshi </v>
       </c>
       <c r="U3" t="str">
-        <v>O+</v>
+        <v>A+</v>
       </c>
       <c r="V3" t="str">
-        <v>eq</v>
+        <v>Islam</v>
       </c>
       <c r="W3" t="str">
-        <v>eq</v>
+        <v xml:space="preserve">Service </v>
       </c>
       <c r="X3" t="str">
-        <v/>
+        <v xml:space="preserve">Officer </v>
       </c>
       <c r="Y3" t="str">
-        <v/>
+        <v xml:space="preserve">Rupali Bank </v>
       </c>
       <c r="Z3" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA3" t="str">
-        <v/>
+        <v>422</v>
       </c>
       <c r="AB3" t="str">
-        <v>edq</v>
+        <v>Jahangirnagar is the name of filling.</v>
       </c>
       <c r="AC3" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656437127/txkbzbndmr0lpow31ljx.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656771440/zw5rvptwitexrsojroc6.jpg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>amsjsn</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B4" t="str">
-        <v>shshsn</v>
+        <v>da</v>
       </c>
       <c r="C4" t="str">
-        <v>Philosophy</v>
+        <v>Biochemistry &amp; Molicular Biology</v>
       </c>
       <c r="D4" t="str">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F4" t="str">
-        <v>+8804977</v>
+        <v>+6323</v>
       </c>
       <c r="H4" t="str">
-        <v>sgzbzb</v>
+        <v>munnash</v>
       </c>
       <c r="I4" t="str">
-        <v>shzbzb</v>
+        <v>saa</v>
       </c>
       <c r="J4" t="str">
-        <v>wnsbsb</v>
+        <v>sa</v>
       </c>
       <c r="K4" t="str">
         <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L4" t="str">
-        <v>vvv</v>
+        <v>as</v>
       </c>
       <c r="M4" t="str">
         <v>Himamaylan</v>
@@ -704,31 +704,31 @@
         <v>5189</v>
       </c>
       <c r="O4" t="str">
-        <v>bb</v>
+        <v>as</v>
       </c>
       <c r="P4" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q4" t="str">
-        <v>sbsb</v>
+        <v/>
       </c>
       <c r="R4" t="str">
-        <v>sbabs</v>
+        <v/>
       </c>
       <c r="S4" t="str">
-        <v>2022-06-16</v>
+        <v>2022-06-08</v>
       </c>
       <c r="T4" t="str">
-        <v>s</v>
+        <v>ass</v>
       </c>
       <c r="U4" t="str">
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="V4" t="str">
-        <v>zb</v>
+        <v>a</v>
       </c>
       <c r="W4" t="str">
-        <v>sbzb</v>
+        <v>asa</v>
       </c>
       <c r="X4" t="str">
         <v/>
@@ -743,57 +743,57 @@
         <v/>
       </c>
       <c r="AB4" t="str">
-        <v>zbzbz</v>
+        <v>s</v>
       </c>
       <c r="AC4" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656416080/yivs2xjp3o8ejzpcxqdb.jpg</v>
+        <v>http://res.cloudinary.com/drihikk07/image/upload/v1656475834/gnchmy1nrklrr4x91cqt.jpg</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Zaman Sarker</v>
+        <v>sda</v>
       </c>
       <c r="B5" t="str">
-        <v>Milon</v>
+        <v>asd</v>
       </c>
       <c r="C5" t="str">
-        <v>Geography and Environment</v>
+        <v>History</v>
       </c>
       <c r="D5" t="str">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E5" t="str">
-        <v>Faculty of Social Sciences</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F5" t="str">
-        <v>+8803393939393939</v>
+        <v>+8804324</v>
       </c>
       <c r="H5" t="str">
-        <v>stezaman033@gmail.com</v>
+        <v>reef</v>
       </c>
       <c r="I5" t="str">
-        <v>My Fathers Name</v>
+        <v>ewqe</v>
       </c>
       <c r="J5" t="str">
-        <v>My MOthes Name</v>
+        <v>weq</v>
       </c>
       <c r="K5" t="str">
-        <v>Street 01</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L5" t="str">
-        <v>Street 02</v>
+        <v>eqe</v>
       </c>
       <c r="M5" t="str">
-        <v>Upaziall</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N5" t="str">
-        <v>1202</v>
+        <v>5189</v>
       </c>
       <c r="O5" t="str">
-        <v>State</v>
+        <v>e</v>
       </c>
       <c r="P5" t="str">
-        <v>Bangladesh</v>
+        <v>Philippines</v>
       </c>
       <c r="Q5" t="str">
         <v/>
@@ -802,19 +802,19 @@
         <v/>
       </c>
       <c r="S5" t="str">
-        <v/>
+        <v>2022-06-08</v>
       </c>
       <c r="T5" t="str">
-        <v/>
+        <v>eq</v>
       </c>
       <c r="U5" t="str">
-        <v>B+</v>
+        <v>O+</v>
       </c>
       <c r="V5" t="str">
-        <v/>
+        <v>eq</v>
       </c>
       <c r="W5" t="str">
-        <v xml:space="preserve">Service </v>
+        <v>eq</v>
       </c>
       <c r="X5" t="str">
         <v/>
@@ -829,45 +829,45 @@
         <v/>
       </c>
       <c r="AB5" t="str">
-        <v xml:space="preserve">Wish Box </v>
+        <v>edq</v>
       </c>
       <c r="AC5" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656415399/u0sp0nj23wd0ibonr7vn.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656437127/txkbzbndmr0lpow31ljx.jpg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>saa</v>
+        <v>amsjsn</v>
       </c>
       <c r="B6" t="str">
-        <v>sa</v>
+        <v>shshsn</v>
       </c>
       <c r="C6" t="str">
-        <v>English</v>
+        <v>Philosophy</v>
       </c>
       <c r="D6" t="str">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F6" t="str">
-        <v>+88023313</v>
+        <v>+8804977</v>
       </c>
       <c r="H6" t="str">
-        <v>fesfada</v>
+        <v>sgzbzb</v>
       </c>
       <c r="I6" t="str">
-        <v>edad</v>
+        <v>shzbzb</v>
       </c>
       <c r="J6" t="str">
-        <v>ad</v>
+        <v>wnsbsb</v>
       </c>
       <c r="K6" t="str">
         <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L6" t="str">
-        <v>s</v>
+        <v>vvv</v>
       </c>
       <c r="M6" t="str">
         <v>Himamaylan</v>
@@ -876,31 +876,31 @@
         <v>5189</v>
       </c>
       <c r="O6" t="str">
-        <v>s</v>
+        <v>bb</v>
       </c>
       <c r="P6" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q6" t="str">
-        <v>a</v>
+        <v>sbsb</v>
       </c>
       <c r="R6" t="str">
-        <v/>
+        <v>sbabs</v>
       </c>
       <c r="S6" t="str">
-        <v>2022-06-13</v>
+        <v>2022-06-16</v>
       </c>
       <c r="T6" t="str">
-        <v>edfa</v>
+        <v>s</v>
       </c>
       <c r="U6" t="str">
-        <v>O+</v>
+        <v>B+</v>
       </c>
       <c r="V6" t="str">
-        <v>fs</v>
+        <v>zb</v>
       </c>
       <c r="W6" t="str">
-        <v>qw</v>
+        <v>sbzb</v>
       </c>
       <c r="X6" t="str">
         <v/>
@@ -912,81 +912,81 @@
         <v>MARRIED</v>
       </c>
       <c r="AA6" t="str">
-        <v>q</v>
+        <v/>
       </c>
       <c r="AB6" t="str">
-        <v>qwe</v>
+        <v>zbzbz</v>
       </c>
       <c r="AC6" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656413349/x52cymsi5majqm46gdkz.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656416080/yivs2xjp3o8ejzpcxqdb.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Munna Khondoker</v>
+        <v>Zaman Sarker</v>
       </c>
       <c r="B7" t="str">
-        <v>Munna</v>
+        <v>Milon</v>
       </c>
       <c r="C7" t="str">
-        <v>Public Health &amp; Informatics</v>
+        <v>Geography and Environment</v>
       </c>
       <c r="D7" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="str">
-        <v>Faculty of Biology</v>
+        <v>Faculty of Social Sciences</v>
       </c>
       <c r="F7" t="str">
-        <v>+88017948075</v>
+        <v>+8803393939393939</v>
       </c>
       <c r="H7" t="str">
-        <v>munnashisaewd@gmail.com</v>
+        <v>stezaman033@gmail.com</v>
       </c>
       <c r="I7" t="str">
-        <v>Fahter Name</v>
+        <v>My Fathers Name</v>
       </c>
       <c r="J7" t="str">
-        <v>Mother Name</v>
+        <v>My MOthes Name</v>
       </c>
       <c r="K7" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>Street 01</v>
       </c>
       <c r="L7" t="str">
-        <v>2w</v>
+        <v>Street 02</v>
       </c>
       <c r="M7" t="str">
-        <v>Himamaylan</v>
+        <v>Upaziall</v>
       </c>
       <c r="N7" t="str">
-        <v>5189</v>
+        <v>1202</v>
       </c>
       <c r="O7" t="str">
-        <v>q</v>
+        <v>State</v>
       </c>
       <c r="P7" t="str">
-        <v>Philippines</v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q7" t="str">
-        <v>Emergency Contact</v>
+        <v/>
       </c>
       <c r="R7" t="str">
-        <v>no</v>
+        <v/>
       </c>
       <c r="S7" t="str">
-        <v>2022-06-23</v>
+        <v/>
       </c>
       <c r="T7" t="str">
-        <v>Nationality</v>
+        <v/>
       </c>
       <c r="U7" t="str">
-        <v>O-</v>
+        <v>B+</v>
       </c>
       <c r="V7" t="str">
-        <v>Religion</v>
+        <v/>
       </c>
       <c r="W7" t="str">
-        <v>Student</v>
+        <v xml:space="preserve">Service </v>
       </c>
       <c r="X7" t="str">
         <v/>
@@ -998,21 +998,21 @@
         <v>MARRIED</v>
       </c>
       <c r="AA7" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AB7" t="str">
-        <v>1</v>
+        <v xml:space="preserve">Wish Box </v>
       </c>
       <c r="AC7" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656412089/zho62mxtp5ewnrl9vvrj.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656415399/u0sp0nj23wd0ibonr7vn.jpg</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Carol Parker</v>
+        <v>saa</v>
       </c>
       <c r="B8" t="str">
-        <v>wsa</v>
+        <v>sa</v>
       </c>
       <c r="C8" t="str">
         <v>English</v>
@@ -1024,22 +1024,22 @@
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F8" t="str">
-        <v>+63232141</v>
+        <v>+88023313</v>
       </c>
       <c r="H8" t="str">
-        <v>mudfdas</v>
+        <v>fesfada</v>
       </c>
       <c r="I8" t="str">
-        <v>AA</v>
+        <v>edad</v>
       </c>
       <c r="J8" t="str">
-        <v>a</v>
+        <v>ad</v>
       </c>
       <c r="K8" t="str">
-        <v>a</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L8" t="str">
-        <v>a</v>
+        <v>s</v>
       </c>
       <c r="M8" t="str">
         <v>Himamaylan</v>
@@ -1048,31 +1048,31 @@
         <v>5189</v>
       </c>
       <c r="O8" t="str">
-        <v>a</v>
+        <v>s</v>
       </c>
       <c r="P8" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q8" t="str">
-        <v/>
+        <v>a</v>
       </c>
       <c r="R8" t="str">
-        <v>e</v>
+        <v/>
       </c>
       <c r="S8" t="str">
-        <v>2022-06-25</v>
+        <v>2022-06-13</v>
       </c>
       <c r="T8" t="str">
-        <v>a</v>
+        <v>edfa</v>
       </c>
       <c r="U8" t="str">
-        <v>B+</v>
+        <v>O+</v>
       </c>
       <c r="V8" t="str">
-        <v>a</v>
+        <v>fs</v>
       </c>
       <c r="W8" t="str">
-        <v>a</v>
+        <v>qw</v>
       </c>
       <c r="X8" t="str">
         <v/>
@@ -1084,81 +1084,81 @@
         <v>MARRIED</v>
       </c>
       <c r="AA8" t="str">
-        <v/>
+        <v>q</v>
       </c>
       <c r="AB8" t="str">
-        <v>a</v>
+        <v>qwe</v>
       </c>
       <c r="AC8" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656134864/tkdgbchvha9fjwfvunb3.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656413349/x52cymsi5majqm46gdkz.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Md. Al-helal Uddin</v>
+        <v>Munna Khondoker</v>
       </c>
       <c r="B9" t="str">
-        <v>Shamim</v>
+        <v>Munna</v>
       </c>
       <c r="C9" t="str">
-        <v>Archeology</v>
+        <v>Public Health &amp; Informatics</v>
       </c>
       <c r="D9" t="str">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F9" t="str">
-        <v>+8801756477707</v>
+        <v>+88017948075</v>
       </c>
       <c r="H9" t="str">
-        <v>shamim1978@gmail.com</v>
+        <v>munnashisaewd@gmail.com</v>
       </c>
       <c r="I9" t="str">
-        <v>A. B. M. Asadullah</v>
+        <v>Fahter Name</v>
       </c>
       <c r="J9" t="str">
-        <v>Mrs. Akhtara Begum</v>
+        <v>Mother Name</v>
       </c>
       <c r="K9" t="str">
-        <v>17/7</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L9" t="str">
-        <v>Azimpur</v>
+        <v>2w</v>
       </c>
       <c r="M9" t="str">
-        <v>Lalbagh</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N9" t="str">
-        <v>1213</v>
+        <v>5189</v>
       </c>
       <c r="O9" t="str">
-        <v>Dhaka</v>
+        <v>q</v>
       </c>
       <c r="P9" t="str">
-        <v>Bangladesh</v>
+        <v>Philippines</v>
       </c>
       <c r="Q9" t="str">
-        <v>01814232539</v>
+        <v>Emergency Contact</v>
       </c>
       <c r="R9" t="str">
-        <v>shamimalhelal</v>
+        <v>no</v>
       </c>
       <c r="S9" t="str">
-        <v>1978-11-02</v>
+        <v>2022-06-23</v>
       </c>
       <c r="T9" t="str">
-        <v>Bangladeshi</v>
+        <v>Nationality</v>
       </c>
       <c r="U9" t="str">
-        <v>A+</v>
+        <v>O-</v>
       </c>
       <c r="V9" t="str">
-        <v>Islam</v>
+        <v>Religion</v>
       </c>
       <c r="W9" t="str">
-        <v>Service</v>
+        <v>Student</v>
       </c>
       <c r="X9" t="str">
         <v/>
@@ -1170,81 +1170,81 @@
         <v>MARRIED</v>
       </c>
       <c r="AA9" t="str">
-        <v>146, 222, 246</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="str">
-        <v xml:space="preserve">Wish all the best </v>
+        <v>1</v>
       </c>
       <c r="AC9" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656076355/jtpmzcvjuxeuhghbhlvi.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656412089/zho62mxtp5ewnrl9vvrj.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Gggg</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B10" t="str">
-        <v>Ggggg</v>
+        <v>wsa</v>
       </c>
       <c r="C10" t="str">
-        <v>Finance &amp; Banking</v>
+        <v>English</v>
       </c>
       <c r="D10" t="str">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E10" t="str">
-        <v>Faculty of Business Studies</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F10" t="str">
-        <v>+88017110825666</v>
+        <v>+63232141</v>
       </c>
       <c r="H10" t="str">
-        <v>stezamerran@gmail.com</v>
+        <v>mudfdas</v>
       </c>
       <c r="I10" t="str">
-        <v>Ytyyyyy</v>
+        <v>AA</v>
       </c>
       <c r="J10" t="str">
-        <v>Yyyyuu</v>
+        <v>a</v>
       </c>
       <c r="K10" t="str">
-        <v>Gggg</v>
+        <v>a</v>
       </c>
       <c r="L10" t="str">
-        <v>Ghgg</v>
+        <v>a</v>
       </c>
       <c r="M10" t="str">
-        <v>Ggg</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N10" t="str">
-        <v>Ghhgh</v>
+        <v>5189</v>
       </c>
       <c r="O10" t="str">
-        <v>Ggg</v>
+        <v>a</v>
       </c>
       <c r="P10" t="str">
-        <v>Gggg</v>
+        <v>Philippines</v>
       </c>
       <c r="Q10" t="str">
         <v/>
       </c>
       <c r="R10" t="str">
-        <v/>
+        <v>e</v>
       </c>
       <c r="S10" t="str">
-        <v/>
+        <v>2022-06-25</v>
       </c>
       <c r="T10" t="str">
-        <v/>
+        <v>a</v>
       </c>
       <c r="U10" t="str">
         <v>B+</v>
       </c>
       <c r="V10" t="str">
-        <v/>
+        <v>a</v>
       </c>
       <c r="W10" t="str">
-        <v>Ggggh</v>
+        <v>a</v>
       </c>
       <c r="X10" t="str">
         <v/>
@@ -1253,75 +1253,75 @@
         <v/>
       </c>
       <c r="Z10" t="str">
-        <v>UNMARRIED</v>
+        <v>MARRIED</v>
       </c>
       <c r="AA10" t="str">
         <v/>
       </c>
       <c r="AB10" t="str">
-        <v>Hhhhh</v>
+        <v>a</v>
       </c>
       <c r="AC10" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656071483/wo3l0qazumnuid4ftuxa.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656134864/tkdgbchvha9fjwfvunb3.jpg</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve">Mohammed Shofiqul Islam </v>
+        <v>Md. Al-helal Uddin</v>
       </c>
       <c r="B11" t="str">
-        <v>Parves</v>
+        <v>Shamim</v>
       </c>
       <c r="C11" t="str">
-        <v>Statistics</v>
+        <v>Archeology</v>
       </c>
       <c r="D11" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F11" t="str">
-        <v>+8801712269400</v>
+        <v>+8801756477707</v>
       </c>
       <c r="H11" t="str">
-        <v>islamshofiq311@gmail.com</v>
+        <v>shamim1978@gmail.com</v>
       </c>
       <c r="I11" t="str">
-        <v xml:space="preserve">Mohammed Nurul Islam </v>
+        <v>A. B. M. Asadullah</v>
       </c>
       <c r="J11" t="str">
-        <v xml:space="preserve">Shamsunnahar </v>
+        <v>Mrs. Akhtara Begum</v>
       </c>
       <c r="K11" t="str">
-        <v>405, Monir Chemical Road, DUET</v>
+        <v>17/7</v>
       </c>
       <c r="L11" t="str">
-        <v/>
+        <v>Azimpur</v>
       </c>
       <c r="M11" t="str">
-        <v xml:space="preserve">Gazipur Sadar </v>
+        <v>Lalbagh</v>
       </c>
       <c r="N11" t="str">
-        <v>1700</v>
+        <v>1213</v>
       </c>
       <c r="O11" t="str">
-        <v xml:space="preserve">Gazipur </v>
+        <v>Dhaka</v>
       </c>
       <c r="P11" t="str">
-        <v xml:space="preserve">Bangladesh </v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q11" t="str">
-        <v>01714084640 (Brother)</v>
+        <v>01814232539</v>
       </c>
       <c r="R11" t="str">
-        <v xml:space="preserve">Shofiqul Islam Parves </v>
+        <v>shamimalhelal</v>
       </c>
       <c r="S11" t="str">
-        <v>1981-06-26</v>
+        <v>1978-11-02</v>
       </c>
       <c r="T11" t="str">
-        <v xml:space="preserve">Bangladeshi </v>
+        <v>Bangladeshi</v>
       </c>
       <c r="U11" t="str">
         <v>A+</v>
@@ -1330,78 +1330,78 @@
         <v>Islam</v>
       </c>
       <c r="W11" t="str">
-        <v xml:space="preserve">Banker </v>
+        <v>Service</v>
       </c>
       <c r="X11" t="str">
-        <v xml:space="preserve">Principal Officer </v>
+        <v/>
       </c>
       <c r="Y11" t="str">
-        <v xml:space="preserve">Mercantile Bank Limited </v>
+        <v/>
       </c>
       <c r="Z11" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA11" t="str">
-        <v>135</v>
+        <v>146, 222, 246</v>
       </c>
       <c r="AB11" t="str">
-        <v>Long live Moulana Bhasani Hall</v>
+        <v xml:space="preserve">Wish all the best </v>
       </c>
       <c r="AC11" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656045918/xtilidykfztgzvxg2dxn.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656076355/jtpmzcvjuxeuhghbhlvi.jpg</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>lksdljfl</v>
+        <v>Gggg</v>
       </c>
       <c r="B12" t="str">
-        <v>alsdjfalskjkl</v>
+        <v>Ggggg</v>
       </c>
       <c r="C12" t="str">
-        <v>Microbilogy</v>
+        <v>Finance &amp; Banking</v>
       </c>
       <c r="D12" t="str">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" t="str">
-        <v>Faculty of Biology</v>
+        <v>Faculty of Business Studies</v>
       </c>
       <c r="F12" t="str">
-        <v>+88048484848484848</v>
+        <v>+88017110825666</v>
       </c>
       <c r="H12" t="str">
-        <v>st11ezaman@gmail.com</v>
+        <v>stezamerran@gmail.com</v>
       </c>
       <c r="I12" t="str">
-        <v>fa</v>
+        <v>Ytyyyyy</v>
       </c>
       <c r="J12" t="str">
-        <v>ad</v>
+        <v>Yyyyuu</v>
       </c>
       <c r="K12" t="str">
-        <v>adslfdklkj</v>
+        <v>Gggg</v>
       </c>
       <c r="L12" t="str">
-        <v>asdljlasjf</v>
+        <v>Ghgg</v>
       </c>
       <c r="M12" t="str">
-        <v>lsdjfsdklj</v>
+        <v>Ggg</v>
       </c>
       <c r="N12" t="str">
-        <v>ssljdsk</v>
+        <v>Ghhgh</v>
       </c>
       <c r="O12" t="str">
-        <v>sdlkalfjl</v>
+        <v>Ggg</v>
       </c>
       <c r="P12" t="str">
-        <v>sdljadkl</v>
+        <v>Gggg</v>
       </c>
       <c r="Q12" t="str">
-        <v>fads</v>
+        <v/>
       </c>
       <c r="R12" t="str">
-        <v>zaman.sarker</v>
+        <v/>
       </c>
       <c r="S12" t="str">
         <v/>
@@ -1410,13 +1410,13 @@
         <v/>
       </c>
       <c r="U12" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="V12" t="str">
         <v/>
       </c>
       <c r="W12" t="str">
-        <v>fdsfasd</v>
+        <v>Ggggh</v>
       </c>
       <c r="X12" t="str">
         <v/>
@@ -1425,170 +1425,170 @@
         <v/>
       </c>
       <c r="Z12" t="str">
-        <v>MARRIED</v>
+        <v>UNMARRIED</v>
       </c>
       <c r="AA12" t="str">
         <v/>
       </c>
       <c r="AB12" t="str">
-        <v>fasdfsdafsd</v>
+        <v>Hhhhh</v>
       </c>
       <c r="AC12" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655882891/tqvp46skriyiniz352wt.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656071483/wo3l0qazumnuid4ftuxa.jpg</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Carol Parker</v>
+        <v xml:space="preserve">Mohammed Shofiqul Islam </v>
       </c>
       <c r="B13" t="str">
-        <v>1</v>
+        <v>Parves</v>
       </c>
       <c r="C13" t="str">
-        <v>Zoology</v>
+        <v>Statistics</v>
       </c>
       <c r="D13" t="str">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="str">
-        <v>Faculty of Biology</v>
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F13" t="str">
-        <v>+6312</v>
+        <v>+8801712269400</v>
       </c>
       <c r="H13" t="str">
-        <v>12</v>
+        <v>islamshofiq311@gmail.com</v>
       </c>
       <c r="I13" t="str">
-        <v>12</v>
+        <v xml:space="preserve">Mohammed Nurul Islam </v>
       </c>
       <c r="J13" t="str">
-        <v>2</v>
+        <v xml:space="preserve">Shamsunnahar </v>
       </c>
       <c r="K13" t="str">
-        <v>12</v>
+        <v>405, Monir Chemical Road, DUET</v>
       </c>
       <c r="L13" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M13" t="str">
-        <v>Himamaylan</v>
+        <v xml:space="preserve">Gazipur Sadar </v>
       </c>
       <c r="N13" t="str">
-        <v>5189</v>
+        <v>1700</v>
       </c>
       <c r="O13" t="str">
-        <v>1</v>
+        <v xml:space="preserve">Gazipur </v>
       </c>
       <c r="P13" t="str">
-        <v>Philippines</v>
+        <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q13" t="str">
-        <v>12</v>
+        <v>01714084640 (Brother)</v>
       </c>
       <c r="R13" t="str">
-        <v/>
+        <v xml:space="preserve">Shofiqul Islam Parves </v>
       </c>
       <c r="S13" t="str">
-        <v>2022-06-15</v>
+        <v>1981-06-26</v>
       </c>
       <c r="T13" t="str">
-        <v>Nationality</v>
+        <v xml:space="preserve">Bangladeshi </v>
       </c>
       <c r="U13" t="str">
         <v>A+</v>
       </c>
       <c r="V13" t="str">
-        <v>Religion</v>
+        <v>Islam</v>
       </c>
       <c r="W13" t="str">
-        <v>Student</v>
+        <v xml:space="preserve">Banker </v>
       </c>
       <c r="X13" t="str">
-        <v/>
+        <v xml:space="preserve">Principal Officer </v>
       </c>
       <c r="Y13" t="str">
-        <v/>
+        <v xml:space="preserve">Mercantile Bank Limited </v>
       </c>
       <c r="Z13" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA13" t="str">
-        <v/>
+        <v>135</v>
       </c>
       <c r="AB13" t="str">
-        <v>qw</v>
+        <v>Long live Moulana Bhasani Hall</v>
       </c>
       <c r="AC13" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655874150/t8mddyh8cglaev4janp0.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656045918/xtilidykfztgzvxg2dxn.png</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Carol Parker</v>
+        <v>lksdljfl</v>
       </c>
       <c r="B14" t="str">
-        <v>q</v>
+        <v>alsdjfalskjkl</v>
       </c>
       <c r="C14" t="str">
         <v>Microbilogy</v>
       </c>
       <c r="D14" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="str">
         <v>Faculty of Biology</v>
       </c>
       <c r="F14" t="str">
-        <v>+63253</v>
+        <v>+88048484848484848</v>
       </c>
       <c r="H14" t="str">
-        <v>2</v>
+        <v>st11ezaman@gmail.com</v>
       </c>
       <c r="I14" t="str">
-        <v>a</v>
+        <v>fa</v>
       </c>
       <c r="J14" t="str">
-        <v>Atreen</v>
+        <v>ad</v>
       </c>
       <c r="K14" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>adslfdklkj</v>
       </c>
       <c r="L14" t="str">
-        <v>lk</v>
+        <v>asdljlasjf</v>
       </c>
       <c r="M14" t="str">
-        <v>Himamaylan</v>
+        <v>lsdjfsdklj</v>
       </c>
       <c r="N14" t="str">
-        <v>5189</v>
+        <v>ssljdsk</v>
       </c>
       <c r="O14" t="str">
-        <v>l</v>
+        <v>sdlkalfjl</v>
       </c>
       <c r="P14" t="str">
-        <v>Philippines</v>
+        <v>sdljadkl</v>
       </c>
       <c r="Q14" t="str">
-        <v>Himamaylan</v>
+        <v>fads</v>
       </c>
       <c r="R14" t="str">
-        <v/>
+        <v>zaman.sarker</v>
       </c>
       <c r="S14" t="str">
-        <v>2022-06-15</v>
+        <v/>
       </c>
       <c r="T14" t="str">
-        <v>Philippines</v>
+        <v/>
       </c>
       <c r="U14" t="str">
         <v>A+</v>
       </c>
       <c r="V14" t="str">
-        <v>Student</v>
+        <v/>
       </c>
       <c r="W14" t="str">
-        <v>;</v>
+        <v>fdsfasd</v>
       </c>
       <c r="X14" t="str">
         <v/>
@@ -1603,10 +1603,10 @@
         <v/>
       </c>
       <c r="AB14" t="str">
-        <v>k</v>
+        <v>fasdfsdafsd</v>
       </c>
       <c r="AC14" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655873147/ravwg22qwgd7y4tf0rp4.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655882891/tqvp46skriyiniz352wt.png</v>
       </c>
     </row>
     <row r="15">
@@ -1617,31 +1617,31 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <v>English</v>
+        <v>Zoology</v>
       </c>
       <c r="D15" t="str">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E15" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F15" t="str">
-        <v>+632</v>
+        <v>+6312</v>
       </c>
       <c r="H15" t="str">
-        <v>munnashisad@gmail.com</v>
+        <v>12</v>
       </c>
       <c r="I15" t="str">
-        <v>Fahter Name</v>
+        <v>12</v>
       </c>
       <c r="J15" t="str">
-        <v>Mother Name</v>
+        <v>2</v>
       </c>
       <c r="K15" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>12</v>
       </c>
       <c r="L15" t="str">
-        <v>wq</v>
+        <v>1</v>
       </c>
       <c r="M15" t="str">
         <v>Himamaylan</v>
@@ -1650,25 +1650,25 @@
         <v>5189</v>
       </c>
       <c r="O15" t="str">
-        <v>BD</v>
+        <v>1</v>
       </c>
       <c r="P15" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q15" t="str">
-        <v>Emergency Contact</v>
+        <v>12</v>
       </c>
       <c r="R15" t="str">
         <v/>
       </c>
       <c r="S15" t="str">
-        <v>2022-06-17</v>
+        <v>2022-06-15</v>
       </c>
       <c r="T15" t="str">
-        <v>q</v>
+        <v>Nationality</v>
       </c>
       <c r="U15" t="str">
-        <v>O+</v>
+        <v>A+</v>
       </c>
       <c r="V15" t="str">
         <v>Religion</v>
@@ -1689,10 +1689,10 @@
         <v/>
       </c>
       <c r="AB15" t="str">
-        <v>q</v>
+        <v>qw</v>
       </c>
       <c r="AC15" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871289/ztnbjn6o5nyojilo1r24.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655874150/t8mddyh8cglaev4janp0.jpg</v>
       </c>
     </row>
     <row r="16">
@@ -1700,67 +1700,67 @@
         <v>Carol Parker</v>
       </c>
       <c r="B16" t="str">
-        <v>edw</v>
+        <v>q</v>
       </c>
       <c r="C16" t="str">
-        <v>English</v>
+        <v>Microbilogy</v>
       </c>
       <c r="D16" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F16" t="str">
-        <v>+63312</v>
+        <v>+63253</v>
       </c>
       <c r="H16" t="str">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="I16" t="str">
-        <v>1</v>
+        <v>a</v>
       </c>
       <c r="J16" t="str">
-        <v>1</v>
+        <v>Atreen</v>
       </c>
       <c r="K16" t="str">
-        <v>1</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L16" t="str">
-        <v>1</v>
+        <v>lk</v>
       </c>
       <c r="M16" t="str">
-        <v>1</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N16" t="str">
         <v>5189</v>
       </c>
       <c r="O16" t="str">
-        <v>BD</v>
+        <v>l</v>
       </c>
       <c r="P16" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q16" t="str">
-        <v>1</v>
+        <v>Himamaylan</v>
       </c>
       <c r="R16" t="str">
         <v/>
       </c>
       <c r="S16" t="str">
-        <v>2022-05-31</v>
+        <v>2022-06-15</v>
       </c>
       <c r="T16" t="str">
-        <v>1</v>
+        <v>Philippines</v>
       </c>
       <c r="U16" t="str">
         <v>A+</v>
       </c>
       <c r="V16" t="str">
-        <v>1</v>
+        <v>Student</v>
       </c>
       <c r="W16" t="str">
-        <v>q</v>
+        <v>;</v>
       </c>
       <c r="X16" t="str">
         <v/>
@@ -1775,78 +1775,78 @@
         <v/>
       </c>
       <c r="AB16" t="str">
-        <v>q</v>
+        <v>k</v>
       </c>
       <c r="AC16" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871089/tee6vjehwjlektqlihnv.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655873147/ravwg22qwgd7y4tf0rp4.jpg</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>alsdjlafj</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B17" t="str">
-        <v>sdlfjasdlj</v>
+        <v>1</v>
       </c>
       <c r="C17" t="str">
-        <v>Drama &amp; Daramatics</v>
+        <v>English</v>
       </c>
       <c r="D17" t="str">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F17" t="str">
-        <v>+88017110825322222</v>
+        <v>+632</v>
       </c>
       <c r="H17" t="str">
-        <v>ehamio@gmail.com</v>
+        <v>munnashisad@gmail.com</v>
       </c>
       <c r="I17" t="str">
-        <v>FANa</v>
+        <v>Fahter Name</v>
       </c>
       <c r="J17" t="str">
-        <v>MONa</v>
+        <v>Mother Name</v>
       </c>
       <c r="K17" t="str">
-        <v>Address</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L17" t="str">
-        <v>Address</v>
+        <v>wq</v>
       </c>
       <c r="M17" t="str">
-        <v>Address</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N17" t="str">
-        <v>Address</v>
+        <v>5189</v>
       </c>
       <c r="O17" t="str">
-        <v>Address</v>
+        <v>BD</v>
       </c>
       <c r="P17" t="str">
-        <v>Address</v>
+        <v>Philippines</v>
       </c>
       <c r="Q17" t="str">
-        <v/>
+        <v>Emergency Contact</v>
       </c>
       <c r="R17" t="str">
-        <v>zaman.sarker</v>
+        <v/>
       </c>
       <c r="S17" t="str">
-        <v/>
+        <v>2022-06-17</v>
       </c>
       <c r="T17" t="str">
-        <v/>
+        <v>q</v>
       </c>
       <c r="U17" t="str">
-        <v>B-</v>
+        <v>O+</v>
       </c>
       <c r="V17" t="str">
-        <v/>
+        <v>Religion</v>
       </c>
       <c r="W17" t="str">
-        <v>IT</v>
+        <v>Student</v>
       </c>
       <c r="X17" t="str">
         <v/>
@@ -1861,78 +1861,78 @@
         <v/>
       </c>
       <c r="AB17" t="str">
-        <v>alksflasjdl</v>
+        <v>q</v>
       </c>
       <c r="AC17" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855805/saeb0mezfc6673g7piv0.jpg</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871289/ztnbjn6o5nyojilo1r24.jpg</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="str">
-        <v>Full Name</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B18" t="str">
-        <v>Nick Name</v>
+        <v>edw</v>
       </c>
       <c r="C18" t="str">
-        <v>History</v>
+        <v>English</v>
       </c>
       <c r="D18" t="str">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E18" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F18" t="str">
-        <v>+8801789237474747</v>
+        <v>+63312</v>
       </c>
       <c r="H18" t="str">
-        <v>aeaill@mail.com</v>
+        <v>121</v>
       </c>
       <c r="I18" t="str">
-        <v>Father's Name</v>
+        <v>1</v>
       </c>
       <c r="J18" t="str">
-        <v>Mother's Name</v>
+        <v>1</v>
       </c>
       <c r="K18" t="str">
-        <v>Street Address</v>
+        <v>1</v>
       </c>
       <c r="L18" t="str">
-        <v>Street Address 02</v>
+        <v>1</v>
       </c>
       <c r="M18" t="str">
-        <v>Uploza</v>
+        <v>1</v>
       </c>
       <c r="N18" t="str">
-        <v>1230</v>
+        <v>5189</v>
       </c>
       <c r="O18" t="str">
-        <v>State</v>
+        <v>BD</v>
       </c>
       <c r="P18" t="str">
-        <v>Bangladesh</v>
+        <v>Philippines</v>
       </c>
       <c r="Q18" t="str">
-        <v>Emergency Contract</v>
+        <v>1</v>
       </c>
       <c r="R18" t="str">
-        <v>zaman.sarker</v>
+        <v/>
       </c>
       <c r="S18" t="str">
-        <v>1990-07-24</v>
+        <v>2022-05-31</v>
       </c>
       <c r="T18" t="str">
-        <v>Bangladeshi</v>
+        <v>1</v>
       </c>
       <c r="U18" t="str">
         <v>A+</v>
       </c>
       <c r="V18" t="str">
-        <v>Islam</v>
+        <v>1</v>
       </c>
       <c r="W18" t="str">
-        <v xml:space="preserve">IT </v>
+        <v>q</v>
       </c>
       <c r="X18" t="str">
         <v/>
@@ -1946,339 +1946,339 @@
       <c r="AA18" t="str">
         <v/>
       </c>
-      <c r="AB18" t="str" xml:space="preserve">
+      <c r="AB18" t="str">
+        <v>q</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871089/tee6vjehwjlektqlihnv.jpg</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>alsdjlafj</v>
+      </c>
+      <c r="B19" t="str">
+        <v>sdlfjasdlj</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Drama &amp; Daramatics</v>
+      </c>
+      <c r="D19" t="str">
+        <v>26</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F19" t="str">
+        <v>+88017110825322222</v>
+      </c>
+      <c r="H19" t="str">
+        <v>ehamio@gmail.com</v>
+      </c>
+      <c r="I19" t="str">
+        <v>FANa</v>
+      </c>
+      <c r="J19" t="str">
+        <v>MONa</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Address</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Address</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Address</v>
+      </c>
+      <c r="N19" t="str">
+        <v>Address</v>
+      </c>
+      <c r="O19" t="str">
+        <v>Address</v>
+      </c>
+      <c r="P19" t="str">
+        <v>Address</v>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v>zaman.sarker</v>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v>B-</v>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v>IT</v>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA19" t="str">
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <v>alksflasjdl</v>
+      </c>
+      <c r="AC19" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855805/saeb0mezfc6673g7piv0.jpg</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Full Name</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Nick Name</v>
+      </c>
+      <c r="C20" t="str">
+        <v>History</v>
+      </c>
+      <c r="D20" t="str">
+        <v>27</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F20" t="str">
+        <v>+8801789237474747</v>
+      </c>
+      <c r="H20" t="str">
+        <v>aeaill@mail.com</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Father's Name</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Mother's Name</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Street Address</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Street Address 02</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Uploza</v>
+      </c>
+      <c r="N20" t="str">
+        <v>1230</v>
+      </c>
+      <c r="O20" t="str">
+        <v>State</v>
+      </c>
+      <c r="P20" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>Emergency Contract</v>
+      </c>
+      <c r="R20" t="str">
+        <v>zaman.sarker</v>
+      </c>
+      <c r="S20" t="str">
+        <v>1990-07-24</v>
+      </c>
+      <c r="T20" t="str">
+        <v>Bangladeshi</v>
+      </c>
+      <c r="U20" t="str">
+        <v>A+</v>
+      </c>
+      <c r="V20" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W20" t="str">
+        <v xml:space="preserve">IT </v>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str" xml:space="preserve">
         <v xml:space="preserve">Wish Box _x000d_
 I wish I can Join_x000d_
 Let's Play a Game</v>
       </c>
-      <c r="AC18" t="str">
+      <c r="AC20" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855385/qrz2ldgqf8flhvmsygtv.jpg</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v xml:space="preserve">Sheakh Mohammad Nooruzzaman </v>
-      </c>
-      <c r="B19" t="str">
-        <v xml:space="preserve">Zaman </v>
-      </c>
-      <c r="C19" t="str">
-        <v>Chemistry</v>
-      </c>
-      <c r="D19" t="str">
-        <v>20</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
-      </c>
-      <c r="F19" t="str">
-        <v>+8801712724015</v>
-      </c>
-      <c r="H19" t="str">
-        <v>mdzaman.ju@ gmail.com</v>
-      </c>
-      <c r="I19" t="str">
-        <v>Md. Moksed sk.</v>
-      </c>
-      <c r="J19" t="str">
-        <v>Misa. Sahera Begum</v>
-      </c>
-      <c r="K19" t="str">
-        <v>Vill- Halda,Post - Naldi,Upazila - Lohagara,</v>
-      </c>
-      <c r="L19" t="str">
-        <v>Uttara Dhaka</v>
-      </c>
-      <c r="M19" t="str">
-        <v>Dhaka</v>
-      </c>
-      <c r="N19" t="str">
-        <v>7513</v>
-      </c>
-      <c r="O19" t="str">
-        <v>Narail</v>
-      </c>
-      <c r="P19" t="str">
-        <v xml:space="preserve">Bangladesh </v>
-      </c>
-      <c r="Q19" t="str">
-        <v>01731314225</v>
-      </c>
-      <c r="R19" t="str">
-        <v xml:space="preserve">md Zaman </v>
-      </c>
-      <c r="S19" t="str">
-        <v/>
-      </c>
-      <c r="T19" t="str">
-        <v xml:space="preserve">Bangladeshi </v>
-      </c>
-      <c r="U19" t="str">
-        <v>B-</v>
-      </c>
-      <c r="V19" t="str">
-        <v>Islam</v>
-      </c>
-      <c r="W19" t="str">
-        <v xml:space="preserve">Business </v>
-      </c>
-      <c r="X19" t="str">
-        <v xml:space="preserve">Proprietor </v>
-      </c>
-      <c r="Y19" t="str">
-        <v>Agro Vangla Meat</v>
-      </c>
-      <c r="Z19" t="str">
-        <v>MARRIED</v>
-      </c>
-      <c r="AA19" t="str">
-        <v>419</v>
-      </c>
-      <c r="AB19" t="str">
-        <v xml:space="preserve">Research and Study for well-being </v>
-      </c>
-      <c r="AC19" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655836036/facz7rpgqrerxsf6tml3.jpg</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Cccccc</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Ddddf</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Philosophy</v>
-      </c>
-      <c r="D20" t="str">
-        <v>27</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Faculty of Humaninities</v>
-      </c>
-      <c r="F20" t="str">
-        <v>+880744455522222</v>
-      </c>
-      <c r="H20" t="str">
-        <v>Endddddd@gmail.com</v>
-      </c>
-      <c r="I20" t="str">
-        <v>Father's Love pooo</v>
-      </c>
-      <c r="J20" t="str">
-        <v xml:space="preserve">Mother's birthday </v>
-      </c>
-      <c r="K20" t="str">
-        <v>Street ass</v>
-      </c>
-      <c r="L20" t="str">
-        <v>Ddddff</v>
-      </c>
-      <c r="M20" t="str">
-        <v>Ggggggg</v>
-      </c>
-      <c r="N20" t="str">
-        <v>4566</v>
-      </c>
-      <c r="O20" t="str">
-        <v>Ggggg</v>
-      </c>
-      <c r="P20" t="str">
-        <v xml:space="preserve">Bangladesh </v>
-      </c>
-      <c r="Q20" t="str">
-        <v>088766555445</v>
-      </c>
-      <c r="R20" t="str">
-        <v>Zaman</v>
-      </c>
-      <c r="S20" t="str">
-        <v>1965-06-10</v>
-      </c>
-      <c r="T20" t="str">
-        <v>Bangladesh nnn</v>
-      </c>
-      <c r="U20" t="str">
-        <v>B+</v>
-      </c>
-      <c r="V20" t="str">
-        <v>Islamkkkkk</v>
-      </c>
-      <c r="W20" t="str">
-        <v>Tyyyy</v>
-      </c>
-      <c r="X20" t="str">
-        <v/>
-      </c>
-      <c r="Y20" t="str">
-        <v/>
-      </c>
-      <c r="Z20" t="str">
-        <v>MARRIED</v>
-      </c>
-      <c r="AA20" t="str">
-        <v/>
-      </c>
-      <c r="AB20" t="str">
-        <v>Ghjjjjj</v>
-      </c>
-      <c r="AC20" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655832553/vlp78nlkmfcxp3h8n21r.jpg</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Moni</v>
+        <v xml:space="preserve">Sheakh Mohammad Nooruzzaman </v>
       </c>
       <c r="B21" t="str">
-        <v>Moni</v>
+        <v xml:space="preserve">Zaman </v>
       </c>
       <c r="C21" t="str">
-        <v>Physics</v>
+        <v>Chemistry</v>
       </c>
       <c r="D21" t="str">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E21" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F21" t="str">
-        <v>+8801711092634</v>
+        <v>+8801712724015</v>
       </c>
       <c r="H21" t="str">
-        <v>moni@gmail.com</v>
+        <v>mdzaman.ju@ gmail.com</v>
       </c>
       <c r="I21" t="str">
-        <v>father</v>
+        <v>Md. Moksed sk.</v>
       </c>
       <c r="J21" t="str">
-        <v>mother</v>
+        <v>Misa. Sahera Begum</v>
       </c>
       <c r="K21" t="str">
-        <v>street address 01</v>
+        <v>Vill- Halda,Post - Naldi,Upazila - Lohagara,</v>
       </c>
       <c r="L21" t="str">
-        <v>street address 02</v>
+        <v>Uttara Dhaka</v>
       </c>
       <c r="M21" t="str">
-        <v>City/Upazilla</v>
+        <v>Dhaka</v>
       </c>
       <c r="N21" t="str">
-        <v>Zip Code</v>
+        <v>7513</v>
       </c>
       <c r="O21" t="str">
-        <v>Stat/Province</v>
+        <v>Narail</v>
       </c>
       <c r="P21" t="str">
-        <v>Country</v>
+        <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q21" t="str">
-        <v>0330303030</v>
+        <v>01731314225</v>
       </c>
       <c r="R21" t="str">
-        <v>moni.zaman</v>
+        <v xml:space="preserve">md Zaman </v>
       </c>
       <c r="S21" t="str">
-        <v>2222-11-22</v>
+        <v/>
       </c>
       <c r="T21" t="str">
-        <v>Bangladeshi</v>
+        <v xml:space="preserve">Bangladeshi </v>
       </c>
       <c r="U21" t="str">
-        <v>A-</v>
+        <v>B-</v>
       </c>
       <c r="V21" t="str">
         <v>Islam</v>
       </c>
       <c r="W21" t="str">
-        <v>Student</v>
+        <v xml:space="preserve">Business </v>
       </c>
       <c r="X21" t="str">
-        <v/>
+        <v xml:space="preserve">Proprietor </v>
       </c>
       <c r="Y21" t="str">
-        <v/>
+        <v>Agro Vangla Meat</v>
       </c>
       <c r="Z21" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA21" t="str">
-        <v/>
+        <v>419</v>
       </c>
       <c r="AB21" t="str">
-        <v>Wish Box</v>
+        <v xml:space="preserve">Research and Study for well-being </v>
       </c>
       <c r="AC21" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655747057/fbzmspo5my5a2kxz8d1p.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655836036/facz7rpgqrerxsf6tml3.jpg</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Carol Parker</v>
+        <v>Cccccc</v>
       </c>
       <c r="B22" t="str">
-        <v>a</v>
+        <v>Ddddf</v>
       </c>
       <c r="C22" t="str">
-        <v>Chemistry</v>
+        <v>Philosophy</v>
       </c>
       <c r="D22" t="str">
         <v>27</v>
       </c>
       <c r="E22" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F22" t="str">
-        <v>+6331</v>
+        <v>+880744455522222</v>
       </c>
       <c r="H22" t="str">
-        <v>13</v>
+        <v>Endddddd@gmail.com</v>
       </c>
       <c r="I22" t="str">
-        <v>11</v>
+        <v>Father's Love pooo</v>
       </c>
       <c r="J22" t="str">
-        <v>1</v>
+        <v xml:space="preserve">Mother's birthday </v>
       </c>
       <c r="K22" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>Street ass</v>
       </c>
       <c r="L22" t="str">
-        <v>1</v>
+        <v>Ddddff</v>
       </c>
       <c r="M22" t="str">
-        <v>Himamaylan</v>
+        <v>Ggggggg</v>
       </c>
       <c r="N22" t="str">
-        <v>5189</v>
+        <v>4566</v>
       </c>
       <c r="O22" t="str">
-        <v>1</v>
+        <v>Ggggg</v>
       </c>
       <c r="P22" t="str">
-        <v>Philippines</v>
+        <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q22" t="str">
-        <v>1</v>
+        <v>088766555445</v>
       </c>
       <c r="R22" t="str">
-        <v>1</v>
+        <v>Zaman</v>
       </c>
       <c r="S22" t="str">
-        <v>2022-06-09</v>
+        <v>1965-06-10</v>
       </c>
       <c r="T22" t="str">
-        <v>Nationality</v>
+        <v>Bangladesh nnn</v>
       </c>
       <c r="U22" t="str">
         <v>B+</v>
       </c>
       <c r="V22" t="str">
-        <v>Religion</v>
+        <v>Islamkkkkk</v>
       </c>
       <c r="W22" t="str">
-        <v>1</v>
+        <v>Tyyyy</v>
       </c>
       <c r="X22" t="str">
         <v/>
@@ -2293,66 +2293,69 @@
         <v/>
       </c>
       <c r="AB22" t="str">
-        <v>1</v>
+        <v>Ghjjjjj</v>
       </c>
       <c r="AC22" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655745223/o3q3g3avqc14r91uokhs.jpg</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655832553/vlp78nlkmfcxp3h8n21r.jpg</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="str">
-        <v>zaman</v>
+        <v>Moni</v>
       </c>
       <c r="B23" t="str">
-        <v>Sarker</v>
+        <v>Moni</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Physics</v>
       </c>
       <c r="D23" t="str">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E23" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F23" t="str">
-        <v>+8801711082532</v>
+        <v>+8801711092634</v>
       </c>
       <c r="H23" t="str">
-        <v>stezaman@gmail.com</v>
+        <v>moni@gmail.com</v>
       </c>
       <c r="I23" t="str">
-        <v>Zaman</v>
+        <v>father</v>
       </c>
       <c r="J23" t="str">
-        <v>sarker</v>
+        <v>mother</v>
       </c>
       <c r="K23" t="str">
-        <v>Street Address Line 01</v>
+        <v>street address 01</v>
       </c>
       <c r="L23" t="str">
-        <v>Street Address Line 02</v>
+        <v>street address 02</v>
       </c>
       <c r="M23" t="str">
-        <v>Rangpur Sadar</v>
+        <v>City/Upazilla</v>
       </c>
       <c r="N23" t="str">
-        <v>1203</v>
+        <v>Zip Code</v>
       </c>
       <c r="O23" t="str">
-        <v>Rangpur</v>
+        <v>Stat/Province</v>
       </c>
       <c r="P23" t="str">
-        <v>Bngladesh</v>
+        <v>Country</v>
       </c>
       <c r="Q23" t="str">
-        <v>01711082532</v>
+        <v>0330303030</v>
       </c>
       <c r="R23" t="str">
-        <v>zaman.sarker</v>
+        <v>moni.zaman</v>
       </c>
       <c r="S23" t="str">
-        <v>1975-11-20</v>
+        <v>2222-11-22</v>
       </c>
       <c r="T23" t="str">
-        <v>Banlgadesh</v>
+        <v>Bangladeshi</v>
       </c>
       <c r="U23" t="str">
         <v>A-</v>
@@ -2361,7 +2364,7 @@
         <v>Islam</v>
       </c>
       <c r="W23" t="str">
-        <v>IT Bangla</v>
+        <v>Student</v>
       </c>
       <c r="X23" t="str">
         <v/>
@@ -2373,750 +2376,919 @@
         <v>MARRIED</v>
       </c>
       <c r="AA23" t="str">
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <v>Wish Box</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655747057/fbzmspo5my5a2kxz8d1p.png</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Carol Parker</v>
+      </c>
+      <c r="B24" t="str">
+        <v>a</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Chemistry</v>
+      </c>
+      <c r="D24" t="str">
+        <v>27</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F24" t="str">
+        <v>+6331</v>
+      </c>
+      <c r="H24" t="str">
+        <v>13</v>
+      </c>
+      <c r="I24" t="str">
+        <v>11</v>
+      </c>
+      <c r="J24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <v>21A Altenwerth Passage Suite 295</v>
+      </c>
+      <c r="L24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Himamaylan</v>
+      </c>
+      <c r="N24" t="str">
+        <v>5189</v>
+      </c>
+      <c r="O24" t="str">
+        <v>1</v>
+      </c>
+      <c r="P24" t="str">
+        <v>Philippines</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>1</v>
+      </c>
+      <c r="R24" t="str">
+        <v>1</v>
+      </c>
+      <c r="S24" t="str">
+        <v>2022-06-09</v>
+      </c>
+      <c r="T24" t="str">
+        <v>Nationality</v>
+      </c>
+      <c r="U24" t="str">
+        <v>B+</v>
+      </c>
+      <c r="V24" t="str">
+        <v>Religion</v>
+      </c>
+      <c r="W24" t="str">
+        <v>1</v>
+      </c>
+      <c r="X24" t="str">
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA24" t="str">
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655745223/o3q3g3avqc14r91uokhs.jpg</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>zaman</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Sarker</v>
+      </c>
+      <c r="D25" t="str">
+        <v>24</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F25" t="str">
+        <v>+8801711082532</v>
+      </c>
+      <c r="H25" t="str">
+        <v>stezaman@gmail.com</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Zaman</v>
+      </c>
+      <c r="J25" t="str">
+        <v>sarker</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Street Address Line 01</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Street Address Line 02</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Rangpur Sadar</v>
+      </c>
+      <c r="N25" t="str">
+        <v>1203</v>
+      </c>
+      <c r="O25" t="str">
+        <v>Rangpur</v>
+      </c>
+      <c r="P25" t="str">
+        <v>Bngladesh</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>01711082532</v>
+      </c>
+      <c r="R25" t="str">
+        <v>zaman.sarker</v>
+      </c>
+      <c r="S25" t="str">
+        <v>1975-11-20</v>
+      </c>
+      <c r="T25" t="str">
+        <v>Banlgadesh</v>
+      </c>
+      <c r="U25" t="str">
+        <v>A-</v>
+      </c>
+      <c r="V25" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W25" t="str">
+        <v>IT Bangla</v>
+      </c>
+      <c r="X25" t="str">
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA25" t="str">
         <v>233, 222</v>
       </c>
-      <c r="AB23" t="str" xml:space="preserve">
+      <c r="AB25" t="str" xml:space="preserve">
         <v xml:space="preserve">Wish Box _x000d_
 Wish Box 02_x000d_
 With Box 03_x000d_
 Wish Box 04</v>
       </c>
-      <c r="AC23" t="str">
+      <c r="AC25" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655520984/v3nw0ahxlmvvvgpo9z3n.jpg</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
+    <row r="26">
+      <c r="A26" t="str">
         <v>Md. Chaliqur Rahaman</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B26" t="str">
         <v>Chaliqur</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D26" t="str">
         <v>27</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
-      </c>
-      <c r="F24" t="str">
-        <v>+8801722234533</v>
-      </c>
-      <c r="H24" t="str">
-        <v>chaliqur@gmail.com</v>
-      </c>
-      <c r="I24" t="str">
-        <v>A</v>
-      </c>
-      <c r="J24" t="str">
-        <v>B</v>
-      </c>
-      <c r="K24" t="str">
-        <v>BG</v>
-      </c>
-      <c r="L24" t="str">
-        <v/>
-      </c>
-      <c r="M24" t="str">
-        <v>Ffg</v>
-      </c>
-      <c r="N24" t="str">
-        <v>22e</v>
-      </c>
-      <c r="O24" t="str">
-        <v>Fgg</v>
-      </c>
-      <c r="P24" t="str">
-        <v>B</v>
-      </c>
-      <c r="Q24" t="str">
-        <v/>
-      </c>
-      <c r="R24" t="str">
-        <v/>
-      </c>
-      <c r="S24" t="str">
-        <v/>
-      </c>
-      <c r="T24" t="str">
-        <v/>
-      </c>
-      <c r="U24" t="str">
-        <v>O+</v>
-      </c>
-      <c r="V24" t="str">
-        <v/>
-      </c>
-      <c r="W24" t="str">
-        <v>Ser</v>
-      </c>
-      <c r="X24" t="str">
-        <v>Fgg</v>
-      </c>
-      <c r="Y24" t="str">
-        <v/>
-      </c>
-      <c r="Z24" t="str">
-        <v>MARRIED</v>
-      </c>
-      <c r="AA24" t="str">
-        <v/>
-      </c>
-      <c r="AB24" t="str">
-        <v>Gg</v>
-      </c>
-      <c r="AC24" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655439934/y50fwehdswf0e0symerd.jpg</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Aktaruzzaman shohel</v>
-      </c>
-      <c r="B25" t="str">
-        <v>shohel</v>
-      </c>
-      <c r="D25" t="str">
-        <v>42</v>
-      </c>
-      <c r="E25" t="str">
-        <v>Faculty of Biology</v>
-      </c>
-      <c r="F25" t="str">
-        <v>+8801723909939</v>
-      </c>
-      <c r="H25" t="str">
-        <v>shohelzaman303@gmail.com</v>
-      </c>
-      <c r="I25" t="str">
-        <v>Md.Abdul aziz</v>
-      </c>
-      <c r="J25" t="str">
-        <v>mst.kohinur begom</v>
-      </c>
-      <c r="K25" t="str">
-        <v>nageswari</v>
-      </c>
-      <c r="L25" t="str">
-        <v>kurigram</v>
-      </c>
-      <c r="M25" t="str">
-        <v>nageswari</v>
-      </c>
-      <c r="N25" t="str">
-        <v>620</v>
-      </c>
-      <c r="O25" t="str">
-        <v>kurigram</v>
-      </c>
-      <c r="P25" t="str">
-        <v xml:space="preserve">Bangladesh </v>
-      </c>
-      <c r="Q25" t="str">
-        <v>01750619592</v>
-      </c>
-      <c r="R25" t="str">
-        <v>aktaruzzaman shohel</v>
-      </c>
-      <c r="S25" t="str">
-        <v>1994-05-01</v>
-      </c>
-      <c r="T25" t="str">
-        <v xml:space="preserve">Bangladeshi </v>
-      </c>
-      <c r="U25" t="str">
-        <v>A+</v>
-      </c>
-      <c r="V25" t="str">
-        <v>islam</v>
-      </c>
-      <c r="W25" t="str">
-        <v>Student</v>
-      </c>
-      <c r="X25" t="str">
-        <v>president ju bsl</v>
-      </c>
-      <c r="Y25" t="str">
-        <v/>
-      </c>
-      <c r="Z25" t="str">
-        <v>UNMARRIED</v>
-      </c>
-      <c r="AA25" t="str">
-        <v>322</v>
-      </c>
-      <c r="AB25" t="str">
-        <v xml:space="preserve">best wishes </v>
-      </c>
-      <c r="AC25" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655397113/drn5mqaxxqifsa47gbnc.jpg</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>zmana</v>
-      </c>
-      <c r="B26" t="str">
-        <v>sar</v>
-      </c>
-      <c r="D26" t="str">
-        <v>24</v>
       </c>
       <c r="E26" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F26" t="str">
-        <v>+8801711082532</v>
+        <v>+8801722234533</v>
       </c>
       <c r="H26" t="str">
-        <v>stezaman@gmail.com</v>
+        <v>chaliqur@gmail.com</v>
       </c>
       <c r="I26" t="str">
-        <v>Fathers Name</v>
+        <v>A</v>
       </c>
       <c r="J26" t="str">
-        <v>MOthers Name</v>
+        <v>B</v>
       </c>
       <c r="K26" t="str">
-        <v>Street Addres 01</v>
+        <v>BG</v>
       </c>
       <c r="L26" t="str">
-        <v>Street Address 02</v>
+        <v/>
       </c>
       <c r="M26" t="str">
-        <v>Rangpur Sadar</v>
+        <v>Ffg</v>
       </c>
       <c r="N26" t="str">
-        <v>1203</v>
+        <v>22e</v>
       </c>
       <c r="O26" t="str">
-        <v>Rangpur</v>
+        <v>Fgg</v>
       </c>
       <c r="P26" t="str">
-        <v>Bangladesh</v>
+        <v>B</v>
       </c>
       <c r="Q26" t="str">
-        <v>0330303030</v>
+        <v/>
       </c>
       <c r="R26" t="str">
-        <v>https://www.facebook.com/shamsuzzaman.sarkar</v>
+        <v/>
       </c>
       <c r="S26" t="str">
-        <v>1975-11-20</v>
+        <v/>
       </c>
       <c r="T26" t="str">
-        <v>Bangladeshi</v>
+        <v/>
       </c>
       <c r="U26" t="str">
-        <v>B+</v>
+        <v>O+</v>
       </c>
       <c r="V26" t="str">
-        <v>Islam</v>
+        <v/>
       </c>
       <c r="W26" t="str">
-        <v>IT Professional</v>
+        <v>Ser</v>
       </c>
       <c r="X26" t="str">
-        <v>daljkdalj</v>
+        <v>Fgg</v>
       </c>
       <c r="Y26" t="str">
-        <v>dsljsdfakljfkla</v>
+        <v/>
       </c>
       <c r="Z26" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA26" t="str">
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <v>Gg</v>
+      </c>
+      <c r="AC26" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655439934/y50fwehdswf0e0symerd.jpg</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Aktaruzzaman shohel</v>
+      </c>
+      <c r="B27" t="str">
+        <v>shohel</v>
+      </c>
+      <c r="D27" t="str">
+        <v>42</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Faculty of Biology</v>
+      </c>
+      <c r="F27" t="str">
+        <v>+8801723909939</v>
+      </c>
+      <c r="H27" t="str">
+        <v>shohelzaman303@gmail.com</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Md.Abdul aziz</v>
+      </c>
+      <c r="J27" t="str">
+        <v>mst.kohinur begom</v>
+      </c>
+      <c r="K27" t="str">
+        <v>nageswari</v>
+      </c>
+      <c r="L27" t="str">
+        <v>kurigram</v>
+      </c>
+      <c r="M27" t="str">
+        <v>nageswari</v>
+      </c>
+      <c r="N27" t="str">
+        <v>620</v>
+      </c>
+      <c r="O27" t="str">
+        <v>kurigram</v>
+      </c>
+      <c r="P27" t="str">
+        <v xml:space="preserve">Bangladesh </v>
+      </c>
+      <c r="Q27" t="str">
+        <v>01750619592</v>
+      </c>
+      <c r="R27" t="str">
+        <v>aktaruzzaman shohel</v>
+      </c>
+      <c r="S27" t="str">
+        <v>1994-05-01</v>
+      </c>
+      <c r="T27" t="str">
+        <v xml:space="preserve">Bangladeshi </v>
+      </c>
+      <c r="U27" t="str">
+        <v>A+</v>
+      </c>
+      <c r="V27" t="str">
+        <v>islam</v>
+      </c>
+      <c r="W27" t="str">
+        <v>Student</v>
+      </c>
+      <c r="X27" t="str">
+        <v>president ju bsl</v>
+      </c>
+      <c r="Y27" t="str">
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <v>UNMARRIED</v>
+      </c>
+      <c r="AA27" t="str">
+        <v>322</v>
+      </c>
+      <c r="AB27" t="str">
+        <v xml:space="preserve">best wishes </v>
+      </c>
+      <c r="AC27" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655397113/drn5mqaxxqifsa47gbnc.jpg</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>zmana</v>
+      </c>
+      <c r="B28" t="str">
+        <v>sar</v>
+      </c>
+      <c r="D28" t="str">
+        <v>24</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F28" t="str">
+        <v>+8801711082532</v>
+      </c>
+      <c r="H28" t="str">
+        <v>stezaman@gmail.com</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Fathers Name</v>
+      </c>
+      <c r="J28" t="str">
+        <v>MOthers Name</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Street Addres 01</v>
+      </c>
+      <c r="L28" t="str">
+        <v>Street Address 02</v>
+      </c>
+      <c r="M28" t="str">
+        <v>Rangpur Sadar</v>
+      </c>
+      <c r="N28" t="str">
+        <v>1203</v>
+      </c>
+      <c r="O28" t="str">
+        <v>Rangpur</v>
+      </c>
+      <c r="P28" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>0330303030</v>
+      </c>
+      <c r="R28" t="str">
+        <v>https://www.facebook.com/shamsuzzaman.sarkar</v>
+      </c>
+      <c r="S28" t="str">
+        <v>1975-11-20</v>
+      </c>
+      <c r="T28" t="str">
+        <v>Bangladeshi</v>
+      </c>
+      <c r="U28" t="str">
+        <v>B+</v>
+      </c>
+      <c r="V28" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W28" t="str">
+        <v>IT Professional</v>
+      </c>
+      <c r="X28" t="str">
+        <v>daljkdalj</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>dsljsdfakljfkla</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA28" t="str">
         <v>ljlajfsdljlkjafl</v>
       </c>
-      <c r="AB26" t="str" xml:space="preserve">
+      <c r="AB28" t="str" xml:space="preserve">
         <v xml:space="preserve">asklfjaslfjl_x000d_
 _x000d_
 111111111111_x000d_
 _x000d_
 arafaljflajsdfljasdlfj</v>
       </c>
-      <c r="AC26" t="str">
+      <c r="AC28" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655395188/tn1kiqak83vjv5form9h.jpg</v>
       </c>
     </row>
-    <row r="27" xml:space="preserve">
-      <c r="A27" t="str">
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
         <v>Zaman</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B29" t="str">
         <v>Sarkr</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D29" t="str">
         <v>26</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E29" t="str">
         <v>Faculty of Humaninities</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F29" t="str">
         <v>+8801711082535</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H29" t="str">
         <v>stezaman@gmail.com</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I29" t="str">
         <v>Thgg</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J29" t="str">
         <v>Vvgg</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K29" t="str">
         <v>Ggggh</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L29" t="str">
         <v>Hbhhh</v>
       </c>
-      <c r="M27" t="str">
+      <c r="M29" t="str">
         <v>Vvgg</v>
       </c>
-      <c r="N27" t="str">
+      <c r="N29" t="str">
         <v>Eedr</v>
       </c>
-      <c r="O27" t="str">
+      <c r="O29" t="str">
         <v>Ffff</v>
       </c>
-      <c r="P27" t="str">
+      <c r="P29" t="str">
         <v>Bang</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="Q29" t="str">
         <v>0171108354_</v>
       </c>
-      <c r="R27" t="str">
+      <c r="R29" t="str">
         <v>ZamanSarker</v>
       </c>
-      <c r="S27" t="str">
+      <c r="S29" t="str">
         <v>2022-06-08</v>
       </c>
-      <c r="T27" t="str">
-        <v/>
-      </c>
-      <c r="U27" t="str">
+      <c r="T29" t="str">
+        <v/>
+      </c>
+      <c r="U29" t="str">
         <v>A-</v>
       </c>
-      <c r="V27" t="str">
-        <v/>
-      </c>
-      <c r="W27" t="str">
+      <c r="V29" t="str">
+        <v/>
+      </c>
+      <c r="W29" t="str">
         <v>Yyyyy</v>
       </c>
-      <c r="X27" t="str">
-        <v/>
-      </c>
-      <c r="Y27" t="str">
-        <v/>
-      </c>
-      <c r="Z27" t="str">
+      <c r="X29" t="str">
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <v/>
+      </c>
+      <c r="Z29" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA27" t="str">
+      <c r="AA29" t="str">
         <v>123, 233</v>
       </c>
-      <c r="AB27" t="str" xml:space="preserve">
+      <c r="AB29" t="str" xml:space="preserve">
         <v xml:space="preserve">My wish_x000d_
 My work_x000d_
 My job</v>
       </c>
-      <c r="AC27" t="str">
+      <c r="AC29" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655364279/jnevxcc1knkgyghn3cux.jpg</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>SHAMIM AL MAMUN</v>
-      </c>
-      <c r="B28" t="str">
-        <v>SHAMIM</v>
-      </c>
-      <c r="D28" t="str">
-        <v>27</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
-      </c>
-      <c r="F28" t="str">
-        <v>+8801783567890</v>
-      </c>
-      <c r="H28" t="str">
-        <v>shamim@juniv.edu</v>
-      </c>
-      <c r="I28" t="str">
-        <v>MOHAMMAD ABDUL BARI</v>
-      </c>
-      <c r="J28" t="str">
-        <v>KAUD BANU</v>
-      </c>
-      <c r="K28" t="str">
-        <v>250, FLAT#7B, ROAD#8, BLOCK#C</v>
-      </c>
-      <c r="L28" t="str">
-        <v>KHILGOAN</v>
-      </c>
-      <c r="M28" t="str">
-        <v>KHILGOAN</v>
-      </c>
-      <c r="N28" t="str">
-        <v>1219</v>
-      </c>
-      <c r="O28" t="str">
-        <v>DHAKA</v>
-      </c>
-      <c r="P28" t="str">
-        <v>BANGLADESH</v>
-      </c>
-      <c r="Q28" t="str">
-        <v/>
-      </c>
-      <c r="R28" t="str">
-        <v>shamimalmamun.ju</v>
-      </c>
-      <c r="S28" t="str">
-        <v>1980-08-15</v>
-      </c>
-      <c r="T28" t="str">
-        <v>BANGLADESH</v>
-      </c>
-      <c r="U28" t="str">
-        <v>O+</v>
-      </c>
-      <c r="V28" t="str">
-        <v>ISLAM</v>
-      </c>
-      <c r="W28" t="str">
-        <v>UNIVERSITY TEACHING</v>
-      </c>
-      <c r="X28" t="str">
-        <v>ASSOCIATE PROFESSOR</v>
-      </c>
-      <c r="Y28" t="str">
-        <v>IIT, JAHANGIRNAGAR UNIVERSITY</v>
-      </c>
-      <c r="Z28" t="str">
-        <v>MARRIED</v>
-      </c>
-      <c r="AA28" t="str">
-        <v>426</v>
-      </c>
-      <c r="AB28" t="str">
-        <v>Wishing a successful and smart event.</v>
-      </c>
-      <c r="AC28" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655362988/e2kdsvr4cfrtqy63xm7d.jpg</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>a</v>
-      </c>
-      <c r="B29" t="str">
-        <v>a</v>
-      </c>
-      <c r="D29" t="str">
-        <v>26</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
-      </c>
-      <c r="F29" t="str">
-        <v>+8801794807755</v>
-      </c>
-      <c r="H29" t="str">
-        <v/>
-      </c>
-      <c r="I29" t="str">
-        <v>a</v>
-      </c>
-      <c r="J29" t="str">
-        <v>a</v>
-      </c>
-      <c r="K29" t="str">
-        <v>a</v>
-      </c>
-      <c r="L29" t="str">
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <v>a</v>
-      </c>
-      <c r="N29" t="str">
-        <v>a</v>
-      </c>
-      <c r="O29" t="str">
-        <v>a</v>
-      </c>
-      <c r="P29" t="str">
-        <v>a</v>
-      </c>
-      <c r="Q29" t="str">
-        <v/>
-      </c>
-      <c r="R29" t="str">
-        <v/>
-      </c>
-      <c r="S29" t="str">
-        <v/>
-      </c>
-      <c r="T29" t="str">
-        <v/>
-      </c>
-      <c r="U29" t="str">
-        <v>O-</v>
-      </c>
-      <c r="V29" t="str">
-        <v/>
-      </c>
-      <c r="W29" t="str">
-        <v>a</v>
-      </c>
-      <c r="X29" t="str">
-        <v/>
-      </c>
-      <c r="Y29" t="str">
-        <v/>
-      </c>
-      <c r="Z29" t="str">
-        <v>MARRIED</v>
-      </c>
-      <c r="AA29" t="str">
-        <v/>
-      </c>
-      <c r="AB29" t="str">
-        <v>a</v>
-      </c>
-      <c r="AC29" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655353376/v0le4vrpp2mjvoyhreym.jpg</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Md. Shamsuzzaman Sarker</v>
+        <v>SHAMIM AL MAMUN</v>
       </c>
       <c r="B30" t="str">
-        <v>Milon</v>
+        <v>SHAMIM</v>
       </c>
       <c r="D30" t="str">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F30" t="str">
-        <v>+88017110282737</v>
+        <v>+8801783567890</v>
       </c>
       <c r="H30" t="str">
-        <v>stezaman@gmail.com</v>
+        <v>shamim@juniv.edu</v>
       </c>
       <c r="I30" t="str">
-        <v>Zaman Sarker</v>
+        <v>MOHAMMAD ABDUL BARI</v>
       </c>
       <c r="J30" t="str">
-        <v>Nahar</v>
+        <v>KAUD BANU</v>
       </c>
       <c r="K30" t="str">
-        <v>New Adarsha Para, College Road</v>
+        <v>250, FLAT#7B, ROAD#8, BLOCK#C</v>
       </c>
       <c r="L30" t="str">
-        <v>Alamnagar, College Road</v>
+        <v>KHILGOAN</v>
       </c>
       <c r="M30" t="str">
-        <v>Rangpur City</v>
+        <v>KHILGOAN</v>
       </c>
       <c r="N30" t="str">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="O30" t="str">
-        <v>Rangpur</v>
+        <v>DHAKA</v>
       </c>
       <c r="P30" t="str">
-        <v>Bangladesh</v>
+        <v>BANGLADESH</v>
       </c>
       <c r="Q30" t="str">
-        <v>01811939393</v>
+        <v/>
       </c>
       <c r="R30" t="str">
-        <v>zaman.sarker120</v>
+        <v>shamimalmamun.ju</v>
       </c>
       <c r="S30" t="str">
-        <v>2015-11-20</v>
+        <v>1980-08-15</v>
       </c>
       <c r="T30" t="str">
-        <v>Bangladeshi</v>
+        <v>BANGLADESH</v>
       </c>
       <c r="U30" t="str">
-        <v>A+</v>
+        <v>O+</v>
       </c>
       <c r="V30" t="str">
-        <v>Islam</v>
+        <v>ISLAM</v>
       </c>
       <c r="W30" t="str">
-        <v xml:space="preserve">IT Professional </v>
+        <v>UNIVERSITY TEACHING</v>
       </c>
       <c r="X30" t="str">
-        <v>Consultant</v>
+        <v>ASSOCIATE PROFESSOR</v>
       </c>
       <c r="Y30" t="str">
-        <v>TechSimple ICT</v>
+        <v>IIT, JAHANGIRNAGAR UNIVERSITY</v>
       </c>
       <c r="Z30" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA30" t="str">
-        <v>212, 202</v>
+        <v>426</v>
       </c>
       <c r="AB30" t="str">
-        <v>Happy Data Submission</v>
+        <v>Wishing a successful and smart event.</v>
       </c>
       <c r="AC30" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655289556/uxxjsetiiqs9awaonluc.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655362988/e2kdsvr4cfrtqy63xm7d.jpg</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Full Name</v>
+        <v>a</v>
       </c>
       <c r="B31" t="str">
-        <v>NickName</v>
+        <v>a</v>
       </c>
       <c r="D31" t="str">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F31" t="str">
-        <v>+8801794807577</v>
+        <v>+8801794807755</v>
       </c>
       <c r="H31" t="str">
-        <v>email</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v>F Name</v>
+        <v>a</v>
       </c>
       <c r="J31" t="str">
-        <v>M Name</v>
+        <v>a</v>
       </c>
       <c r="K31" t="str">
-        <v>address</v>
+        <v>a</v>
       </c>
       <c r="L31" t="str">
-        <v>adress 2</v>
+        <v/>
       </c>
       <c r="M31" t="str">
-        <v>city</v>
+        <v>a</v>
       </c>
       <c r="N31" t="str">
-        <v>zip</v>
+        <v>a</v>
       </c>
       <c r="O31" t="str">
-        <v>state</v>
+        <v>a</v>
       </c>
       <c r="P31" t="str">
-        <v>country</v>
+        <v>a</v>
       </c>
       <c r="Q31" t="str">
-        <v>econtact</v>
+        <v/>
       </c>
       <c r="R31" t="str">
-        <v>my fb id</v>
+        <v/>
       </c>
       <c r="S31" t="str">
-        <v>2022-06-16</v>
+        <v/>
       </c>
       <c r="T31" t="str">
-        <v>natinality</v>
+        <v/>
       </c>
       <c r="U31" t="str">
-        <v>O+</v>
+        <v>O-</v>
       </c>
       <c r="V31" t="str">
-        <v>religion</v>
+        <v/>
       </c>
       <c r="W31" t="str">
-        <v>occupation</v>
+        <v>a</v>
       </c>
       <c r="X31" t="str">
-        <v>des</v>
+        <v/>
       </c>
       <c r="Y31" t="str">
-        <v>c name</v>
+        <v/>
       </c>
       <c r="Z31" t="str">
-        <v>UNMARRIED</v>
+        <v>MARRIED</v>
       </c>
       <c r="AA31" t="str">
-        <v>hall</v>
+        <v/>
       </c>
       <c r="AB31" t="str">
-        <v>wishbox</v>
+        <v>a</v>
       </c>
       <c r="AC31" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655288725/i7uhzqvn86jksoyjciju.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655353376/v0le4vrpp2mjvoyhreym.jpg</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Zaman</v>
+        <v>Md. Shamsuzzaman Sarker</v>
       </c>
       <c r="B32" t="str">
-        <v>Sarker</v>
+        <v>Milon</v>
+      </c>
+      <c r="D32" t="str">
+        <v>24</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F32" t="str">
-        <v>01711082532</v>
+        <v>+88017110282737</v>
       </c>
       <c r="H32" t="str">
         <v>stezaman@gmail.com</v>
       </c>
       <c r="I32" t="str">
-        <v>Fathername</v>
+        <v>Zaman Sarker</v>
       </c>
       <c r="J32" t="str">
-        <v>mothername</v>
+        <v>Nahar</v>
+      </c>
+      <c r="K32" t="str">
+        <v>New Adarsha Para, College Road</v>
+      </c>
+      <c r="L32" t="str">
+        <v>Alamnagar, College Road</v>
+      </c>
+      <c r="M32" t="str">
+        <v>Rangpur City</v>
+      </c>
+      <c r="N32" t="str">
+        <v>1207</v>
+      </c>
+      <c r="O32" t="str">
+        <v>Rangpur</v>
+      </c>
+      <c r="P32" t="str">
+        <v>Bangladesh</v>
       </c>
       <c r="Q32" t="str">
-        <v>0294949499</v>
+        <v>01811939393</v>
       </c>
       <c r="R32" t="str">
-        <v/>
+        <v>zaman.sarker120</v>
       </c>
       <c r="S32" t="str">
-        <v>2022-06-08</v>
+        <v>2015-11-20</v>
       </c>
       <c r="T32" t="str">
-        <v>bangladeshi</v>
+        <v>Bangladeshi</v>
       </c>
       <c r="U32" t="str">
-        <v>O-</v>
+        <v>A+</v>
       </c>
       <c r="V32" t="str">
-        <v>s\\</v>
+        <v>Islam</v>
       </c>
       <c r="W32" t="str">
-        <v>flaskdjflj</v>
+        <v xml:space="preserve">IT Professional </v>
       </c>
       <c r="X32" t="str">
-        <v>sljasdljf</v>
+        <v>Consultant</v>
       </c>
       <c r="Y32" t="str">
-        <v>saljdklaj</v>
+        <v>TechSimple ICT</v>
       </c>
       <c r="Z32" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA32" t="str">
+        <v>212, 202</v>
+      </c>
+      <c r="AB32" t="str">
+        <v>Happy Data Submission</v>
+      </c>
+      <c r="AC32" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655289556/uxxjsetiiqs9awaonluc.jpg</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Full Name</v>
+      </c>
+      <c r="B33" t="str">
+        <v>NickName</v>
+      </c>
+      <c r="D33" t="str">
+        <v>28</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F33" t="str">
+        <v>+8801794807577</v>
+      </c>
+      <c r="H33" t="str">
+        <v>email</v>
+      </c>
+      <c r="I33" t="str">
+        <v>F Name</v>
+      </c>
+      <c r="J33" t="str">
+        <v>M Name</v>
+      </c>
+      <c r="K33" t="str">
+        <v>address</v>
+      </c>
+      <c r="L33" t="str">
+        <v>adress 2</v>
+      </c>
+      <c r="M33" t="str">
+        <v>city</v>
+      </c>
+      <c r="N33" t="str">
+        <v>zip</v>
+      </c>
+      <c r="O33" t="str">
+        <v>state</v>
+      </c>
+      <c r="P33" t="str">
+        <v>country</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>econtact</v>
+      </c>
+      <c r="R33" t="str">
+        <v>my fb id</v>
+      </c>
+      <c r="S33" t="str">
+        <v>2022-06-16</v>
+      </c>
+      <c r="T33" t="str">
+        <v>natinality</v>
+      </c>
+      <c r="U33" t="str">
+        <v>O+</v>
+      </c>
+      <c r="V33" t="str">
+        <v>religion</v>
+      </c>
+      <c r="W33" t="str">
+        <v>occupation</v>
+      </c>
+      <c r="X33" t="str">
+        <v>des</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>c name</v>
+      </c>
+      <c r="Z33" t="str">
+        <v>UNMARRIED</v>
+      </c>
+      <c r="AA33" t="str">
+        <v>hall</v>
+      </c>
+      <c r="AB33" t="str">
+        <v>wishbox</v>
+      </c>
+      <c r="AC33" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655288725/i7uhzqvn86jksoyjciju.png</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Zaman</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Sarker</v>
+      </c>
+      <c r="F34" t="str">
+        <v>01711082532</v>
+      </c>
+      <c r="H34" t="str">
+        <v>stezaman@gmail.com</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Fathername</v>
+      </c>
+      <c r="J34" t="str">
+        <v>mothername</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>0294949499</v>
+      </c>
+      <c r="R34" t="str">
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <v>2022-06-08</v>
+      </c>
+      <c r="T34" t="str">
+        <v>bangladeshi</v>
+      </c>
+      <c r="U34" t="str">
+        <v>O-</v>
+      </c>
+      <c r="V34" t="str">
+        <v>s\\</v>
+      </c>
+      <c r="W34" t="str">
+        <v>flaskdjflj</v>
+      </c>
+      <c r="X34" t="str">
+        <v>sljasdljf</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>saljdklaj</v>
+      </c>
+      <c r="Z34" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA34" t="str">
         <v>123, 344</v>
       </c>
-      <c r="AB32" t="str">
+      <c r="AB34" t="str">
         <v>afjslfjakl</v>
       </c>
-      <c r="AC32" t="str">
+      <c r="AC34" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655046787/swnbtvhnmv0lpwyr8vje.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,10 +493,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Full Name</v>
+        <v>Hhh</v>
       </c>
       <c r="B2" t="str">
-        <v>Nick Name</v>
+        <v>Hhhh</v>
       </c>
       <c r="C2" t="str">
         <v>Institute of Business Admistration</v>
@@ -508,31 +508,31 @@
         <v>Institute of Business Admistration</v>
       </c>
       <c r="F2" t="str">
-        <v>+88018384848484848</v>
+        <v>+8801711085448999</v>
       </c>
       <c r="H2" t="str">
-        <v>saslkfalsdjf@gkmajkl.com</v>
+        <v>stezamanaaaaa@gmail.com</v>
       </c>
       <c r="I2" t="str">
-        <v>Fathers Name</v>
+        <v>Father</v>
       </c>
       <c r="J2" t="str">
-        <v>Mothers Name</v>
+        <v>Mother</v>
       </c>
       <c r="K2" t="str">
-        <v>Street Addrsss</v>
+        <v/>
       </c>
       <c r="L2" t="str">
         <v/>
       </c>
       <c r="M2" t="str">
-        <v>New Adarsho Para</v>
+        <v>Dhaka</v>
       </c>
       <c r="N2" t="str">
-        <v>Zip Code</v>
+        <v/>
       </c>
       <c r="O2" t="str">
-        <v>Rangpur</v>
+        <v>Dhaka</v>
       </c>
       <c r="P2" t="str">
         <v>Bangladesh</v>
@@ -550,13 +550,13 @@
         <v/>
       </c>
       <c r="U2" t="str">
-        <v>A+</v>
+        <v>B-</v>
       </c>
       <c r="V2" t="str">
         <v/>
       </c>
       <c r="W2" t="str">
-        <v>IT professsional</v>
+        <v>Fff</v>
       </c>
       <c r="X2" t="str">
         <v/>
@@ -571,217 +571,217 @@
         <v/>
       </c>
       <c r="AB2" t="str">
-        <v>All the best wishes</v>
+        <v>Tttt</v>
       </c>
       <c r="AC2" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656905488/iuzpwaab3bpcahehhldp.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656929432/wb1y2xexnbjsagvvelz1.jpg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">Md. Rashedur Reza </v>
+        <v>Full Name</v>
       </c>
       <c r="B3" t="str">
-        <v>Rashed</v>
+        <v>Nick Name</v>
       </c>
       <c r="C3" t="str">
-        <v>Government and Politics</v>
+        <v>Institute of Business Admistration</v>
       </c>
       <c r="D3" t="str">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E3" t="str">
-        <v>Faculty of Social Sciences</v>
+        <v>Institute of Business Admistration</v>
       </c>
       <c r="F3" t="str">
-        <v>+8801961055234</v>
+        <v>+88018384848484848</v>
       </c>
       <c r="H3" t="str">
-        <v>rashedreza38ju@gmail.com</v>
+        <v>saslkfalsdjf@gkmajkl.com</v>
       </c>
       <c r="I3" t="str">
-        <v>Md.Abul Hossain</v>
+        <v>Fathers Name</v>
       </c>
       <c r="J3" t="str">
-        <v>Nazma Khanom</v>
+        <v>Mothers Name</v>
       </c>
       <c r="K3" t="str">
-        <v>House-177, Ward-07,</v>
+        <v>Street Addrsss</v>
       </c>
       <c r="L3" t="str">
-        <v>Circuit house Road</v>
+        <v/>
       </c>
       <c r="M3" t="str">
-        <v xml:space="preserve">Shariatpur sadar </v>
+        <v>New Adarsho Para</v>
       </c>
       <c r="N3" t="str">
-        <v>8000</v>
+        <v>Zip Code</v>
       </c>
       <c r="O3" t="str">
-        <v xml:space="preserve">Shariatpur </v>
+        <v>Rangpur</v>
       </c>
       <c r="P3" t="str">
-        <v xml:space="preserve">Bangladesh </v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q3" t="str">
-        <v>01961055234</v>
+        <v/>
       </c>
       <c r="R3" t="str">
-        <v xml:space="preserve">Rashedur Reza Rashed </v>
+        <v/>
       </c>
       <c r="S3" t="str">
-        <v>1989-09-05</v>
+        <v/>
       </c>
       <c r="T3" t="str">
-        <v xml:space="preserve">Bangladeshi </v>
+        <v/>
       </c>
       <c r="U3" t="str">
         <v>A+</v>
       </c>
       <c r="V3" t="str">
-        <v>Islam</v>
+        <v/>
       </c>
       <c r="W3" t="str">
-        <v xml:space="preserve">Service </v>
+        <v>IT professsional</v>
       </c>
       <c r="X3" t="str">
-        <v xml:space="preserve">Officer </v>
+        <v/>
       </c>
       <c r="Y3" t="str">
-        <v xml:space="preserve">Rupali Bank </v>
+        <v/>
       </c>
       <c r="Z3" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA3" t="str">
-        <v>422</v>
+        <v/>
       </c>
       <c r="AB3" t="str">
-        <v>Jahangirnagar is the name of filling.</v>
+        <v>All the best wishes</v>
       </c>
       <c r="AC3" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656771440/zw5rvptwitexrsojroc6.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656905488/iuzpwaab3bpcahehhldp.png</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Carol Parker</v>
+        <v xml:space="preserve">Md. Rashedur Reza </v>
       </c>
       <c r="B4" t="str">
-        <v>da</v>
+        <v>Rashed</v>
       </c>
       <c r="C4" t="str">
-        <v>Biochemistry &amp; Molicular Biology</v>
+        <v>Government and Politics</v>
       </c>
       <c r="D4" t="str">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4" t="str">
-        <v>Faculty of Biology</v>
+        <v>Faculty of Social Sciences</v>
       </c>
       <c r="F4" t="str">
-        <v>+6323</v>
+        <v>+8801961055234</v>
       </c>
       <c r="H4" t="str">
-        <v>munnash</v>
+        <v>rashedreza38ju@gmail.com</v>
       </c>
       <c r="I4" t="str">
-        <v>saa</v>
+        <v>Md.Abul Hossain</v>
       </c>
       <c r="J4" t="str">
-        <v>sa</v>
+        <v>Nazma Khanom</v>
       </c>
       <c r="K4" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>House-177, Ward-07,</v>
       </c>
       <c r="L4" t="str">
-        <v>as</v>
+        <v>Circuit house Road</v>
       </c>
       <c r="M4" t="str">
-        <v>Himamaylan</v>
+        <v xml:space="preserve">Shariatpur sadar </v>
       </c>
       <c r="N4" t="str">
-        <v>5189</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="str">
-        <v>as</v>
+        <v xml:space="preserve">Shariatpur </v>
       </c>
       <c r="P4" t="str">
-        <v>Philippines</v>
+        <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q4" t="str">
-        <v/>
+        <v>01961055234</v>
       </c>
       <c r="R4" t="str">
-        <v/>
+        <v xml:space="preserve">Rashedur Reza Rashed </v>
       </c>
       <c r="S4" t="str">
-        <v>2022-06-08</v>
+        <v>1989-09-05</v>
       </c>
       <c r="T4" t="str">
-        <v>ass</v>
+        <v xml:space="preserve">Bangladeshi </v>
       </c>
       <c r="U4" t="str">
-        <v>A-</v>
+        <v>A+</v>
       </c>
       <c r="V4" t="str">
-        <v>a</v>
+        <v>Islam</v>
       </c>
       <c r="W4" t="str">
-        <v>asa</v>
+        <v xml:space="preserve">Service </v>
       </c>
       <c r="X4" t="str">
-        <v/>
+        <v xml:space="preserve">Officer </v>
       </c>
       <c r="Y4" t="str">
-        <v/>
+        <v xml:space="preserve">Rupali Bank </v>
       </c>
       <c r="Z4" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA4" t="str">
-        <v/>
+        <v>422</v>
       </c>
       <c r="AB4" t="str">
-        <v>s</v>
+        <v>Jahangirnagar is the name of filling.</v>
       </c>
       <c r="AC4" t="str">
-        <v>http://res.cloudinary.com/drihikk07/image/upload/v1656475834/gnchmy1nrklrr4x91cqt.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656771440/zw5rvptwitexrsojroc6.jpg</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>sda</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B5" t="str">
-        <v>asd</v>
+        <v>da</v>
       </c>
       <c r="C5" t="str">
-        <v>History</v>
+        <v>Biochemistry &amp; Molicular Biology</v>
       </c>
       <c r="D5" t="str">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F5" t="str">
-        <v>+8804324</v>
+        <v>+6323</v>
       </c>
       <c r="H5" t="str">
-        <v>reef</v>
+        <v>munnash</v>
       </c>
       <c r="I5" t="str">
-        <v>ewqe</v>
+        <v>saa</v>
       </c>
       <c r="J5" t="str">
-        <v>weq</v>
+        <v>sa</v>
       </c>
       <c r="K5" t="str">
         <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L5" t="str">
-        <v>eqe</v>
+        <v>as</v>
       </c>
       <c r="M5" t="str">
         <v>Himamaylan</v>
@@ -790,7 +790,7 @@
         <v>5189</v>
       </c>
       <c r="O5" t="str">
-        <v>e</v>
+        <v>as</v>
       </c>
       <c r="P5" t="str">
         <v>Philippines</v>
@@ -805,16 +805,16 @@
         <v>2022-06-08</v>
       </c>
       <c r="T5" t="str">
-        <v>eq</v>
+        <v>ass</v>
       </c>
       <c r="U5" t="str">
-        <v>O+</v>
+        <v>A-</v>
       </c>
       <c r="V5" t="str">
-        <v>eq</v>
+        <v>a</v>
       </c>
       <c r="W5" t="str">
-        <v>eq</v>
+        <v>asa</v>
       </c>
       <c r="X5" t="str">
         <v/>
@@ -829,45 +829,45 @@
         <v/>
       </c>
       <c r="AB5" t="str">
-        <v>edq</v>
+        <v>s</v>
       </c>
       <c r="AC5" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656437127/txkbzbndmr0lpow31ljx.jpg</v>
+        <v>http://res.cloudinary.com/drihikk07/image/upload/v1656475834/gnchmy1nrklrr4x91cqt.jpg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>amsjsn</v>
+        <v>sda</v>
       </c>
       <c r="B6" t="str">
-        <v>shshsn</v>
+        <v>asd</v>
       </c>
       <c r="C6" t="str">
-        <v>Philosophy</v>
+        <v>History</v>
       </c>
       <c r="D6" t="str">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F6" t="str">
-        <v>+8804977</v>
+        <v>+8804324</v>
       </c>
       <c r="H6" t="str">
-        <v>sgzbzb</v>
+        <v>reef</v>
       </c>
       <c r="I6" t="str">
-        <v>shzbzb</v>
+        <v>ewqe</v>
       </c>
       <c r="J6" t="str">
-        <v>wnsbsb</v>
+        <v>weq</v>
       </c>
       <c r="K6" t="str">
         <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L6" t="str">
-        <v>vvv</v>
+        <v>eqe</v>
       </c>
       <c r="M6" t="str">
         <v>Himamaylan</v>
@@ -876,31 +876,31 @@
         <v>5189</v>
       </c>
       <c r="O6" t="str">
-        <v>bb</v>
+        <v>e</v>
       </c>
       <c r="P6" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q6" t="str">
-        <v>sbsb</v>
+        <v/>
       </c>
       <c r="R6" t="str">
-        <v>sbabs</v>
+        <v/>
       </c>
       <c r="S6" t="str">
-        <v>2022-06-16</v>
+        <v>2022-06-08</v>
       </c>
       <c r="T6" t="str">
-        <v>s</v>
+        <v>eq</v>
       </c>
       <c r="U6" t="str">
-        <v>B+</v>
+        <v>O+</v>
       </c>
       <c r="V6" t="str">
-        <v>zb</v>
+        <v>eq</v>
       </c>
       <c r="W6" t="str">
-        <v>sbzb</v>
+        <v>eq</v>
       </c>
       <c r="X6" t="str">
         <v/>
@@ -915,78 +915,78 @@
         <v/>
       </c>
       <c r="AB6" t="str">
-        <v>zbzbz</v>
+        <v>edq</v>
       </c>
       <c r="AC6" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656416080/yivs2xjp3o8ejzpcxqdb.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656437127/txkbzbndmr0lpow31ljx.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Zaman Sarker</v>
+        <v>amsjsn</v>
       </c>
       <c r="B7" t="str">
-        <v>Milon</v>
+        <v>shshsn</v>
       </c>
       <c r="C7" t="str">
-        <v>Geography and Environment</v>
+        <v>Philosophy</v>
       </c>
       <c r="D7" t="str">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" t="str">
-        <v>Faculty of Social Sciences</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F7" t="str">
-        <v>+8803393939393939</v>
+        <v>+8804977</v>
       </c>
       <c r="H7" t="str">
-        <v>stezaman033@gmail.com</v>
+        <v>sgzbzb</v>
       </c>
       <c r="I7" t="str">
-        <v>My Fathers Name</v>
+        <v>shzbzb</v>
       </c>
       <c r="J7" t="str">
-        <v>My MOthes Name</v>
+        <v>wnsbsb</v>
       </c>
       <c r="K7" t="str">
-        <v>Street 01</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L7" t="str">
-        <v>Street 02</v>
+        <v>vvv</v>
       </c>
       <c r="M7" t="str">
-        <v>Upaziall</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N7" t="str">
-        <v>1202</v>
+        <v>5189</v>
       </c>
       <c r="O7" t="str">
-        <v>State</v>
+        <v>bb</v>
       </c>
       <c r="P7" t="str">
-        <v>Bangladesh</v>
+        <v>Philippines</v>
       </c>
       <c r="Q7" t="str">
-        <v/>
+        <v>sbsb</v>
       </c>
       <c r="R7" t="str">
-        <v/>
+        <v>sbabs</v>
       </c>
       <c r="S7" t="str">
-        <v/>
+        <v>2022-06-16</v>
       </c>
       <c r="T7" t="str">
-        <v/>
+        <v>s</v>
       </c>
       <c r="U7" t="str">
         <v>B+</v>
       </c>
       <c r="V7" t="str">
-        <v/>
+        <v>zb</v>
       </c>
       <c r="W7" t="str">
-        <v xml:space="preserve">Service </v>
+        <v>sbzb</v>
       </c>
       <c r="X7" t="str">
         <v/>
@@ -1001,78 +1001,78 @@
         <v/>
       </c>
       <c r="AB7" t="str">
-        <v xml:space="preserve">Wish Box </v>
+        <v>zbzbz</v>
       </c>
       <c r="AC7" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656415399/u0sp0nj23wd0ibonr7vn.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656416080/yivs2xjp3o8ejzpcxqdb.jpg</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>saa</v>
+        <v>Zaman Sarker</v>
       </c>
       <c r="B8" t="str">
-        <v>sa</v>
+        <v>Milon</v>
       </c>
       <c r="C8" t="str">
-        <v>English</v>
+        <v>Geography and Environment</v>
       </c>
       <c r="D8" t="str">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E8" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Social Sciences</v>
       </c>
       <c r="F8" t="str">
-        <v>+88023313</v>
+        <v>+8803393939393939</v>
       </c>
       <c r="H8" t="str">
-        <v>fesfada</v>
+        <v>stezaman033@gmail.com</v>
       </c>
       <c r="I8" t="str">
-        <v>edad</v>
+        <v>My Fathers Name</v>
       </c>
       <c r="J8" t="str">
-        <v>ad</v>
+        <v>My MOthes Name</v>
       </c>
       <c r="K8" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>Street 01</v>
       </c>
       <c r="L8" t="str">
-        <v>s</v>
+        <v>Street 02</v>
       </c>
       <c r="M8" t="str">
-        <v>Himamaylan</v>
+        <v>Upaziall</v>
       </c>
       <c r="N8" t="str">
-        <v>5189</v>
+        <v>1202</v>
       </c>
       <c r="O8" t="str">
-        <v>s</v>
+        <v>State</v>
       </c>
       <c r="P8" t="str">
-        <v>Philippines</v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q8" t="str">
-        <v>a</v>
+        <v/>
       </c>
       <c r="R8" t="str">
         <v/>
       </c>
       <c r="S8" t="str">
-        <v>2022-06-13</v>
+        <v/>
       </c>
       <c r="T8" t="str">
-        <v>edfa</v>
+        <v/>
       </c>
       <c r="U8" t="str">
-        <v>O+</v>
+        <v>B+</v>
       </c>
       <c r="V8" t="str">
-        <v>fs</v>
+        <v/>
       </c>
       <c r="W8" t="str">
-        <v>qw</v>
+        <v xml:space="preserve">Service </v>
       </c>
       <c r="X8" t="str">
         <v/>
@@ -1084,48 +1084,48 @@
         <v>MARRIED</v>
       </c>
       <c r="AA8" t="str">
-        <v>q</v>
+        <v/>
       </c>
       <c r="AB8" t="str">
-        <v>qwe</v>
+        <v xml:space="preserve">Wish Box </v>
       </c>
       <c r="AC8" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656413349/x52cymsi5majqm46gdkz.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656415399/u0sp0nj23wd0ibonr7vn.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Munna Khondoker</v>
+        <v>saa</v>
       </c>
       <c r="B9" t="str">
-        <v>Munna</v>
+        <v>sa</v>
       </c>
       <c r="C9" t="str">
-        <v>Public Health &amp; Informatics</v>
+        <v>English</v>
       </c>
       <c r="D9" t="str">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E9" t="str">
-        <v>Faculty of Biology</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F9" t="str">
-        <v>+88017948075</v>
+        <v>+88023313</v>
       </c>
       <c r="H9" t="str">
-        <v>munnashisaewd@gmail.com</v>
+        <v>fesfada</v>
       </c>
       <c r="I9" t="str">
-        <v>Fahter Name</v>
+        <v>edad</v>
       </c>
       <c r="J9" t="str">
-        <v>Mother Name</v>
+        <v>ad</v>
       </c>
       <c r="K9" t="str">
         <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L9" t="str">
-        <v>2w</v>
+        <v>s</v>
       </c>
       <c r="M9" t="str">
         <v>Himamaylan</v>
@@ -1134,31 +1134,31 @@
         <v>5189</v>
       </c>
       <c r="O9" t="str">
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="P9" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q9" t="str">
-        <v>Emergency Contact</v>
+        <v>a</v>
       </c>
       <c r="R9" t="str">
-        <v>no</v>
+        <v/>
       </c>
       <c r="S9" t="str">
-        <v>2022-06-23</v>
+        <v>2022-06-13</v>
       </c>
       <c r="T9" t="str">
-        <v>Nationality</v>
+        <v>edfa</v>
       </c>
       <c r="U9" t="str">
-        <v>O-</v>
+        <v>O+</v>
       </c>
       <c r="V9" t="str">
-        <v>Religion</v>
+        <v>fs</v>
       </c>
       <c r="W9" t="str">
-        <v>Student</v>
+        <v>qw</v>
       </c>
       <c r="X9" t="str">
         <v/>
@@ -1170,48 +1170,48 @@
         <v>MARRIED</v>
       </c>
       <c r="AA9" t="str">
-        <v>1</v>
+        <v>q</v>
       </c>
       <c r="AB9" t="str">
-        <v>1</v>
+        <v>qwe</v>
       </c>
       <c r="AC9" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656412089/zho62mxtp5ewnrl9vvrj.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656413349/x52cymsi5majqm46gdkz.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Carol Parker</v>
+        <v>Munna Khondoker</v>
       </c>
       <c r="B10" t="str">
-        <v>wsa</v>
+        <v>Munna</v>
       </c>
       <c r="C10" t="str">
-        <v>English</v>
+        <v>Public Health &amp; Informatics</v>
       </c>
       <c r="D10" t="str">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E10" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F10" t="str">
-        <v>+63232141</v>
+        <v>+88017948075</v>
       </c>
       <c r="H10" t="str">
-        <v>mudfdas</v>
+        <v>munnashisaewd@gmail.com</v>
       </c>
       <c r="I10" t="str">
-        <v>AA</v>
+        <v>Fahter Name</v>
       </c>
       <c r="J10" t="str">
-        <v>a</v>
+        <v>Mother Name</v>
       </c>
       <c r="K10" t="str">
-        <v>a</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L10" t="str">
-        <v>a</v>
+        <v>2w</v>
       </c>
       <c r="M10" t="str">
         <v>Himamaylan</v>
@@ -1220,31 +1220,31 @@
         <v>5189</v>
       </c>
       <c r="O10" t="str">
-        <v>a</v>
+        <v>q</v>
       </c>
       <c r="P10" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q10" t="str">
-        <v/>
+        <v>Emergency Contact</v>
       </c>
       <c r="R10" t="str">
-        <v>e</v>
+        <v>no</v>
       </c>
       <c r="S10" t="str">
-        <v>2022-06-25</v>
+        <v>2022-06-23</v>
       </c>
       <c r="T10" t="str">
-        <v>a</v>
+        <v>Nationality</v>
       </c>
       <c r="U10" t="str">
-        <v>B+</v>
+        <v>O-</v>
       </c>
       <c r="V10" t="str">
-        <v>a</v>
+        <v>Religion</v>
       </c>
       <c r="W10" t="str">
-        <v>a</v>
+        <v>Student</v>
       </c>
       <c r="X10" t="str">
         <v/>
@@ -1256,81 +1256,81 @@
         <v>MARRIED</v>
       </c>
       <c r="AA10" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="AB10" t="str">
-        <v>a</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656134864/tkdgbchvha9fjwfvunb3.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656412089/zho62mxtp5ewnrl9vvrj.jpg</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Md. Al-helal Uddin</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B11" t="str">
-        <v>Shamim</v>
+        <v>wsa</v>
       </c>
       <c r="C11" t="str">
-        <v>Archeology</v>
+        <v>English</v>
       </c>
       <c r="D11" t="str">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E11" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F11" t="str">
-        <v>+8801756477707</v>
+        <v>+63232141</v>
       </c>
       <c r="H11" t="str">
-        <v>shamim1978@gmail.com</v>
+        <v>mudfdas</v>
       </c>
       <c r="I11" t="str">
-        <v>A. B. M. Asadullah</v>
+        <v>AA</v>
       </c>
       <c r="J11" t="str">
-        <v>Mrs. Akhtara Begum</v>
+        <v>a</v>
       </c>
       <c r="K11" t="str">
-        <v>17/7</v>
+        <v>a</v>
       </c>
       <c r="L11" t="str">
-        <v>Azimpur</v>
+        <v>a</v>
       </c>
       <c r="M11" t="str">
-        <v>Lalbagh</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N11" t="str">
-        <v>1213</v>
+        <v>5189</v>
       </c>
       <c r="O11" t="str">
-        <v>Dhaka</v>
+        <v>a</v>
       </c>
       <c r="P11" t="str">
-        <v>Bangladesh</v>
+        <v>Philippines</v>
       </c>
       <c r="Q11" t="str">
-        <v>01814232539</v>
+        <v/>
       </c>
       <c r="R11" t="str">
-        <v>shamimalhelal</v>
+        <v>e</v>
       </c>
       <c r="S11" t="str">
-        <v>1978-11-02</v>
+        <v>2022-06-25</v>
       </c>
       <c r="T11" t="str">
-        <v>Bangladeshi</v>
+        <v>a</v>
       </c>
       <c r="U11" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="V11" t="str">
-        <v>Islam</v>
+        <v>a</v>
       </c>
       <c r="W11" t="str">
-        <v>Service</v>
+        <v>a</v>
       </c>
       <c r="X11" t="str">
         <v/>
@@ -1342,81 +1342,81 @@
         <v>MARRIED</v>
       </c>
       <c r="AA11" t="str">
-        <v>146, 222, 246</v>
+        <v/>
       </c>
       <c r="AB11" t="str">
-        <v xml:space="preserve">Wish all the best </v>
+        <v>a</v>
       </c>
       <c r="AC11" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656076355/jtpmzcvjuxeuhghbhlvi.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656134864/tkdgbchvha9fjwfvunb3.jpg</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Gggg</v>
+        <v>Md. Al-helal Uddin</v>
       </c>
       <c r="B12" t="str">
-        <v>Ggggg</v>
+        <v>Shamim</v>
       </c>
       <c r="C12" t="str">
-        <v>Finance &amp; Banking</v>
+        <v>Archeology</v>
       </c>
       <c r="D12" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="str">
-        <v>Faculty of Business Studies</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F12" t="str">
-        <v>+88017110825666</v>
+        <v>+8801756477707</v>
       </c>
       <c r="H12" t="str">
-        <v>stezamerran@gmail.com</v>
+        <v>shamim1978@gmail.com</v>
       </c>
       <c r="I12" t="str">
-        <v>Ytyyyyy</v>
+        <v>A. B. M. Asadullah</v>
       </c>
       <c r="J12" t="str">
-        <v>Yyyyuu</v>
+        <v>Mrs. Akhtara Begum</v>
       </c>
       <c r="K12" t="str">
-        <v>Gggg</v>
+        <v>17/7</v>
       </c>
       <c r="L12" t="str">
-        <v>Ghgg</v>
+        <v>Azimpur</v>
       </c>
       <c r="M12" t="str">
-        <v>Ggg</v>
+        <v>Lalbagh</v>
       </c>
       <c r="N12" t="str">
-        <v>Ghhgh</v>
+        <v>1213</v>
       </c>
       <c r="O12" t="str">
-        <v>Ggg</v>
+        <v>Dhaka</v>
       </c>
       <c r="P12" t="str">
-        <v>Gggg</v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q12" t="str">
-        <v/>
+        <v>01814232539</v>
       </c>
       <c r="R12" t="str">
-        <v/>
+        <v>shamimalhelal</v>
       </c>
       <c r="S12" t="str">
-        <v/>
+        <v>1978-11-02</v>
       </c>
       <c r="T12" t="str">
-        <v/>
+        <v>Bangladeshi</v>
       </c>
       <c r="U12" t="str">
-        <v>B+</v>
+        <v>A+</v>
       </c>
       <c r="V12" t="str">
-        <v/>
+        <v>Islam</v>
       </c>
       <c r="W12" t="str">
-        <v>Ggggh</v>
+        <v>Service</v>
       </c>
       <c r="X12" t="str">
         <v/>
@@ -1425,199 +1425,199 @@
         <v/>
       </c>
       <c r="Z12" t="str">
-        <v>UNMARRIED</v>
+        <v>MARRIED</v>
       </c>
       <c r="AA12" t="str">
-        <v/>
+        <v>146, 222, 246</v>
       </c>
       <c r="AB12" t="str">
-        <v>Hhhhh</v>
+        <v xml:space="preserve">Wish all the best </v>
       </c>
       <c r="AC12" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656071483/wo3l0qazumnuid4ftuxa.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656076355/jtpmzcvjuxeuhghbhlvi.jpg</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve">Mohammed Shofiqul Islam </v>
+        <v>Gggg</v>
       </c>
       <c r="B13" t="str">
-        <v>Parves</v>
+        <v>Ggggg</v>
       </c>
       <c r="C13" t="str">
-        <v>Statistics</v>
+        <v>Finance &amp; Banking</v>
       </c>
       <c r="D13" t="str">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+        <v>Faculty of Business Studies</v>
       </c>
       <c r="F13" t="str">
-        <v>+8801712269400</v>
+        <v>+88017110825666</v>
       </c>
       <c r="H13" t="str">
-        <v>islamshofiq311@gmail.com</v>
+        <v>stezamerran@gmail.com</v>
       </c>
       <c r="I13" t="str">
-        <v xml:space="preserve">Mohammed Nurul Islam </v>
+        <v>Ytyyyyy</v>
       </c>
       <c r="J13" t="str">
-        <v xml:space="preserve">Shamsunnahar </v>
+        <v>Yyyyuu</v>
       </c>
       <c r="K13" t="str">
-        <v>405, Monir Chemical Road, DUET</v>
+        <v>Gggg</v>
       </c>
       <c r="L13" t="str">
-        <v/>
+        <v>Ghgg</v>
       </c>
       <c r="M13" t="str">
-        <v xml:space="preserve">Gazipur Sadar </v>
+        <v>Ggg</v>
       </c>
       <c r="N13" t="str">
-        <v>1700</v>
+        <v>Ghhgh</v>
       </c>
       <c r="O13" t="str">
-        <v xml:space="preserve">Gazipur </v>
+        <v>Ggg</v>
       </c>
       <c r="P13" t="str">
-        <v xml:space="preserve">Bangladesh </v>
+        <v>Gggg</v>
       </c>
       <c r="Q13" t="str">
-        <v>01714084640 (Brother)</v>
+        <v/>
       </c>
       <c r="R13" t="str">
-        <v xml:space="preserve">Shofiqul Islam Parves </v>
+        <v/>
       </c>
       <c r="S13" t="str">
-        <v>1981-06-26</v>
+        <v/>
       </c>
       <c r="T13" t="str">
-        <v xml:space="preserve">Bangladeshi </v>
+        <v/>
       </c>
       <c r="U13" t="str">
-        <v>A+</v>
+        <v>B+</v>
       </c>
       <c r="V13" t="str">
-        <v>Islam</v>
+        <v/>
       </c>
       <c r="W13" t="str">
-        <v xml:space="preserve">Banker </v>
+        <v>Ggggh</v>
       </c>
       <c r="X13" t="str">
-        <v xml:space="preserve">Principal Officer </v>
+        <v/>
       </c>
       <c r="Y13" t="str">
-        <v xml:space="preserve">Mercantile Bank Limited </v>
+        <v/>
       </c>
       <c r="Z13" t="str">
-        <v>MARRIED</v>
+        <v>UNMARRIED</v>
       </c>
       <c r="AA13" t="str">
-        <v>135</v>
+        <v/>
       </c>
       <c r="AB13" t="str">
-        <v>Long live Moulana Bhasani Hall</v>
+        <v>Hhhhh</v>
       </c>
       <c r="AC13" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656045918/xtilidykfztgzvxg2dxn.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656071483/wo3l0qazumnuid4ftuxa.jpg</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>lksdljfl</v>
+        <v xml:space="preserve">Mohammed Shofiqul Islam </v>
       </c>
       <c r="B14" t="str">
-        <v>alsdjfalskjkl</v>
+        <v>Parves</v>
       </c>
       <c r="C14" t="str">
-        <v>Microbilogy</v>
+        <v>Statistics</v>
       </c>
       <c r="D14" t="str">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="str">
-        <v>Faculty of Biology</v>
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F14" t="str">
-        <v>+88048484848484848</v>
+        <v>+8801712269400</v>
       </c>
       <c r="H14" t="str">
-        <v>st11ezaman@gmail.com</v>
+        <v>islamshofiq311@gmail.com</v>
       </c>
       <c r="I14" t="str">
-        <v>fa</v>
+        <v xml:space="preserve">Mohammed Nurul Islam </v>
       </c>
       <c r="J14" t="str">
-        <v>ad</v>
+        <v xml:space="preserve">Shamsunnahar </v>
       </c>
       <c r="K14" t="str">
-        <v>adslfdklkj</v>
+        <v>405, Monir Chemical Road, DUET</v>
       </c>
       <c r="L14" t="str">
-        <v>asdljlasjf</v>
+        <v/>
       </c>
       <c r="M14" t="str">
-        <v>lsdjfsdklj</v>
+        <v xml:space="preserve">Gazipur Sadar </v>
       </c>
       <c r="N14" t="str">
-        <v>ssljdsk</v>
+        <v>1700</v>
       </c>
       <c r="O14" t="str">
-        <v>sdlkalfjl</v>
+        <v xml:space="preserve">Gazipur </v>
       </c>
       <c r="P14" t="str">
-        <v>sdljadkl</v>
+        <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q14" t="str">
-        <v>fads</v>
+        <v>01714084640 (Brother)</v>
       </c>
       <c r="R14" t="str">
-        <v>zaman.sarker</v>
+        <v xml:space="preserve">Shofiqul Islam Parves </v>
       </c>
       <c r="S14" t="str">
-        <v/>
+        <v>1981-06-26</v>
       </c>
       <c r="T14" t="str">
-        <v/>
+        <v xml:space="preserve">Bangladeshi </v>
       </c>
       <c r="U14" t="str">
         <v>A+</v>
       </c>
       <c r="V14" t="str">
-        <v/>
+        <v>Islam</v>
       </c>
       <c r="W14" t="str">
-        <v>fdsfasd</v>
+        <v xml:space="preserve">Banker </v>
       </c>
       <c r="X14" t="str">
-        <v/>
+        <v xml:space="preserve">Principal Officer </v>
       </c>
       <c r="Y14" t="str">
-        <v/>
+        <v xml:space="preserve">Mercantile Bank Limited </v>
       </c>
       <c r="Z14" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA14" t="str">
-        <v/>
+        <v>135</v>
       </c>
       <c r="AB14" t="str">
-        <v>fasdfsdafsd</v>
+        <v>Long live Moulana Bhasani Hall</v>
       </c>
       <c r="AC14" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655882891/tqvp46skriyiniz352wt.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1656045918/xtilidykfztgzvxg2dxn.png</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Carol Parker</v>
+        <v>lksdljfl</v>
       </c>
       <c r="B15" t="str">
-        <v>1</v>
+        <v>alsdjfalskjkl</v>
       </c>
       <c r="C15" t="str">
-        <v>Zoology</v>
+        <v>Microbilogy</v>
       </c>
       <c r="D15" t="str">
         <v>30</v>
@@ -1626,55 +1626,55 @@
         <v>Faculty of Biology</v>
       </c>
       <c r="F15" t="str">
-        <v>+6312</v>
+        <v>+88048484848484848</v>
       </c>
       <c r="H15" t="str">
-        <v>12</v>
+        <v>st11ezaman@gmail.com</v>
       </c>
       <c r="I15" t="str">
-        <v>12</v>
+        <v>fa</v>
       </c>
       <c r="J15" t="str">
-        <v>2</v>
+        <v>ad</v>
       </c>
       <c r="K15" t="str">
-        <v>12</v>
+        <v>adslfdklkj</v>
       </c>
       <c r="L15" t="str">
-        <v>1</v>
+        <v>asdljlasjf</v>
       </c>
       <c r="M15" t="str">
-        <v>Himamaylan</v>
+        <v>lsdjfsdklj</v>
       </c>
       <c r="N15" t="str">
-        <v>5189</v>
+        <v>ssljdsk</v>
       </c>
       <c r="O15" t="str">
-        <v>1</v>
+        <v>sdlkalfjl</v>
       </c>
       <c r="P15" t="str">
-        <v>Philippines</v>
+        <v>sdljadkl</v>
       </c>
       <c r="Q15" t="str">
-        <v>12</v>
+        <v>fads</v>
       </c>
       <c r="R15" t="str">
-        <v/>
+        <v>zaman.sarker</v>
       </c>
       <c r="S15" t="str">
-        <v>2022-06-15</v>
+        <v/>
       </c>
       <c r="T15" t="str">
-        <v>Nationality</v>
+        <v/>
       </c>
       <c r="U15" t="str">
         <v>A+</v>
       </c>
       <c r="V15" t="str">
-        <v>Religion</v>
+        <v/>
       </c>
       <c r="W15" t="str">
-        <v>Student</v>
+        <v>fdsfasd</v>
       </c>
       <c r="X15" t="str">
         <v/>
@@ -1689,10 +1689,10 @@
         <v/>
       </c>
       <c r="AB15" t="str">
-        <v>qw</v>
+        <v>fasdfsdafsd</v>
       </c>
       <c r="AC15" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655874150/t8mddyh8cglaev4janp0.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655882891/tqvp46skriyiniz352wt.png</v>
       </c>
     </row>
     <row r="16">
@@ -1700,34 +1700,34 @@
         <v>Carol Parker</v>
       </c>
       <c r="B16" t="str">
-        <v>q</v>
+        <v>1</v>
       </c>
       <c r="C16" t="str">
-        <v>Microbilogy</v>
+        <v>Zoology</v>
       </c>
       <c r="D16" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="str">
         <v>Faculty of Biology</v>
       </c>
       <c r="F16" t="str">
-        <v>+63253</v>
+        <v>+6312</v>
       </c>
       <c r="H16" t="str">
+        <v>12</v>
+      </c>
+      <c r="I16" t="str">
+        <v>12</v>
+      </c>
+      <c r="J16" t="str">
         <v>2</v>
       </c>
-      <c r="I16" t="str">
-        <v>a</v>
-      </c>
-      <c r="J16" t="str">
-        <v>Atreen</v>
-      </c>
       <c r="K16" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>12</v>
       </c>
       <c r="L16" t="str">
-        <v>lk</v>
+        <v>1</v>
       </c>
       <c r="M16" t="str">
         <v>Himamaylan</v>
@@ -1736,13 +1736,13 @@
         <v>5189</v>
       </c>
       <c r="O16" t="str">
-        <v>l</v>
+        <v>1</v>
       </c>
       <c r="P16" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q16" t="str">
-        <v>Himamaylan</v>
+        <v>12</v>
       </c>
       <c r="R16" t="str">
         <v/>
@@ -1751,16 +1751,16 @@
         <v>2022-06-15</v>
       </c>
       <c r="T16" t="str">
-        <v>Philippines</v>
+        <v>Nationality</v>
       </c>
       <c r="U16" t="str">
         <v>A+</v>
       </c>
       <c r="V16" t="str">
+        <v>Religion</v>
+      </c>
+      <c r="W16" t="str">
         <v>Student</v>
-      </c>
-      <c r="W16" t="str">
-        <v>;</v>
       </c>
       <c r="X16" t="str">
         <v/>
@@ -1775,10 +1775,10 @@
         <v/>
       </c>
       <c r="AB16" t="str">
-        <v>k</v>
+        <v>qw</v>
       </c>
       <c r="AC16" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655873147/ravwg22qwgd7y4tf0rp4.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655874150/t8mddyh8cglaev4janp0.jpg</v>
       </c>
     </row>
     <row r="17">
@@ -1786,34 +1786,34 @@
         <v>Carol Parker</v>
       </c>
       <c r="B17" t="str">
-        <v>1</v>
+        <v>q</v>
       </c>
       <c r="C17" t="str">
-        <v>English</v>
+        <v>Microbilogy</v>
       </c>
       <c r="D17" t="str">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Biology</v>
       </c>
       <c r="F17" t="str">
-        <v>+632</v>
+        <v>+63253</v>
       </c>
       <c r="H17" t="str">
-        <v>munnashisad@gmail.com</v>
+        <v>2</v>
       </c>
       <c r="I17" t="str">
-        <v>Fahter Name</v>
+        <v>a</v>
       </c>
       <c r="J17" t="str">
-        <v>Mother Name</v>
+        <v>Atreen</v>
       </c>
       <c r="K17" t="str">
         <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L17" t="str">
-        <v>wq</v>
+        <v>lk</v>
       </c>
       <c r="M17" t="str">
         <v>Himamaylan</v>
@@ -1822,31 +1822,31 @@
         <v>5189</v>
       </c>
       <c r="O17" t="str">
-        <v>BD</v>
+        <v>l</v>
       </c>
       <c r="P17" t="str">
         <v>Philippines</v>
       </c>
       <c r="Q17" t="str">
-        <v>Emergency Contact</v>
+        <v>Himamaylan</v>
       </c>
       <c r="R17" t="str">
         <v/>
       </c>
       <c r="S17" t="str">
-        <v>2022-06-17</v>
+        <v>2022-06-15</v>
       </c>
       <c r="T17" t="str">
-        <v>q</v>
+        <v>Philippines</v>
       </c>
       <c r="U17" t="str">
-        <v>O+</v>
+        <v>A+</v>
       </c>
       <c r="V17" t="str">
-        <v>Religion</v>
+        <v>Student</v>
       </c>
       <c r="W17" t="str">
-        <v>Student</v>
+        <v>;</v>
       </c>
       <c r="X17" t="str">
         <v/>
@@ -1861,10 +1861,10 @@
         <v/>
       </c>
       <c r="AB17" t="str">
-        <v>q</v>
+        <v>k</v>
       </c>
       <c r="AC17" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871289/ztnbjn6o5nyojilo1r24.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655873147/ravwg22qwgd7y4tf0rp4.jpg</v>
       </c>
     </row>
     <row r="18">
@@ -1872,37 +1872,37 @@
         <v>Carol Parker</v>
       </c>
       <c r="B18" t="str">
-        <v>edw</v>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
         <v>English</v>
       </c>
       <c r="D18" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F18" t="str">
-        <v>+63312</v>
+        <v>+632</v>
       </c>
       <c r="H18" t="str">
-        <v>121</v>
+        <v>munnashisad@gmail.com</v>
       </c>
       <c r="I18" t="str">
-        <v>1</v>
+        <v>Fahter Name</v>
       </c>
       <c r="J18" t="str">
-        <v>1</v>
+        <v>Mother Name</v>
       </c>
       <c r="K18" t="str">
-        <v>1</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L18" t="str">
-        <v>1</v>
+        <v>wq</v>
       </c>
       <c r="M18" t="str">
-        <v>1</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N18" t="str">
         <v>5189</v>
@@ -1914,25 +1914,25 @@
         <v>Philippines</v>
       </c>
       <c r="Q18" t="str">
-        <v>1</v>
+        <v>Emergency Contact</v>
       </c>
       <c r="R18" t="str">
         <v/>
       </c>
       <c r="S18" t="str">
-        <v>2022-05-31</v>
+        <v>2022-06-17</v>
       </c>
       <c r="T18" t="str">
-        <v>1</v>
+        <v>q</v>
       </c>
       <c r="U18" t="str">
-        <v>A+</v>
+        <v>O+</v>
       </c>
       <c r="V18" t="str">
-        <v>1</v>
+        <v>Religion</v>
       </c>
       <c r="W18" t="str">
-        <v>q</v>
+        <v>Student</v>
       </c>
       <c r="X18" t="str">
         <v/>
@@ -1950,75 +1950,75 @@
         <v>q</v>
       </c>
       <c r="AC18" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871089/tee6vjehwjlektqlihnv.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871289/ztnbjn6o5nyojilo1r24.jpg</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>alsdjlafj</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B19" t="str">
-        <v>sdlfjasdlj</v>
+        <v>edw</v>
       </c>
       <c r="C19" t="str">
-        <v>Drama &amp; Daramatics</v>
+        <v>English</v>
       </c>
       <c r="D19" t="str">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E19" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F19" t="str">
-        <v>+88017110825322222</v>
+        <v>+63312</v>
       </c>
       <c r="H19" t="str">
-        <v>ehamio@gmail.com</v>
+        <v>121</v>
       </c>
       <c r="I19" t="str">
-        <v>FANa</v>
+        <v>1</v>
       </c>
       <c r="J19" t="str">
-        <v>MONa</v>
+        <v>1</v>
       </c>
       <c r="K19" t="str">
-        <v>Address</v>
+        <v>1</v>
       </c>
       <c r="L19" t="str">
-        <v>Address</v>
+        <v>1</v>
       </c>
       <c r="M19" t="str">
-        <v>Address</v>
+        <v>1</v>
       </c>
       <c r="N19" t="str">
-        <v>Address</v>
+        <v>5189</v>
       </c>
       <c r="O19" t="str">
-        <v>Address</v>
+        <v>BD</v>
       </c>
       <c r="P19" t="str">
-        <v>Address</v>
+        <v>Philippines</v>
       </c>
       <c r="Q19" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R19" t="str">
-        <v>zaman.sarker</v>
+        <v/>
       </c>
       <c r="S19" t="str">
-        <v/>
+        <v>2022-05-31</v>
       </c>
       <c r="T19" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U19" t="str">
-        <v>B-</v>
+        <v>A+</v>
       </c>
       <c r="V19" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="W19" t="str">
-        <v>IT</v>
+        <v>q</v>
       </c>
       <c r="X19" t="str">
         <v/>
@@ -2033,78 +2033,78 @@
         <v/>
       </c>
       <c r="AB19" t="str">
-        <v>alksflasjdl</v>
+        <v>q</v>
       </c>
       <c r="AC19" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855805/saeb0mezfc6673g7piv0.jpg</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655871089/tee6vjehwjlektqlihnv.jpg</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="str">
-        <v>Full Name</v>
+        <v>alsdjlafj</v>
       </c>
       <c r="B20" t="str">
-        <v>Nick Name</v>
+        <v>sdlfjasdlj</v>
       </c>
       <c r="C20" t="str">
-        <v>History</v>
+        <v>Drama &amp; Daramatics</v>
       </c>
       <c r="D20" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="str">
         <v>Faculty of Humaninities</v>
       </c>
       <c r="F20" t="str">
-        <v>+8801789237474747</v>
+        <v>+88017110825322222</v>
       </c>
       <c r="H20" t="str">
-        <v>aeaill@mail.com</v>
+        <v>ehamio@gmail.com</v>
       </c>
       <c r="I20" t="str">
-        <v>Father's Name</v>
+        <v>FANa</v>
       </c>
       <c r="J20" t="str">
-        <v>Mother's Name</v>
+        <v>MONa</v>
       </c>
       <c r="K20" t="str">
-        <v>Street Address</v>
+        <v>Address</v>
       </c>
       <c r="L20" t="str">
-        <v>Street Address 02</v>
+        <v>Address</v>
       </c>
       <c r="M20" t="str">
-        <v>Uploza</v>
+        <v>Address</v>
       </c>
       <c r="N20" t="str">
-        <v>1230</v>
+        <v>Address</v>
       </c>
       <c r="O20" t="str">
-        <v>State</v>
+        <v>Address</v>
       </c>
       <c r="P20" t="str">
-        <v>Bangladesh</v>
+        <v>Address</v>
       </c>
       <c r="Q20" t="str">
-        <v>Emergency Contract</v>
+        <v/>
       </c>
       <c r="R20" t="str">
         <v>zaman.sarker</v>
       </c>
       <c r="S20" t="str">
-        <v>1990-07-24</v>
+        <v/>
       </c>
       <c r="T20" t="str">
-        <v>Bangladeshi</v>
+        <v/>
       </c>
       <c r="U20" t="str">
-        <v>A+</v>
+        <v>B-</v>
       </c>
       <c r="V20" t="str">
-        <v>Islam</v>
+        <v/>
       </c>
       <c r="W20" t="str">
-        <v xml:space="preserve">IT </v>
+        <v>IT</v>
       </c>
       <c r="X20" t="str">
         <v/>
@@ -2118,253 +2118,253 @@
       <c r="AA20" t="str">
         <v/>
       </c>
-      <c r="AB20" t="str" xml:space="preserve">
+      <c r="AB20" t="str">
+        <v>alksflasjdl</v>
+      </c>
+      <c r="AC20" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855805/saeb0mezfc6673g7piv0.jpg</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Full Name</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Nick Name</v>
+      </c>
+      <c r="C21" t="str">
+        <v>History</v>
+      </c>
+      <c r="D21" t="str">
+        <v>27</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F21" t="str">
+        <v>+8801789237474747</v>
+      </c>
+      <c r="H21" t="str">
+        <v>aeaill@mail.com</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Father's Name</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Mother's Name</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Street Address</v>
+      </c>
+      <c r="L21" t="str">
+        <v>Street Address 02</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Uploza</v>
+      </c>
+      <c r="N21" t="str">
+        <v>1230</v>
+      </c>
+      <c r="O21" t="str">
+        <v>State</v>
+      </c>
+      <c r="P21" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>Emergency Contract</v>
+      </c>
+      <c r="R21" t="str">
+        <v>zaman.sarker</v>
+      </c>
+      <c r="S21" t="str">
+        <v>1990-07-24</v>
+      </c>
+      <c r="T21" t="str">
+        <v>Bangladeshi</v>
+      </c>
+      <c r="U21" t="str">
+        <v>A+</v>
+      </c>
+      <c r="V21" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W21" t="str">
+        <v xml:space="preserve">IT </v>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA21" t="str">
+        <v/>
+      </c>
+      <c r="AB21" t="str" xml:space="preserve">
         <v xml:space="preserve">Wish Box _x000d_
 I wish I can Join_x000d_
 Let's Play a Game</v>
       </c>
-      <c r="AC20" t="str">
+      <c r="AC21" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655855385/qrz2ldgqf8flhvmsygtv.jpg</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v xml:space="preserve">Sheakh Mohammad Nooruzzaman </v>
-      </c>
-      <c r="B21" t="str">
-        <v xml:space="preserve">Zaman </v>
-      </c>
-      <c r="C21" t="str">
-        <v>Chemistry</v>
-      </c>
-      <c r="D21" t="str">
-        <v>20</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
-      </c>
-      <c r="F21" t="str">
-        <v>+8801712724015</v>
-      </c>
-      <c r="H21" t="str">
-        <v>mdzaman.ju@ gmail.com</v>
-      </c>
-      <c r="I21" t="str">
-        <v>Md. Moksed sk.</v>
-      </c>
-      <c r="J21" t="str">
-        <v>Misa. Sahera Begum</v>
-      </c>
-      <c r="K21" t="str">
-        <v>Vill- Halda,Post - Naldi,Upazila - Lohagara,</v>
-      </c>
-      <c r="L21" t="str">
-        <v>Uttara Dhaka</v>
-      </c>
-      <c r="M21" t="str">
-        <v>Dhaka</v>
-      </c>
-      <c r="N21" t="str">
-        <v>7513</v>
-      </c>
-      <c r="O21" t="str">
-        <v>Narail</v>
-      </c>
-      <c r="P21" t="str">
-        <v xml:space="preserve">Bangladesh </v>
-      </c>
-      <c r="Q21" t="str">
-        <v>01731314225</v>
-      </c>
-      <c r="R21" t="str">
-        <v xml:space="preserve">md Zaman </v>
-      </c>
-      <c r="S21" t="str">
-        <v/>
-      </c>
-      <c r="T21" t="str">
-        <v xml:space="preserve">Bangladeshi </v>
-      </c>
-      <c r="U21" t="str">
-        <v>B-</v>
-      </c>
-      <c r="V21" t="str">
-        <v>Islam</v>
-      </c>
-      <c r="W21" t="str">
-        <v xml:space="preserve">Business </v>
-      </c>
-      <c r="X21" t="str">
-        <v xml:space="preserve">Proprietor </v>
-      </c>
-      <c r="Y21" t="str">
-        <v>Agro Vangla Meat</v>
-      </c>
-      <c r="Z21" t="str">
-        <v>MARRIED</v>
-      </c>
-      <c r="AA21" t="str">
-        <v>419</v>
-      </c>
-      <c r="AB21" t="str">
-        <v xml:space="preserve">Research and Study for well-being </v>
-      </c>
-      <c r="AC21" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655836036/facz7rpgqrerxsf6tml3.jpg</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Cccccc</v>
+        <v xml:space="preserve">Sheakh Mohammad Nooruzzaman </v>
       </c>
       <c r="B22" t="str">
-        <v>Ddddf</v>
+        <v xml:space="preserve">Zaman </v>
       </c>
       <c r="C22" t="str">
-        <v>Philosophy</v>
+        <v>Chemistry</v>
       </c>
       <c r="D22" t="str">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E22" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F22" t="str">
-        <v>+880744455522222</v>
+        <v>+8801712724015</v>
       </c>
       <c r="H22" t="str">
-        <v>Endddddd@gmail.com</v>
+        <v>mdzaman.ju@ gmail.com</v>
       </c>
       <c r="I22" t="str">
-        <v>Father's Love pooo</v>
+        <v>Md. Moksed sk.</v>
       </c>
       <c r="J22" t="str">
-        <v xml:space="preserve">Mother's birthday </v>
+        <v>Misa. Sahera Begum</v>
       </c>
       <c r="K22" t="str">
-        <v>Street ass</v>
+        <v>Vill- Halda,Post - Naldi,Upazila - Lohagara,</v>
       </c>
       <c r="L22" t="str">
-        <v>Ddddff</v>
+        <v>Uttara Dhaka</v>
       </c>
       <c r="M22" t="str">
-        <v>Ggggggg</v>
+        <v>Dhaka</v>
       </c>
       <c r="N22" t="str">
-        <v>4566</v>
+        <v>7513</v>
       </c>
       <c r="O22" t="str">
-        <v>Ggggg</v>
+        <v>Narail</v>
       </c>
       <c r="P22" t="str">
         <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q22" t="str">
-        <v>088766555445</v>
+        <v>01731314225</v>
       </c>
       <c r="R22" t="str">
-        <v>Zaman</v>
+        <v xml:space="preserve">md Zaman </v>
       </c>
       <c r="S22" t="str">
-        <v>1965-06-10</v>
+        <v/>
       </c>
       <c r="T22" t="str">
-        <v>Bangladesh nnn</v>
+        <v xml:space="preserve">Bangladeshi </v>
       </c>
       <c r="U22" t="str">
-        <v>B+</v>
+        <v>B-</v>
       </c>
       <c r="V22" t="str">
-        <v>Islamkkkkk</v>
+        <v>Islam</v>
       </c>
       <c r="W22" t="str">
-        <v>Tyyyy</v>
+        <v xml:space="preserve">Business </v>
       </c>
       <c r="X22" t="str">
-        <v/>
+        <v xml:space="preserve">Proprietor </v>
       </c>
       <c r="Y22" t="str">
-        <v/>
+        <v>Agro Vangla Meat</v>
       </c>
       <c r="Z22" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA22" t="str">
-        <v/>
+        <v>419</v>
       </c>
       <c r="AB22" t="str">
-        <v>Ghjjjjj</v>
+        <v xml:space="preserve">Research and Study for well-being </v>
       </c>
       <c r="AC22" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655832553/vlp78nlkmfcxp3h8n21r.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655836036/facz7rpgqrerxsf6tml3.jpg</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Moni</v>
+        <v>Cccccc</v>
       </c>
       <c r="B23" t="str">
-        <v>Moni</v>
+        <v>Ddddf</v>
       </c>
       <c r="C23" t="str">
-        <v>Physics</v>
+        <v>Philosophy</v>
       </c>
       <c r="D23" t="str">
         <v>27</v>
       </c>
       <c r="E23" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+        <v>Faculty of Humaninities</v>
       </c>
       <c r="F23" t="str">
-        <v>+8801711092634</v>
+        <v>+880744455522222</v>
       </c>
       <c r="H23" t="str">
-        <v>moni@gmail.com</v>
+        <v>Endddddd@gmail.com</v>
       </c>
       <c r="I23" t="str">
-        <v>father</v>
+        <v>Father's Love pooo</v>
       </c>
       <c r="J23" t="str">
-        <v>mother</v>
+        <v xml:space="preserve">Mother's birthday </v>
       </c>
       <c r="K23" t="str">
-        <v>street address 01</v>
+        <v>Street ass</v>
       </c>
       <c r="L23" t="str">
-        <v>street address 02</v>
+        <v>Ddddff</v>
       </c>
       <c r="M23" t="str">
-        <v>City/Upazilla</v>
+        <v>Ggggggg</v>
       </c>
       <c r="N23" t="str">
-        <v>Zip Code</v>
+        <v>4566</v>
       </c>
       <c r="O23" t="str">
-        <v>Stat/Province</v>
+        <v>Ggggg</v>
       </c>
       <c r="P23" t="str">
-        <v>Country</v>
+        <v xml:space="preserve">Bangladesh </v>
       </c>
       <c r="Q23" t="str">
-        <v>0330303030</v>
+        <v>088766555445</v>
       </c>
       <c r="R23" t="str">
-        <v>moni.zaman</v>
+        <v>Zaman</v>
       </c>
       <c r="S23" t="str">
-        <v>2222-11-22</v>
+        <v>1965-06-10</v>
       </c>
       <c r="T23" t="str">
-        <v>Bangladeshi</v>
+        <v>Bangladesh nnn</v>
       </c>
       <c r="U23" t="str">
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="V23" t="str">
-        <v>Islam</v>
+        <v>Islamkkkkk</v>
       </c>
       <c r="W23" t="str">
-        <v>Student</v>
+        <v>Tyyyy</v>
       </c>
       <c r="X23" t="str">
         <v/>
@@ -2379,21 +2379,21 @@
         <v/>
       </c>
       <c r="AB23" t="str">
-        <v>Wish Box</v>
+        <v>Ghjjjjj</v>
       </c>
       <c r="AC23" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655747057/fbzmspo5my5a2kxz8d1p.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655832553/vlp78nlkmfcxp3h8n21r.jpg</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Carol Parker</v>
+        <v>Moni</v>
       </c>
       <c r="B24" t="str">
-        <v>a</v>
+        <v>Moni</v>
       </c>
       <c r="C24" t="str">
-        <v>Chemistry</v>
+        <v>Physics</v>
       </c>
       <c r="D24" t="str">
         <v>27</v>
@@ -2402,55 +2402,55 @@
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F24" t="str">
-        <v>+6331</v>
+        <v>+8801711092634</v>
       </c>
       <c r="H24" t="str">
-        <v>13</v>
+        <v>moni@gmail.com</v>
       </c>
       <c r="I24" t="str">
-        <v>11</v>
+        <v>father</v>
       </c>
       <c r="J24" t="str">
-        <v>1</v>
+        <v>mother</v>
       </c>
       <c r="K24" t="str">
-        <v>21A Altenwerth Passage Suite 295</v>
+        <v>street address 01</v>
       </c>
       <c r="L24" t="str">
-        <v>1</v>
+        <v>street address 02</v>
       </c>
       <c r="M24" t="str">
-        <v>Himamaylan</v>
+        <v>City/Upazilla</v>
       </c>
       <c r="N24" t="str">
-        <v>5189</v>
+        <v>Zip Code</v>
       </c>
       <c r="O24" t="str">
-        <v>1</v>
+        <v>Stat/Province</v>
       </c>
       <c r="P24" t="str">
-        <v>Philippines</v>
+        <v>Country</v>
       </c>
       <c r="Q24" t="str">
-        <v>1</v>
+        <v>0330303030</v>
       </c>
       <c r="R24" t="str">
-        <v>1</v>
+        <v>moni.zaman</v>
       </c>
       <c r="S24" t="str">
-        <v>2022-06-09</v>
+        <v>2222-11-22</v>
       </c>
       <c r="T24" t="str">
-        <v>Nationality</v>
+        <v>Bangladeshi</v>
       </c>
       <c r="U24" t="str">
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="V24" t="str">
-        <v>Religion</v>
+        <v>Islam</v>
       </c>
       <c r="W24" t="str">
-        <v>1</v>
+        <v>Student</v>
       </c>
       <c r="X24" t="str">
         <v/>
@@ -2465,75 +2465,78 @@
         <v/>
       </c>
       <c r="AB24" t="str">
-        <v>1</v>
+        <v>Wish Box</v>
       </c>
       <c r="AC24" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655745223/o3q3g3avqc14r91uokhs.jpg</v>
-      </c>
-    </row>
-    <row r="25" xml:space="preserve">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655747057/fbzmspo5my5a2kxz8d1p.png</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="str">
-        <v>zaman</v>
+        <v>Carol Parker</v>
       </c>
       <c r="B25" t="str">
-        <v>Sarker</v>
+        <v>a</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Chemistry</v>
       </c>
       <c r="D25" t="str">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F25" t="str">
-        <v>+8801711082532</v>
+        <v>+6331</v>
       </c>
       <c r="H25" t="str">
-        <v>stezaman@gmail.com</v>
+        <v>13</v>
       </c>
       <c r="I25" t="str">
-        <v>Zaman</v>
+        <v>11</v>
       </c>
       <c r="J25" t="str">
-        <v>sarker</v>
+        <v>1</v>
       </c>
       <c r="K25" t="str">
-        <v>Street Address Line 01</v>
+        <v>21A Altenwerth Passage Suite 295</v>
       </c>
       <c r="L25" t="str">
-        <v>Street Address Line 02</v>
+        <v>1</v>
       </c>
       <c r="M25" t="str">
-        <v>Rangpur Sadar</v>
+        <v>Himamaylan</v>
       </c>
       <c r="N25" t="str">
-        <v>1203</v>
+        <v>5189</v>
       </c>
       <c r="O25" t="str">
-        <v>Rangpur</v>
+        <v>1</v>
       </c>
       <c r="P25" t="str">
-        <v>Bngladesh</v>
+        <v>Philippines</v>
       </c>
       <c r="Q25" t="str">
-        <v>01711082532</v>
+        <v>1</v>
       </c>
       <c r="R25" t="str">
-        <v>zaman.sarker</v>
+        <v>1</v>
       </c>
       <c r="S25" t="str">
-        <v>1975-11-20</v>
+        <v>2022-06-09</v>
       </c>
       <c r="T25" t="str">
-        <v>Banlgadesh</v>
+        <v>Nationality</v>
       </c>
       <c r="U25" t="str">
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="V25" t="str">
-        <v>Islam</v>
+        <v>Religion</v>
       </c>
       <c r="W25" t="str">
-        <v>IT Bangla</v>
+        <v>1</v>
       </c>
       <c r="X25" t="str">
         <v/>
@@ -2545,750 +2548,833 @@
         <v>MARRIED</v>
       </c>
       <c r="AA25" t="str">
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655745223/o3q3g3avqc14r91uokhs.jpg</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>zaman</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Sarker</v>
+      </c>
+      <c r="D26" t="str">
+        <v>24</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F26" t="str">
+        <v>+8801711082532</v>
+      </c>
+      <c r="H26" t="str">
+        <v>stezaman@gmail.com</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Zaman</v>
+      </c>
+      <c r="J26" t="str">
+        <v>sarker</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Street Address Line 01</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Street Address Line 02</v>
+      </c>
+      <c r="M26" t="str">
+        <v>Rangpur Sadar</v>
+      </c>
+      <c r="N26" t="str">
+        <v>1203</v>
+      </c>
+      <c r="O26" t="str">
+        <v>Rangpur</v>
+      </c>
+      <c r="P26" t="str">
+        <v>Bngladesh</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>01711082532</v>
+      </c>
+      <c r="R26" t="str">
+        <v>zaman.sarker</v>
+      </c>
+      <c r="S26" t="str">
+        <v>1975-11-20</v>
+      </c>
+      <c r="T26" t="str">
+        <v>Banlgadesh</v>
+      </c>
+      <c r="U26" t="str">
+        <v>A-</v>
+      </c>
+      <c r="V26" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="W26" t="str">
+        <v>IT Bangla</v>
+      </c>
+      <c r="X26" t="str">
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA26" t="str">
         <v>233, 222</v>
       </c>
-      <c r="AB25" t="str" xml:space="preserve">
+      <c r="AB26" t="str" xml:space="preserve">
         <v xml:space="preserve">Wish Box _x000d_
 Wish Box 02_x000d_
 With Box 03_x000d_
 Wish Box 04</v>
       </c>
-      <c r="AC25" t="str">
+      <c r="AC26" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655520984/v3nw0ahxlmvvvgpo9z3n.jpg</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Md. Chaliqur Rahaman</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Chaliqur</v>
-      </c>
-      <c r="D26" t="str">
-        <v>27</v>
-      </c>
-      <c r="E26" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
-      </c>
-      <c r="F26" t="str">
-        <v>+8801722234533</v>
-      </c>
-      <c r="H26" t="str">
-        <v>chaliqur@gmail.com</v>
-      </c>
-      <c r="I26" t="str">
-        <v>A</v>
-      </c>
-      <c r="J26" t="str">
-        <v>B</v>
-      </c>
-      <c r="K26" t="str">
-        <v>BG</v>
-      </c>
-      <c r="L26" t="str">
-        <v/>
-      </c>
-      <c r="M26" t="str">
-        <v>Ffg</v>
-      </c>
-      <c r="N26" t="str">
-        <v>22e</v>
-      </c>
-      <c r="O26" t="str">
-        <v>Fgg</v>
-      </c>
-      <c r="P26" t="str">
-        <v>B</v>
-      </c>
-      <c r="Q26" t="str">
-        <v/>
-      </c>
-      <c r="R26" t="str">
-        <v/>
-      </c>
-      <c r="S26" t="str">
-        <v/>
-      </c>
-      <c r="T26" t="str">
-        <v/>
-      </c>
-      <c r="U26" t="str">
-        <v>O+</v>
-      </c>
-      <c r="V26" t="str">
-        <v/>
-      </c>
-      <c r="W26" t="str">
-        <v>Ser</v>
-      </c>
-      <c r="X26" t="str">
-        <v>Fgg</v>
-      </c>
-      <c r="Y26" t="str">
-        <v/>
-      </c>
-      <c r="Z26" t="str">
-        <v>MARRIED</v>
-      </c>
-      <c r="AA26" t="str">
-        <v/>
-      </c>
-      <c r="AB26" t="str">
-        <v>Gg</v>
-      </c>
-      <c r="AC26" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655439934/y50fwehdswf0e0symerd.jpg</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
+        <v>Md. Chaliqur Rahaman</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Chaliqur</v>
+      </c>
+      <c r="D27" t="str">
+        <v>27</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
+      </c>
+      <c r="F27" t="str">
+        <v>+8801722234533</v>
+      </c>
+      <c r="H27" t="str">
+        <v>chaliqur@gmail.com</v>
+      </c>
+      <c r="I27" t="str">
+        <v>A</v>
+      </c>
+      <c r="J27" t="str">
+        <v>B</v>
+      </c>
+      <c r="K27" t="str">
+        <v>BG</v>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v>Ffg</v>
+      </c>
+      <c r="N27" t="str">
+        <v>22e</v>
+      </c>
+      <c r="O27" t="str">
+        <v>Fgg</v>
+      </c>
+      <c r="P27" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <v>O+</v>
+      </c>
+      <c r="V27" t="str">
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <v>Ser</v>
+      </c>
+      <c r="X27" t="str">
+        <v>Fgg</v>
+      </c>
+      <c r="Y27" t="str">
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <v>MARRIED</v>
+      </c>
+      <c r="AA27" t="str">
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <v>Gg</v>
+      </c>
+      <c r="AC27" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655439934/y50fwehdswf0e0symerd.jpg</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
         <v>Aktaruzzaman shohel</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B28" t="str">
         <v>shohel</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <v>42</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E28" t="str">
         <v>Faculty of Biology</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F28" t="str">
         <v>+8801723909939</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H28" t="str">
         <v>shohelzaman303@gmail.com</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I28" t="str">
         <v>Md.Abdul aziz</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J28" t="str">
         <v>mst.kohinur begom</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K28" t="str">
         <v>nageswari</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L28" t="str">
         <v>kurigram</v>
       </c>
-      <c r="M27" t="str">
+      <c r="M28" t="str">
         <v>nageswari</v>
       </c>
-      <c r="N27" t="str">
+      <c r="N28" t="str">
         <v>620</v>
       </c>
-      <c r="O27" t="str">
+      <c r="O28" t="str">
         <v>kurigram</v>
       </c>
-      <c r="P27" t="str">
+      <c r="P28" t="str">
         <v xml:space="preserve">Bangladesh </v>
       </c>
-      <c r="Q27" t="str">
+      <c r="Q28" t="str">
         <v>01750619592</v>
       </c>
-      <c r="R27" t="str">
+      <c r="R28" t="str">
         <v>aktaruzzaman shohel</v>
       </c>
-      <c r="S27" t="str">
+      <c r="S28" t="str">
         <v>1994-05-01</v>
       </c>
-      <c r="T27" t="str">
+      <c r="T28" t="str">
         <v xml:space="preserve">Bangladeshi </v>
       </c>
-      <c r="U27" t="str">
+      <c r="U28" t="str">
         <v>A+</v>
       </c>
-      <c r="V27" t="str">
+      <c r="V28" t="str">
         <v>islam</v>
       </c>
-      <c r="W27" t="str">
+      <c r="W28" t="str">
         <v>Student</v>
       </c>
-      <c r="X27" t="str">
+      <c r="X28" t="str">
         <v>president ju bsl</v>
       </c>
-      <c r="Y27" t="str">
-        <v/>
-      </c>
-      <c r="Z27" t="str">
+      <c r="Y28" t="str">
+        <v/>
+      </c>
+      <c r="Z28" t="str">
         <v>UNMARRIED</v>
       </c>
-      <c r="AA27" t="str">
+      <c r="AA28" t="str">
         <v>322</v>
       </c>
-      <c r="AB27" t="str">
+      <c r="AB28" t="str">
         <v xml:space="preserve">best wishes </v>
       </c>
-      <c r="AC27" t="str">
+      <c r="AC28" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655397113/drn5mqaxxqifsa47gbnc.jpg</v>
       </c>
     </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
         <v>zmana</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
         <v>sar</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <v>24</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E29" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F29" t="str">
         <v>+8801711082532</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H29" t="str">
         <v>stezaman@gmail.com</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I29" t="str">
         <v>Fathers Name</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J29" t="str">
         <v>MOthers Name</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K29" t="str">
         <v>Street Addres 01</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L29" t="str">
         <v>Street Address 02</v>
       </c>
-      <c r="M28" t="str">
+      <c r="M29" t="str">
         <v>Rangpur Sadar</v>
       </c>
-      <c r="N28" t="str">
+      <c r="N29" t="str">
         <v>1203</v>
       </c>
-      <c r="O28" t="str">
+      <c r="O29" t="str">
         <v>Rangpur</v>
       </c>
-      <c r="P28" t="str">
+      <c r="P29" t="str">
         <v>Bangladesh</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="Q29" t="str">
         <v>0330303030</v>
       </c>
-      <c r="R28" t="str">
+      <c r="R29" t="str">
         <v>https://www.facebook.com/shamsuzzaman.sarkar</v>
       </c>
-      <c r="S28" t="str">
+      <c r="S29" t="str">
         <v>1975-11-20</v>
       </c>
-      <c r="T28" t="str">
+      <c r="T29" t="str">
         <v>Bangladeshi</v>
       </c>
-      <c r="U28" t="str">
+      <c r="U29" t="str">
         <v>B+</v>
       </c>
-      <c r="V28" t="str">
+      <c r="V29" t="str">
         <v>Islam</v>
       </c>
-      <c r="W28" t="str">
+      <c r="W29" t="str">
         <v>IT Professional</v>
       </c>
-      <c r="X28" t="str">
+      <c r="X29" t="str">
         <v>daljkdalj</v>
       </c>
-      <c r="Y28" t="str">
+      <c r="Y29" t="str">
         <v>dsljsdfakljfkla</v>
       </c>
-      <c r="Z28" t="str">
+      <c r="Z29" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA28" t="str">
+      <c r="AA29" t="str">
         <v>ljlajfsdljlkjafl</v>
       </c>
-      <c r="AB28" t="str" xml:space="preserve">
+      <c r="AB29" t="str" xml:space="preserve">
         <v xml:space="preserve">asklfjaslfjl_x000d_
 _x000d_
 111111111111_x000d_
 _x000d_
 arafaljflajsdfljasdlfj</v>
       </c>
-      <c r="AC28" t="str">
+      <c r="AC29" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655395188/tn1kiqak83vjv5form9h.jpg</v>
       </c>
     </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
         <v>Zaman</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B30" t="str">
         <v>Sarkr</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" t="str">
         <v>26</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E30" t="str">
         <v>Faculty of Humaninities</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F30" t="str">
         <v>+8801711082535</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H30" t="str">
         <v>stezaman@gmail.com</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I30" t="str">
         <v>Thgg</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J30" t="str">
         <v>Vvgg</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K30" t="str">
         <v>Ggggh</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L30" t="str">
         <v>Hbhhh</v>
       </c>
-      <c r="M29" t="str">
+      <c r="M30" t="str">
         <v>Vvgg</v>
       </c>
-      <c r="N29" t="str">
+      <c r="N30" t="str">
         <v>Eedr</v>
       </c>
-      <c r="O29" t="str">
+      <c r="O30" t="str">
         <v>Ffff</v>
       </c>
-      <c r="P29" t="str">
+      <c r="P30" t="str">
         <v>Bang</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="Q30" t="str">
         <v>0171108354_</v>
       </c>
-      <c r="R29" t="str">
+      <c r="R30" t="str">
         <v>ZamanSarker</v>
       </c>
-      <c r="S29" t="str">
+      <c r="S30" t="str">
         <v>2022-06-08</v>
       </c>
-      <c r="T29" t="str">
-        <v/>
-      </c>
-      <c r="U29" t="str">
+      <c r="T30" t="str">
+        <v/>
+      </c>
+      <c r="U30" t="str">
         <v>A-</v>
       </c>
-      <c r="V29" t="str">
-        <v/>
-      </c>
-      <c r="W29" t="str">
+      <c r="V30" t="str">
+        <v/>
+      </c>
+      <c r="W30" t="str">
         <v>Yyyyy</v>
       </c>
-      <c r="X29" t="str">
-        <v/>
-      </c>
-      <c r="Y29" t="str">
-        <v/>
-      </c>
-      <c r="Z29" t="str">
+      <c r="X30" t="str">
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <v/>
+      </c>
+      <c r="Z30" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA29" t="str">
+      <c r="AA30" t="str">
         <v>123, 233</v>
       </c>
-      <c r="AB29" t="str" xml:space="preserve">
+      <c r="AB30" t="str" xml:space="preserve">
         <v xml:space="preserve">My wish_x000d_
 My work_x000d_
 My job</v>
       </c>
-      <c r="AC29" t="str">
+      <c r="AC30" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655364279/jnevxcc1knkgyghn3cux.jpg</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>SHAMIM AL MAMUN</v>
-      </c>
-      <c r="B30" t="str">
-        <v>SHAMIM</v>
-      </c>
-      <c r="D30" t="str">
-        <v>27</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Faculty of Mathematical &amp; Physical Sciences</v>
-      </c>
-      <c r="F30" t="str">
-        <v>+8801783567890</v>
-      </c>
-      <c r="H30" t="str">
-        <v>shamim@juniv.edu</v>
-      </c>
-      <c r="I30" t="str">
-        <v>MOHAMMAD ABDUL BARI</v>
-      </c>
-      <c r="J30" t="str">
-        <v>KAUD BANU</v>
-      </c>
-      <c r="K30" t="str">
-        <v>250, FLAT#7B, ROAD#8, BLOCK#C</v>
-      </c>
-      <c r="L30" t="str">
-        <v>KHILGOAN</v>
-      </c>
-      <c r="M30" t="str">
-        <v>KHILGOAN</v>
-      </c>
-      <c r="N30" t="str">
-        <v>1219</v>
-      </c>
-      <c r="O30" t="str">
-        <v>DHAKA</v>
-      </c>
-      <c r="P30" t="str">
-        <v>BANGLADESH</v>
-      </c>
-      <c r="Q30" t="str">
-        <v/>
-      </c>
-      <c r="R30" t="str">
-        <v>shamimalmamun.ju</v>
-      </c>
-      <c r="S30" t="str">
-        <v>1980-08-15</v>
-      </c>
-      <c r="T30" t="str">
-        <v>BANGLADESH</v>
-      </c>
-      <c r="U30" t="str">
-        <v>O+</v>
-      </c>
-      <c r="V30" t="str">
-        <v>ISLAM</v>
-      </c>
-      <c r="W30" t="str">
-        <v>UNIVERSITY TEACHING</v>
-      </c>
-      <c r="X30" t="str">
-        <v>ASSOCIATE PROFESSOR</v>
-      </c>
-      <c r="Y30" t="str">
-        <v>IIT, JAHANGIRNAGAR UNIVERSITY</v>
-      </c>
-      <c r="Z30" t="str">
-        <v>MARRIED</v>
-      </c>
-      <c r="AA30" t="str">
-        <v>426</v>
-      </c>
-      <c r="AB30" t="str">
-        <v>Wishing a successful and smart event.</v>
-      </c>
-      <c r="AC30" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655362988/e2kdsvr4cfrtqy63xm7d.jpg</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>a</v>
+        <v>SHAMIM AL MAMUN</v>
       </c>
       <c r="B31" t="str">
-        <v>a</v>
+        <v>SHAMIM</v>
       </c>
       <c r="D31" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F31" t="str">
-        <v>+8801794807755</v>
+        <v>+8801783567890</v>
       </c>
       <c r="H31" t="str">
-        <v/>
+        <v>shamim@juniv.edu</v>
       </c>
       <c r="I31" t="str">
-        <v>a</v>
+        <v>MOHAMMAD ABDUL BARI</v>
       </c>
       <c r="J31" t="str">
-        <v>a</v>
+        <v>KAUD BANU</v>
       </c>
       <c r="K31" t="str">
-        <v>a</v>
+        <v>250, FLAT#7B, ROAD#8, BLOCK#C</v>
       </c>
       <c r="L31" t="str">
-        <v/>
+        <v>KHILGOAN</v>
       </c>
       <c r="M31" t="str">
-        <v>a</v>
+        <v>KHILGOAN</v>
       </c>
       <c r="N31" t="str">
-        <v>a</v>
+        <v>1219</v>
       </c>
       <c r="O31" t="str">
-        <v>a</v>
+        <v>DHAKA</v>
       </c>
       <c r="P31" t="str">
-        <v>a</v>
+        <v>BANGLADESH</v>
       </c>
       <c r="Q31" t="str">
         <v/>
       </c>
       <c r="R31" t="str">
-        <v/>
+        <v>shamimalmamun.ju</v>
       </c>
       <c r="S31" t="str">
-        <v/>
+        <v>1980-08-15</v>
       </c>
       <c r="T31" t="str">
-        <v/>
+        <v>BANGLADESH</v>
       </c>
       <c r="U31" t="str">
-        <v>O-</v>
+        <v>O+</v>
       </c>
       <c r="V31" t="str">
-        <v/>
+        <v>ISLAM</v>
       </c>
       <c r="W31" t="str">
-        <v>a</v>
+        <v>UNIVERSITY TEACHING</v>
       </c>
       <c r="X31" t="str">
-        <v/>
+        <v>ASSOCIATE PROFESSOR</v>
       </c>
       <c r="Y31" t="str">
-        <v/>
+        <v>IIT, JAHANGIRNAGAR UNIVERSITY</v>
       </c>
       <c r="Z31" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA31" t="str">
-        <v/>
+        <v>426</v>
       </c>
       <c r="AB31" t="str">
-        <v>a</v>
+        <v>Wishing a successful and smart event.</v>
       </c>
       <c r="AC31" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655353376/v0le4vrpp2mjvoyhreym.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655362988/e2kdsvr4cfrtqy63xm7d.jpg</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Md. Shamsuzzaman Sarker</v>
+        <v>a</v>
       </c>
       <c r="B32" t="str">
-        <v>Milon</v>
+        <v>a</v>
       </c>
       <c r="D32" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E32" t="str">
         <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F32" t="str">
-        <v>+88017110282737</v>
+        <v>+8801794807755</v>
       </c>
       <c r="H32" t="str">
-        <v>stezaman@gmail.com</v>
+        <v/>
       </c>
       <c r="I32" t="str">
-        <v>Zaman Sarker</v>
+        <v>a</v>
       </c>
       <c r="J32" t="str">
-        <v>Nahar</v>
+        <v>a</v>
       </c>
       <c r="K32" t="str">
-        <v>New Adarsha Para, College Road</v>
+        <v>a</v>
       </c>
       <c r="L32" t="str">
-        <v>Alamnagar, College Road</v>
+        <v/>
       </c>
       <c r="M32" t="str">
-        <v>Rangpur City</v>
+        <v>a</v>
       </c>
       <c r="N32" t="str">
-        <v>1207</v>
+        <v>a</v>
       </c>
       <c r="O32" t="str">
-        <v>Rangpur</v>
+        <v>a</v>
       </c>
       <c r="P32" t="str">
-        <v>Bangladesh</v>
+        <v>a</v>
       </c>
       <c r="Q32" t="str">
-        <v>01811939393</v>
+        <v/>
       </c>
       <c r="R32" t="str">
-        <v>zaman.sarker120</v>
+        <v/>
       </c>
       <c r="S32" t="str">
-        <v>2015-11-20</v>
+        <v/>
       </c>
       <c r="T32" t="str">
-        <v>Bangladeshi</v>
+        <v/>
       </c>
       <c r="U32" t="str">
-        <v>A+</v>
+        <v>O-</v>
       </c>
       <c r="V32" t="str">
-        <v>Islam</v>
+        <v/>
       </c>
       <c r="W32" t="str">
-        <v xml:space="preserve">IT Professional </v>
+        <v>a</v>
       </c>
       <c r="X32" t="str">
-        <v>Consultant</v>
+        <v/>
       </c>
       <c r="Y32" t="str">
-        <v>TechSimple ICT</v>
+        <v/>
       </c>
       <c r="Z32" t="str">
         <v>MARRIED</v>
       </c>
       <c r="AA32" t="str">
-        <v>212, 202</v>
+        <v/>
       </c>
       <c r="AB32" t="str">
-        <v>Happy Data Submission</v>
+        <v>a</v>
       </c>
       <c r="AC32" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655289556/uxxjsetiiqs9awaonluc.jpg</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655353376/v0le4vrpp2mjvoyhreym.jpg</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Full Name</v>
+        <v>Md. Shamsuzzaman Sarker</v>
       </c>
       <c r="B33" t="str">
-        <v>NickName</v>
+        <v>Milon</v>
       </c>
       <c r="D33" t="str">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E33" t="str">
-        <v>Faculty of Humaninities</v>
+        <v>Faculty of Mathematical &amp; Physical Sciences</v>
       </c>
       <c r="F33" t="str">
-        <v>+8801794807577</v>
+        <v>+88017110282737</v>
       </c>
       <c r="H33" t="str">
-        <v>email</v>
+        <v>stezaman@gmail.com</v>
       </c>
       <c r="I33" t="str">
-        <v>F Name</v>
+        <v>Zaman Sarker</v>
       </c>
       <c r="J33" t="str">
-        <v>M Name</v>
+        <v>Nahar</v>
       </c>
       <c r="K33" t="str">
-        <v>address</v>
+        <v>New Adarsha Para, College Road</v>
       </c>
       <c r="L33" t="str">
-        <v>adress 2</v>
+        <v>Alamnagar, College Road</v>
       </c>
       <c r="M33" t="str">
-        <v>city</v>
+        <v>Rangpur City</v>
       </c>
       <c r="N33" t="str">
-        <v>zip</v>
+        <v>1207</v>
       </c>
       <c r="O33" t="str">
-        <v>state</v>
+        <v>Rangpur</v>
       </c>
       <c r="P33" t="str">
-        <v>country</v>
+        <v>Bangladesh</v>
       </c>
       <c r="Q33" t="str">
-        <v>econtact</v>
+        <v>01811939393</v>
       </c>
       <c r="R33" t="str">
-        <v>my fb id</v>
+        <v>zaman.sarker120</v>
       </c>
       <c r="S33" t="str">
-        <v>2022-06-16</v>
+        <v>2015-11-20</v>
       </c>
       <c r="T33" t="str">
-        <v>natinality</v>
+        <v>Bangladeshi</v>
       </c>
       <c r="U33" t="str">
-        <v>O+</v>
+        <v>A+</v>
       </c>
       <c r="V33" t="str">
-        <v>religion</v>
+        <v>Islam</v>
       </c>
       <c r="W33" t="str">
-        <v>occupation</v>
+        <v xml:space="preserve">IT Professional </v>
       </c>
       <c r="X33" t="str">
-        <v>des</v>
+        <v>Consultant</v>
       </c>
       <c r="Y33" t="str">
-        <v>c name</v>
+        <v>TechSimple ICT</v>
       </c>
       <c r="Z33" t="str">
-        <v>UNMARRIED</v>
+        <v>MARRIED</v>
       </c>
       <c r="AA33" t="str">
-        <v>hall</v>
+        <v>212, 202</v>
       </c>
       <c r="AB33" t="str">
-        <v>wishbox</v>
+        <v>Happy Data Submission</v>
       </c>
       <c r="AC33" t="str">
-        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655288725/i7uhzqvn86jksoyjciju.png</v>
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655289556/uxxjsetiiqs9awaonluc.jpg</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
+        <v>Full Name</v>
+      </c>
+      <c r="B34" t="str">
+        <v>NickName</v>
+      </c>
+      <c r="D34" t="str">
+        <v>28</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Faculty of Humaninities</v>
+      </c>
+      <c r="F34" t="str">
+        <v>+8801794807577</v>
+      </c>
+      <c r="H34" t="str">
+        <v>email</v>
+      </c>
+      <c r="I34" t="str">
+        <v>F Name</v>
+      </c>
+      <c r="J34" t="str">
+        <v>M Name</v>
+      </c>
+      <c r="K34" t="str">
+        <v>address</v>
+      </c>
+      <c r="L34" t="str">
+        <v>adress 2</v>
+      </c>
+      <c r="M34" t="str">
+        <v>city</v>
+      </c>
+      <c r="N34" t="str">
+        <v>zip</v>
+      </c>
+      <c r="O34" t="str">
+        <v>state</v>
+      </c>
+      <c r="P34" t="str">
+        <v>country</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>econtact</v>
+      </c>
+      <c r="R34" t="str">
+        <v>my fb id</v>
+      </c>
+      <c r="S34" t="str">
+        <v>2022-06-16</v>
+      </c>
+      <c r="T34" t="str">
+        <v>natinality</v>
+      </c>
+      <c r="U34" t="str">
+        <v>O+</v>
+      </c>
+      <c r="V34" t="str">
+        <v>religion</v>
+      </c>
+      <c r="W34" t="str">
+        <v>occupation</v>
+      </c>
+      <c r="X34" t="str">
+        <v>des</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>c name</v>
+      </c>
+      <c r="Z34" t="str">
+        <v>UNMARRIED</v>
+      </c>
+      <c r="AA34" t="str">
+        <v>hall</v>
+      </c>
+      <c r="AB34" t="str">
+        <v>wishbox</v>
+      </c>
+      <c r="AC34" t="str">
+        <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655288725/i7uhzqvn86jksoyjciju.png</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
         <v>Zaman</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B35" t="str">
         <v>Sarker</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F35" t="str">
         <v>01711082532</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H35" t="str">
         <v>stezaman@gmail.com</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I35" t="str">
         <v>Fathername</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J35" t="str">
         <v>mothername</v>
       </c>
-      <c r="Q34" t="str">
+      <c r="Q35" t="str">
         <v>0294949499</v>
       </c>
-      <c r="R34" t="str">
-        <v/>
-      </c>
-      <c r="S34" t="str">
+      <c r="R35" t="str">
+        <v/>
+      </c>
+      <c r="S35" t="str">
         <v>2022-06-08</v>
       </c>
-      <c r="T34" t="str">
+      <c r="T35" t="str">
         <v>bangladeshi</v>
       </c>
-      <c r="U34" t="str">
+      <c r="U35" t="str">
         <v>O-</v>
       </c>
-      <c r="V34" t="str">
+      <c r="V35" t="str">
         <v>s\\</v>
       </c>
-      <c r="W34" t="str">
+      <c r="W35" t="str">
         <v>flaskdjflj</v>
       </c>
-      <c r="X34" t="str">
+      <c r="X35" t="str">
         <v>sljasdljf</v>
       </c>
-      <c r="Y34" t="str">
+      <c r="Y35" t="str">
         <v>saljdklaj</v>
       </c>
-      <c r="Z34" t="str">
+      <c r="Z35" t="str">
         <v>MARRIED</v>
       </c>
-      <c r="AA34" t="str">
+      <c r="AA35" t="str">
         <v>123, 344</v>
       </c>
-      <c r="AB34" t="str">
+      <c r="AB35" t="str">
         <v>afjslfjakl</v>
       </c>
-      <c r="AC34" t="str">
+      <c r="AC35" t="str">
         <v>http://res.cloudinary.com/dxism6mwy/image/upload/v1655046787/swnbtvhnmv0lpwyr8vje.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC35"/>
   </ignoredErrors>
 </worksheet>
 </file>